--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="181">
   <si>
     <t>http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090</t>
   </si>
@@ -1672,6 +1672,100 @@
     ]
 }</t>
   </si>
+  <si>
+    <t>就业人数分析</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/jyrq/jyfx</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 288,
+            "TITLE": "稳定就业"
+        },
+        {
+            "NUM": 1692,
+            "TITLE": "灵活就业"
+        },
+        {
+            "NUM": 115,
+            "TITLE": "自主创业"
+        },
+        {
+            "NUM": 12,
+            "TITLE": "新业态就业"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "NUM": 数值
+            "TITLE": 标题</t>
+  </si>
+  <si>
+    <t>新业态类型统计</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/jyrq/xytType</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 7,
+            "TITLE": "其他"
+        },
+        {
+            "NUM": 5,
+            "TITLE": "外卖、快递人员"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>灵活就业类型统计</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/jyrq/lhType</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 721,
+            "TITLE": "临时就业"
+        },
+        {
+            "NUM": 536,
+            "TITLE": "劳务工"
+        },
+        {
+            "NUM": 281,
+            "TITLE": "其他"
+        },
+        {
+            "NUM": 124,
+            "TITLE": "季节就业"
+        },
+        {
+            "NUM": 23,
+            "TITLE": "非全日制就业"
+        },
+        {
+            "NUM": 7,
+            "TITLE": "钟点工"
+        }
+    ]
+}</t>
+  </si>
 </sst>
 </file>
 
@@ -1679,9 +1773,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1723,8 +1817,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1735,6 +1836,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1754,22 +1870,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1777,6 +1878,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1805,37 +1930,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1852,43 +1946,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1906,7 +1970,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1918,19 +1988,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1942,7 +2012,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1954,13 +2030,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1972,25 +2084,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2002,13 +2102,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2024,18 +2130,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -2043,6 +2137,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2085,30 +2203,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2151,10 +2245,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2163,133 +2257,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3355,10 +3449,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3509,6 +3603,48 @@
         <v>167</v>
       </c>
     </row>
+    <row r="12" ht="316.8" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" ht="201.6" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" ht="409.5" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/jyrq/infoCount" tooltip="http://localhost:9090/jyrq/infoCount"/>
@@ -3520,6 +3656,9 @@
     <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/jyrq/age"/>
     <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/jyrq/jyType"/>
     <hyperlink ref="B11" r:id="rId9" display="http://localhost:9090/jyrq/zzType"/>
+    <hyperlink ref="B12" r:id="rId10" display="http://localhost:9090/jyrq/jyfx"/>
+    <hyperlink ref="B13" r:id="rId11" display="http://localhost:9090/jyrq/xytType"/>
+    <hyperlink ref="B14" r:id="rId12" display="http://localhost:9090/jyrq/lhType"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -4,21 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="4"/>
+    <workbookView windowWidth="23325" windowHeight="9765" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="智慧党建" sheetId="1" r:id="rId1"/>
     <sheet name="人人持证" sheetId="2" r:id="rId2"/>
     <sheet name="培训求职" sheetId="3" r:id="rId3"/>
-    <sheet name="智慧电梯" sheetId="4" r:id="rId4"/>
-    <sheet name="就业人群" sheetId="5" r:id="rId5"/>
+    <sheet name="就业人群" sheetId="5" r:id="rId4"/>
+    <sheet name="智慧旅游" sheetId="6" r:id="rId5"/>
+    <sheet name="医疗改革" sheetId="8" r:id="rId6"/>
+    <sheet name="智慧林业" sheetId="7" r:id="rId7"/>
+    <sheet name="智慧教育" sheetId="9" r:id="rId8"/>
+    <sheet name="智慧水务" sheetId="10" r:id="rId9"/>
+    <sheet name="视频" sheetId="11" r:id="rId10"/>
+    <sheet name="数据资产" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="382">
   <si>
     <t>http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090</t>
   </si>
@@ -65,11 +71,17 @@
             {
             "MS": 内容
             "PIC":图片
+            "PIC_MC":图片名称
+            "TZ_URL":跳转URL
             }
         ]
 image: 右侧小图</t>
   </si>
   <si>
+    <t>edit:
+4-22</t>
+  </si>
+  <si>
     <t>党员学历</t>
   </si>
   <si>
@@ -81,31 +93,42 @@
     "code": 200,
     "data": [
         {
-            "ZB": 20.00,
-            "XLLX": "硕士"
-        },
-        {
-            "ZB": 50.00,
-            "XLLX": "本科"
-        },
-        {
-            "ZB": 15.00,
-            "XLLX": "大专"
-        },
-        {
-            "ZB": 2.00,
-            "XLLX": "高中"
-        },
-        {
-            "ZB": 13.00,
-            "XLLX": "其他"
+            "ZB": 1.10,
+            "XLLX": "研究生",
+            "SL": 0
+        },
+        {
+            "ZB": 15.89,
+            "XLLX": "大学本科",
+            "SL": 0
+        },
+        {
+            "ZB": 15.39,
+            "XLLX": "大学专科",
+            "SL": 0
+        },
+        {
+            "ZB": 8.02,
+            "XLLX": "中专",
+            "SL": 0
+        },
+        {
+            "ZB": 18.21,
+            "XLLX": "高中，中技",
+            "SL": 0
+        },
+        {
+            "ZB": 41.38,
+            "XLLX": "初中及以下",
+            "SL": 0
         }
     ]
 }</t>
   </si>
   <si>
     <t xml:space="preserve"> "ZB":占比
- "XLLX": 标题</t>
+ "XLLX": 标题
+ "SL": 数量</t>
   </si>
   <si>
     <t>党员性别</t>
@@ -148,31 +171,42 @@
     "code": 200,
     "data": [
         {
-            "HY": "机关事业单位",
-            "ZB": 24.00
-        },
-        {
-            "HY": "企业",
-            "ZB": 23.00
-        },
-        {
-            "HY": "乡镇，建制村",
-            "ZB": 20.00
-        },
-        {
-            "HY": "街道居委会",
-            "ZB": 18.00
+            "HY": "公有制单位",
+            "ZB": 26.46,
+            "SL": 0
+        },
+        {
+            "HY": "非公企业",
+            "ZB": 2.41,
+            "SL": 0
+        },
+        {
+            "HY": "社会组织",
+            "ZB": 0.24,
+            "SL": 0
+        },
+        {
+            "HY": "农牧渔民",
+            "ZB": 51.61,
+            "SL": 0
+        },
+        {
+            "HY": "离退休人员",
+            "ZB": 16.13,
+            "SL": 0
         },
         {
             "HY": "其他",
-            "ZB": 5.00
+            "ZB": 3.15,
+            "SL": 0
         }
     ]
 }</t>
   </si>
   <si>
     <t>"HY": 行业,
-"ZB": 占比</t>
+"ZB": 占比
+"SL": 数量</t>
   </si>
   <si>
     <t>党龄结构</t>
@@ -186,31 +220,37 @@
     "code": 200,
     "data": [
         {
-            "YKLY": "3年以下",
-            "DECIMAL": 20.00
-        },
-        {
-            "YKLY": "3年-5年",
-            "DECIMAL": 15.00
-        },
-        {
-            "YKLY": "5年-10年",
-            "DECIMAL": 25.00
-        },
-        {
-            "YKLY": "10年-20年",
-            "DECIMAL": 30.00
-        },
-        {
-            "YKLY": "20年以上",
-            "DECIMAL": 10.00
+            "YKLY": "8年以下",
+            "DECIMAL": 16.33,
+            "SL": 0
+        },
+        {
+            "YKLY": "8-18年",
+            "DECIMAL": 24.22,
+            "SL": 0
+        },
+        {
+            "YKLY": "18年-42年",
+            "DECIMAL": 41.54,
+            "SL": 0
+        },
+        {
+            "YKLY": "42年-44年",
+            "DECIMAL": 2.46,
+            "SL": 0
+        },
+        {
+            "YKLY": "44年以上",
+            "DECIMAL": 15.46,
+            "SL": 0
         }
     ]
 }</t>
   </si>
   <si>
     <t>"YKLY": "名称",
-"DECIMAL": 数量</t>
+"DECIMAL": 占比
+"SL": 数量</t>
   </si>
   <si>
     <t>党员基本情况</t>
@@ -316,33 +356,15 @@
         {
             "PIC_MS": "高平党员风采1",
             "PIC": "https://ss1.bdstatic.com/70cFvXSh_Q1YnxGkpoWK1HF6hhy/it/u=3435375291,2293676522&amp;fm=26&amp;gp=0.jpg"
-        },
-        {
-            "PIC_MS": "高平党员风采2",
-            "PIC": "https://ss2.bdstatic.com/70cFvnSh_Q1YnxGkpoWK1HF6hhy/it/u=3321506086,1115208746&amp;fm=26&amp;gp=0.jpg"
-        },
-        {
-            "PIC_MS": "高平党员风采3",
-            "PIC": "https://ss1.bdstatic.com/70cFvXSh_Q1YnxGkpoWK1HF6hhy/it/u=2610172913,2820689046&amp;fm=26&amp;gp=0.jpg"
-        },
-        {
-            "PIC_MS": "高平党员风采4",
-            "PIC": "https://ss3.bdstatic.com/70cFv8Sh_Q1YnxGkpoWK1HF6hhy/it/u=754994169,3747405568&amp;fm=26&amp;gp=0.jpg"
-        },
-        {
-            "PIC_MS": "高平党员风采5",
-            "PIC": "https://ss2.bdstatic.com/70cFvnSh_Q1YnxGkpoWK1HF6hhy/it/u=2571448693,2111990735&amp;fm=26&amp;gp=0.jpg"
-        },
-        {
-            "PIC_MS": "高平党员风采6",
-            "PIC": "https://ss1.bdstatic.com/70cFvXSh_Q1YnxGkpoWK1HF6hhy/it/u=3367276797,1631501426&amp;fm=26&amp;gp=0.jpg"
+            "PIC_MC":"123"
         }
     ]
 }</t>
   </si>
   <si>
     <t xml:space="preserve"> "PIC_MS": 内容
- "PIC": 图片地址</t>
+ "PIC": 图片地址
+"PIC_MC":图片名称</t>
   </si>
   <si>
     <t>道德模范</t>
@@ -358,33 +380,15 @@
         {
             "DDMF_PIC_MS": "测试测试测试数据",
             "DDMF_PIC": "https://img0.baidu.com/it/u=1481883412,1615024343&amp;fm=26&amp;fmt=auto&amp;gp=0.jpg"
-        },
-        {
-            "DDMF_PIC_MS": "人大代表大会",
-            "DDMF_PIC": "https://ss3.bdstatic.com/70cFv8Sh_Q1YnxGkpoWK1HF6hhy/it/u=1787681775,190968984&amp;fm=26&amp;gp=0.jpg"
-        },
-        {
-            "DDMF_PIC_MS": "高平政府领导视察",
-            "DDMF_PIC": "https://ss0.bdstatic.com/70cFvHSh_Q1YnxGkpoWK1HF6hhy/it/u=3264415614,3669038770&amp;fm=26&amp;gp=0.jpg"
-        },
-        {
-            "DDMF_PIC_MS": "高平政协会议",
-            "DDMF_PIC": "https://ss0.bdstatic.com/70cFuHSh_Q1YnxGkpoWK1HF6hhy/it/u=806036789,100061921&amp;fm=26&amp;gp=0.jpg"
-        },
-        {
-            "DDMF_PIC_MS": "高平市人民政府网",
-            "DDMF_PIC": "https://ss0.bdstatic.com/70cFuHSh_Q1YnxGkpoWK1HF6hhy/it/u=3453299056,109221648&amp;fm=26&amp;gp=0.jpg"
-        },
-        {
-            "DDMF_PIC_MS": "高平市青年企业家协会成立",
-            "DDMF_PIC": "https://ss1.bdstatic.com/70cFuXSh_Q1YnxGkpoWK1HF6hhy/it/u=3976970409,361462230&amp;fm=26&amp;gp=0.jpg"
+            "PIC_MC":"123"
         }
     ]
 }d</t>
   </si>
   <si>
     <t xml:space="preserve"> "DDMF_PIC_MS": 内容,
- "DDMF_PIC": 图片地址</t>
+ "DDMF_PIC": 图片地址
+  PIC_MC:图片名称</t>
   </si>
   <si>
     <t>党员年龄结构</t>
@@ -398,31 +402,37 @@
     "code": 200,
     "data": [
         {
-            "DL": "3年以下",
-            "ZB": 8.00
-        },
-        {
-            "DL": "3年-5年",
-            "ZB": 12.00
-        },
-        {
-            "DL": "5年-10年",
-            "ZB": 40.00
-        },
-        {
-            "DL": "10年—20年",
-            "ZB": 30.00
-        },
-        {
-            "DL": "20年以上",
-            "ZB": 10.00
+            "DL": "18岁以下",
+            "ZB": 8.50,
+            "SL": 0
+        },
+        {
+            "DL": "18岁-34岁",
+            "ZB": 22.60,
+            "SL": 0
+        },
+        {
+            "DL": "35岁-45岁",
+            "ZB": 29.30,
+            "SL": 0
+        },
+        {
+            "DL": "46-59岁",
+            "ZB": 37.20,
+            "SL": 0
+        },
+        {
+            "DL": "60岁以上",
+            "ZB": 2.40,
+            "SL": 0
         }
     ]
 }</t>
   </si>
   <si>
     <t xml:space="preserve">            "DL": 名称,
-            "ZB": 占比</t>
+            "ZB": 占比
+            "SL": 数量</t>
   </si>
   <si>
     <t>发展党员情况</t>
@@ -476,16 +486,19 @@
         {
             "XH": "1",
             "ZB": 50.00,
+            "JF": 56.50,
             "DZB": "高平市教育工委"
         },
         {
             "XH": "2",
             "ZB": 40.00,
+            "JF": 46.50,
             "DZB": "高平政法委组织"
         },
         {
             "XH": "3",
             "ZB": 10.00,
+            "JF": 12.60,
             "DZB": "高平市委党校"
         }
     ]
@@ -494,7 +507,8 @@
   <si>
     <t xml:space="preserve">            "XH": 序号,
             "ZB": 占比,
-            "DZB":党支部</t>
+            "DZB":党支部
+            "JF":积分</t>
   </si>
   <si>
     <t>热门关键词</t>
@@ -994,58 +1008,176 @@
   </si>
   <si>
     <t>{
-    "msg":"成功",
-    "code":200,
-    "data":{
-        "edu":[
-            {
-                "NUM":276,
-                "WHCD":"中专",
-                "YX":"无"
-            },
-            {
-                "NUM":5,
-                "WHCD":"中专",
-                "YX":"有"
-            }
-        ],
-        "count":[
-            {
-                "NUM":40,
-                "NAME":"rs"
-            },
-            {
-                "NUM":40,
-                "NAME":"real_rs"
-            },
-            {
-                "rate":100.00
-            }
-        ],
-        "age":[
-            {
-                "NUM":380,
-                "NAME":"20岁及以下",
-                "YX":"无"
-            }
-            {
-                "NUM":1452,
-                "NAME":"50岁以上",
-                "YX":"无"
-            },
-            {
-                "NUM":7,
-                "NAME":"50岁以上",
-                "YX":"有"
-            }
-        ]
-    }
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "edu": [
+            {
+                "NUM": 14,
+                "WHCD": "初中",
+                "TITLE": "sjrs"
+            },
+            {
+                "NUM": 14,
+                "WHCD": "初中",
+                "TITLE": "yyrs"
+            },
+            {
+                "NUM": 1,
+                "WHCD": "大学本科生",
+                "TITLE": "sjrs"
+            },
+            {
+                "NUM": 1,
+                "WHCD": "大学本科生",
+                "TITLE": "yyrs"
+            },
+            {
+                "NUM": 9,
+                "WHCD": "大专生",
+                "TITLE": "sjrs"
+            },
+            {
+                "NUM": 9,
+                "WHCD": "大专生",
+                "TITLE": "yyrs"
+            },
+            {
+                "NUM": 6,
+                "WHCD": "高中",
+                "TITLE": "sjrs"
+            },
+            {
+                "NUM": 6,
+                "WHCD": "高中",
+                "TITLE": "yyrs"
+            },
+            {
+                "NUM": 1,
+                "WHCD": "其他",
+                "TITLE": "sjrs"
+            },
+            {
+                "NUM": 1,
+                "WHCD": "其他",
+                "TITLE": "yyrs"
+            },
+            {
+                "NUM": 3,
+                "WHCD": "小学",
+                "TITLE": "sjrs"
+            },
+            {
+                "NUM": 3,
+                "WHCD": "小学",
+                "TITLE": "yyrs"
+            },
+            {
+                "NUM": 1,
+                "WHCD": "中技",
+                "TITLE": "sjrs"
+            },
+            {
+                "NUM": 1,
+                "WHCD": "中技",
+                "TITLE": "yyrs"
+            },
+            {
+                "NUM": 5,
+                "WHCD": "中专",
+                "TITLE": "sjrs"
+            },
+            {
+                "NUM": 5,
+                "WHCD": "中专",
+                "TITLE": "yyrs"
+            }
+        ],
+        "count": [
+            {
+                "NUM": 40,
+                "NAME": "rs"
+            },
+            {
+                "NUM": 40,
+                "NAME": "real_rs"
+            },
+            {
+                "rate": 100.00
+            }
+        ],
+        "age": [
+            {
+                "NUM": 2,
+                "TITLE": "yyrs",
+                "NAME": "20岁及以下"
+            },
+            {
+                "NUM": 2,
+                "TITLE": "sjrs",
+                "NAME": "20岁及以下"
+            },
+            {
+                "NUM": 5,
+                "TITLE": "yyrs",
+                "NAME": "20-25岁"
+            },
+            {
+                "NUM": 5,
+                "TITLE": "sjrs",
+                "NAME": "20-25岁"
+            },
+            {
+                "NUM": 4,
+                "TITLE": "yyrs",
+                "NAME": "25-30岁"
+            },
+            {
+                "NUM": 4,
+                "TITLE": "sjrs",
+                "NAME": "25-30岁"
+            },
+            {
+                "NUM": 12,
+                "TITLE": "yyrs",
+                "NAME": "30-40岁"
+            },
+            {
+                "NUM": 12,
+                "TITLE": "sjrs",
+                "NAME": "30-40岁"
+            },
+            {
+                "NUM": 10,
+                "TITLE": "yyrs",
+                "NAME": "40-50岁"
+            },
+            {
+                "NUM": 10,
+                "TITLE": "sjrs",
+                "NAME": "40-50岁"
+            },
+            {
+                "NUM": 7,
+                "TITLE": "yyrs",
+                "NAME": "50岁以上"
+            },
+            {
+                "NUM": 7,
+                "TITLE": "sjrs",
+                "NAME": "50岁以上"
+            }
+        ]
+    }
 }</t>
   </si>
   <si>
     <t>edu 学历
 count 培训信息
-age 年龄段</t>
+age 年龄段
+"NUM": 数量,
+"WHCD": 文化程度
+"TITLE": yyrs(意愿参加)/sjrs(实际参加)</t>
   </si>
   <si>
     <t>求职信息</t>
@@ -1123,236 +1255,6 @@
    rate 输出率</t>
   </si>
   <si>
-    <t>电梯数据概览</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/zhdt/gl</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": {
-        "JRDTS": 300,
-        "YXZCS": 270,
-        "YXYCS": 30
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "JRDTS": 接入电梯数,
-        "YXZCS": 270,
-        "YXYCS": 30</t>
-  </si>
-  <si>
-    <t>电梯使用场所</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/zhdt/scene</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "CSLX": "住宅",
-            "RATIO": 1.00
-        },
-        {
-            "CSLX": "酒店",
-            "RATIO": 2.00
-        },
-        {
-            "CSLX": "学校",
-            "RATIO": 8.00
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>各街道乡镇电梯数量分布</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/zhdt/dtCount</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "DTSL": 10,
-            "JDXZMC": "米山镇"
-        },
-        {
-            "DTSL": 5,
-            "JDXZMC": "三甲镇"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>DTSL : 电梯数量
-JDXZMC ： 地区</t>
-  </si>
-  <si>
-    <t>电梯类型</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/zhdt/dtType</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "RATIO": 50.00,
-            "DTLX": "乘客电梯"
-        },
-        {
-            "RATIO": 1.00,
-            "DTLX": "自动人行道"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>DTLX:类型
-RATIO:占比</t>
-  </si>
-  <si>
-    <t>各街道乡镇电梯维修保超期数量</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/zhdt/wbCount</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "SL": 10,
-            "NAME": "米山镇"
-        },
-        {
-            "SL": 5,
-            "NAME": "三甲镇"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>NAME:名称
-SL:数量</t>
-  </si>
-  <si>
-    <t>电梯均项平均值</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/zhdt/dtAvg</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "PJZ": 10.00,
-            "DW": "次",
-            "NRX": "电梯告警次数",
-            "BFB": 15.00
-        },
-        {
-            "PJZ": 14.00,
-            "DW": "次",
-            "NRX": "维修工单处理",
-            "BFB": 18.00
-        },
-        {
-            "PJZ": 20.00,
-            "DW": "次",
-            "NRX": "维修工单次数",
-            "BFB": 25.00
-        },
-        {
-            "PJZ": 25.00,
-            "DW": "次",
-            "NRX": "电梯报警人数",
-            "BFB": 33.00
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "PJZ": 平局值
-            "DW": 单位,
-            "NRX": 标题
-            "BFB": 百分比</t>
-  </si>
-  <si>
-    <t>月平均维保时长统计</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/zhdt/monthAvg</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "WBSC": "130",
-            "YUE": "1月"
-        },
-        {
-            "WBSC": "80",
-            "YUE": "2月"
-        },
-        {
-            "WBSC": "90",
-            "YUE": "3月"
-        },
-        {
-            "WBSC": "100",
-            "YUE": "4月"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "WBSC": 维保时长,
-            "YUE": "月份</t>
-  </si>
-  <si>
-    <t>单位维保/维保工单总数统计</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/zhdt/wbTotal</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "WBCS": "100",
-            "DW": "次",
-            "DWMC": "山西西门子电梯有限公司",
-            "WXCS": "12"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            "WBCS": 维保次数
-            "DW": 单位
-            "DWMC": 单位名称
-            "WXCS": 维修次数</t>
-  </si>
-  <si>
     <t>就业情况统计</t>
   </si>
   <si>
@@ -1766,27 +1668,3652 @@
     ]
 }</t>
   </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>请求参数</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>全市景区接待人数月报</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/rsMonth</t>
+  </si>
+  <si>
+    <t>date:2012-02</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "LJJDRSWRC": 2.2,
+            "JDRSWRC": 2.2,
+            "JQMC": "炎帝陵"
+        },
+        {
+            "LJJDRSWRC": 1,
+            "JDRSWRC": 1,
+            "JQMC": "大凉山"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>"LJJDRSWRC": 累计接待人数
+"JDRSWRC": 接待人数
+"JQMC": 景区名称</t>
+  </si>
+  <si>
+    <t>全市景区接待人数趋势图</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/rsqs</t>
+  </si>
+  <si>
+    <t>date:2021</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "EIGHT": 0,
+            "SIX": 0,
+            "ONE": 2.2,
+            "FOUR": 0,
+            "TWO": 3,
+            "ELEVEN": 0,
+            "FIVE": 0,
+            "NINE": 0,
+            "TWELVE": 0,
+            "TEN": 0,
+            "JQMC": "炎帝陵",
+            "THREE": 0,
+            "SEVEN": 0
+        },
+        {
+            "EIGHT": 0,
+            "SIX": 0,
+            "ONE": 1,
+            "FOUR": 0,
+            "TWO": 2,
+            "ELEVEN": 0,
+            "FIVE": 0,
+            "NINE": 0,
+            "TWELVE": 0,
+            "TEN": 0,
+            "JQMC": "大凉山",
+            "THREE": 0,
+            "SEVEN": 0
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>"EIGHT":八月
+"SIX": 六月
+"ONE": 一月
+"FOUR": 四月
+"JQDMC": 景区名称
+"TWO": 二月
+"ELEVEN": 十一月
+"FIVE": 五月
+"NINE": 九月
+"TWELVE": 十二月
+"TEN": 十月
+"THREE": 三月
+"SEVEN": 七月</t>
+  </si>
+  <si>
+    <t>门票收入月报</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/mpMonth</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "EIGHT": 0,
+            "SIX": 0,
+            "ONE": 5,
+            "FOUR": 0,
+            "JQDMC": "大凉山",
+            "TWO": 3.6,
+            "ELEVEN": 0,
+            "FIVE": 0,
+            "NINE": 0,
+            "TWELVE": 0,
+            "TEN": 0,
+            "THREE": 0,
+            "SEVEN": 0
+        },
+        {
+            "EIGHT": 0,
+            "SIX": 0,
+            "ONE": 3,
+            "FOUR": 0,
+            "JQDMC": "炎帝陵",
+            "TWO": 2,
+            "ELEVEN": 0,
+            "FIVE": 0,
+            "NINE": 0,
+            "TWELVE": 0,
+            "TEN": 0,
+            "THREE": 0,
+            "SEVEN": 0
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>景区运营报告</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/report</t>
+  </si>
+  <si>
+    <t>date:2012</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "data": [
+            {
+                "COUNT": 0,
+                "NAME": "jdrs"
+            },
+            {
+                "COUNT": 0,
+                "NAME": "zsr"
+            },
+            {
+                "COUNT": 0,
+                "NAME": "mpsr"
+            }
+        ],
+        "day": 104
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day ：运营天数
+mpsr：门票收入
+jdrs：接待人数
+zsr：总收入
+</t>
+  </si>
+  <si>
+    <t>旅游景区人气排名</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/rank</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "UNIT": "万元",
+            "COUNT": 4,
+            "JQMC": "炎帝陵"
+        },
+        {
+            "UNIT": "万元",
+            "COUNT": 4,
+            "JQMC": "大凉山"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "UNIT": 单位,
+  "COUNT": 数值,
+  "JQMC": 景区名称</t>
+  </si>
+  <si>
+    <t>入境旅游者人数占比分析</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/rjrsCount</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "WGR": 3,
+        "TW": 1.6,
+        "AM": 8.2,
+        "XG": 3.2
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "WGR": 外国人,
+        "TW": 台湾,
+        "AM": 澳门,
+        "XG": 香港</t>
+  </si>
+  <si>
+    <t>入境旅游者人数月报</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/rjrsMonth</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "MONTH": 1,
+            "WGR": 1,
+            "TW": 0.5,
+            "AM": 3.6,
+            "XG": 1.1
+        },
+        {
+            "MONTH": 2,
+            "WGR": 2,
+            "TW": 1.1,
+            "AM": 4.6,
+            "XG": 2.1
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         "MONTH": 月份,
+         "WGR": 外国人,
+         "TW": 台湾,
+         "AM": 澳门,
+         "XG": 香港</t>
+  </si>
+  <si>
+    <t>示范区年度报表</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/sfq</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "LXSJ": "50",
+        "LYZSSSJ": "60",
+        "LYSRWY": "3.6",
+        "LYTSBJLG": "11",
+        "LYGWCSJ": "10",
+        "LYYYCSJ": "10",
+        "LYTSBJL": "100",
+        "LYZSCWSZ": "200",
+        "LYTSLG": "11",
+        "LYGYJDRSWRC": "1.1"
+    }
+}</t>
+  </si>
+  <si>
+    <t>"LXSJ" '旅行社(家)';
+"LYGWCSJ" '旅游购物场所(家)';
+"LYGYJDRSWRC"  '旅游过夜接待人数(万人次)';
+"LYSRWY" '旅游收入(万元)';
+"LYTSBJL" '旅游投诉办结率';
+"LYTSBJLG" '旅游投诉办结量(个)';
+"LYTSLG"  '旅游投诉量(个)';
+"LYYYCSJ" '旅游演艺场所(家)';
+"LYZSCWSZ" '旅游住宿床位数(张)';
+"LYZSSSJ"  '旅游住宿设施(家)';</t>
+  </si>
+  <si>
+    <t>各停车场车位占用分析</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/cwCount</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "SL": 32,
+            "JQMC": "炎帝陵"
+        },
+        {
+            "SL": 10,
+            "JQMC": "寻梦小镇"
+        },
+        {
+            "SL": 55,
+            "JQMC": "羊头山"
+        },
+        {
+            "SL": 20,
+            "JQMC": "大凉山"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>"SL": 数量,
+"JQMC": 景区名称</t>
+  </si>
+  <si>
+    <t>Gis</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/gis</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "FZR" : '负责人',
+   "GW" : '官网',
+   "JD" : '经度',
+   "JQDJ" : '景区等级',
+   "JQJS" : '景区介绍',
+   "JQMC" : '景区名称',
+   "LXDH" : '联系电话',
+   "SP" : '视频（多个）',
+   "TB" : '图标',
+   "TP" : '图片（多张）',
+   "WD" : '纬度',
+   "XXDZ" : '详细地址',
+   "XZQY" : '行政区域',
+   "YB" : '邮编'
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>"FZR" : '负责人',
+"GW" : '官网',
+"JD" : '经度',
+"JQDJ" : '景区等级',
+"JQJS" : '景区介绍',
+"JQMC" : '景区名称',
+"LXDH" : '联系电话',
+"SP" : '视频（多个）',
+"TB" : '图标',
+"TP" : '图片（多张）',
+"WD" : '纬度',
+"XXDZ" : '详细地址',
+"XZQY" : '行政区域',
+"YB" : '邮编'</t>
+  </si>
+  <si>
+    <t>视频监控</t>
+  </si>
+  <si>
+    <t>优良天数比例</t>
+  </si>
+  <si>
+    <t>门诊/急诊人数</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/ylgg/rsCount</t>
+  </si>
+  <si>
+    <t>date:2021-01-01
+type:day/week/month/year</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "JZRC": 7975,
+        "MZRC": 81027
+    }
+}</t>
+  </si>
+  <si>
+    <t>"MZRC" '门诊人次'
+"JZRC" '急诊人次'</t>
+  </si>
+  <si>
+    <t>门诊/住院收入</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/ylgg/srCount</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "mz": {
+            "OTHER": 87.90,
+            "MZYZB": 12.10
+        },
+        "zy": {
+            "OTHER": 74.05,
+            "ZYYZB": 25.95
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>mz：门诊
+MZYZB:门诊药品收入占比
+OTHER：其他占比
+zy：住院
+ZYYZB:住院药品收入占比
+OTHER：其他占比</t>
+  </si>
+  <si>
+    <t>手术及检查例数趋势图</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/ylgg/ssjc</t>
+  </si>
+  <si>
+    <t>date:2021-03-01
+type:day/week/month/year</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "JCLS": 38665,
+            "YEAR": 2021,
+            "SJ": 1,
+            "ZYSSLS": 947
+        },
+        {
+            "JCLS": 34020,
+            "YEAR": 2021,
+            "SJ": 2,
+            "ZYSSLS": 843
+        },
+        {
+            "JCLS": 56916,
+            "YEAR": 2021,
+            "SJ": 3,
+            "ZYSSLS": 1209
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>"JCLS": 检查例数,
+"SJ": 时间,
+"ZYSSLS": 住院手术例数
+"YEAR" :年份</t>
+  </si>
+  <si>
+    <t>入院人数变化</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/ylgg/ryrs</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "YEAR": 2021,
+            "SJ": 1,
+            "CYRS": 4610,
+            "RYLS": 4454,
+            "ZYRS": 32657
+        },
+        {
+            "YEAR": 2021,
+            "SJ": 2,
+            "CYRS": 3378,
+            "RYLS": 3567,
+            "ZYRS": 23409
+        },
+        {
+            "YEAR": 2021,
+            "SJ": 3,
+            "CYRS": 5325,
+            "RYLS": 5202,
+            "ZYRS": 36564
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>"CYRS": 出院人数,
+"SJ": 时间,
+"RYLS": 入院人数
+"YEAR" :年份
+"ZYRS": 在院人数</t>
+  </si>
+  <si>
+    <t>住院、门诊次均费</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/ylgg/jcf</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "ZYCJFY": 537654.917856,
+            "MCRFY": 1,
+            "YEAR": 2021,
+            "SJ": 1,
+            "MZCJFY": 20722.253879
+        },
+        {
+            "ZYCJFY": 450654.654276,
+            "MCRFY": 0,
+            "YEAR": 2021,
+            "SJ": 2,
+            "MZCJFY": 21283.680105
+        },
+        {
+            "ZYCJFY": 624510.276885,
+            "MCRFY": 0,
+            "YEAR": 2021,
+            "SJ": 3,
+            "MZCJFY": 23472.428799
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>ZYCJFY : 住院次均费用
+MZCJFY : 门诊次均费用
+MCRFY : 每日床费用
+SJ: 时间
+YEAR :年份</t>
+  </si>
+  <si>
+    <t>人员职称</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/ylgg/zc</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "JB":"初级",
+            "RS":700
+        },
+        {
+            "XL":"中级",
+            "ZB":550
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+JB:级别
+RS:人数</t>
+  </si>
+  <si>
+    <t>人员学历</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/ylgg/xl</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "XL":"本科",
+            "ZB":20
+        },
+        {
+            "XL":"大专",
+            "ZB":35
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+XL:学历
+SL:数量</t>
+  </si>
+  <si>
+    <t>林业信息资源统计</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhly/count</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "TITLE": "mj",
+            "COUNT": "0"
+        },
+        {
+            "TITLE": "rate",
+            "COUNT": "16.78%"
+        },
+        {
+            "TITLE": "lcsl",
+            "COUNT": "35"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>mj：面积(亩)
+rate：覆盖率
+lcsl：林场数量</t>
+  </si>
+  <si>
+    <t>全市林场森林火险等级占比</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhly/hxdjzb</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "WXCD": "低度危险",
+            "NUM": 75
+        },
+        {
+            "WXCD": "中度危险",
+            "NUM": 20
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>"WXCD": 火险等级,
+"NUM": 数值</t>
+  </si>
+  <si>
+    <t>生物多样性</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhly/dyx</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 0,
+            "NAME": "type"
+        },
+        {
+            "NUM": 0,
+            "NAME": "num"
+        },
+        {
+            "NUM": 0,
+            "NAME": "yj"
+        },
+        {
+            "NUM": 0,
+            "NAME": "ej"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+一级 一级古树保护级别
+二级 二级古树保护级别
+三级 三级古树保护级别
+num:名树数量(颗)
+type:种类数量(种)</t>
+  </si>
+  <si>
+    <t>@edit：
+4-22</t>
+  </si>
+  <si>
+    <t>护林防火物资</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhly/fhwz</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 1,
+            "NAME": "dwzf"
+        },
+        {
+            "NUM": 0,
+            "NAME": "dwzb"
+        },
+        {
+            "NUM": 0,
+            "NAME": "hly"
+        },
+        {
+            "NUM": 35,
+            "NAME": "qsdd"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>qsdd：取水地点(处)
+hly:护林员(人)
+dwzb：队伍装备(套)
+dwzf：队伍住房(个)</t>
+  </si>
+  <si>
+    <t>护林员信息表</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhly/hly</t>
+  </si>
+  <si>
+    <t>name:护林员姓名</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "XM": 张三,
+            "ZYJSZC": "xxxxx",
+            "FZLCMC": "yyyyyy",
+            "DH":"13511113333"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>"XM" : '姓名'
+"ZYJSZC" : '专业技术职称'
+"FZLCMC" : '负责林场名称'
+"DH" : '电话'</t>
+  </si>
+  <si>
+    <t>驻防队伍信息</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhly/zfdw</t>
+  </si>
+  <si>
+    <t>dwmc:队伍名称</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "FZEXM": "张三",
+            "ZSDD": "张王村",
+            "DWRS": 16,
+            "FZRDH": "18888888888",
+            "ZBMC": "",
+            "DWMC": "护林小队",
+            "GSDW": "三甲镇林业局"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>"DWMC"  队伍名称
+"DWRS"  队伍人数
+"FZEXM"  负责人姓名
+"FZRDH"  负责人电话
+"GSDW"  归属单位
+"ZSDD"  驻守地点
+"ZBMC"  装备名称</t>
+  </si>
+  <si>
+    <t>装备详情</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhly/zbxq</t>
+  </si>
+  <si>
+    <t>dwmc:队伍名称
+zbmc:装备名称</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+     {
+      "ZBMC":"123",
+      "ZBSL":123,
+      "FZRXM":"王五",
+      "FZRDH":"18888888888"
+     }
+    ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ZBMC":装备名称,
+"ZBSL":装备数量,
+"FZRXM":负责人姓名,
+"FZRDH":负责人电话
+</t>
+  </si>
+  <si>
+    <t>林场基本信息</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhly/jbxx</t>
+  </si>
+  <si>
+    <t>lcmc:林场名称</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "LCMC": "林场名称",
+            "LCDZ": "林场地址",
+            "LCHXDJ": "林场火险等级",
+            "MJM": "面积(亩)",
+            "QSDD": "取水地点",
+            "HLYSL": "护林员数量",
+            "FZRXM": "负责人姓名",
+            "FZRDH": "负责人电话",
+            "WD": "维度",
+            "JD": "经度",
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"LCMC": "林场名称",
+"LCDZ": "林场地址",
+"LCHXDJ": "林场火险等级",
+"MJM": "面积(亩)",
+"QSDD": "取水地点",
+"HLYSL": "护林员数量",
+"FZRXM": "负责人姓名",
+"FZRDH": "负责人电话",
+"WD": "维度",
+"JD": "经度",</t>
+  </si>
+  <si>
+    <t>高平市学校概况</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/count</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "SCHOOL": 1,
+        "STUDENT": 3143,
+        "TEACHER": 292
+    }
+}</t>
+  </si>
+  <si>
+    <t>"SCHOOL": 学校数量,
+"STUDENT": 学生数量,
+"TEACHER": 教师数量</t>
+  </si>
+  <si>
+    <t>教师学历分布</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/xlfb</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 2848,
+            "WHCD_XL": "本科"
+        },
+        {
+            "NUM": 988,
+            "WHCD_XL": "专科"
+        },
+        {
+            "NUM": 165,
+            "WHCD_XL": "研究生"
+        },
+        {
+            "NUM": 83,
+            "WHCD_XL": "大专"
+        },
+        {
+            "NUM": 46,
+            "WHCD_XL": "中专"
+        },
+        {
+            "NUM": 15,
+            "WHCD_XL": "高中"
+        },
+        {
+            "NUM": 8,
+            "WHCD_XL": "硕士"
+        },
+        {
+            "NUM": 7,
+            "WHCD_XL": "初中"
+        },
+        {
+            "NUM": 3,
+            "WHCD_XL": "硕研"
+        },
+        {
+            "NUM": 1,
+            "WHCD_XL": "中师"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"WHCD_XL": 教师学历,
+"NUM": 数量,
+</t>
+  </si>
+  <si>
+    <t>教师毕业院校统计</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/byyx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 872,
+            "WHCD_BYYX": "山西师范大学"
+        },
+        {
+            "NUM": 330,
+            "WHCD_BYYX": "山西大学"
+        },
+        {
+            "NUM": 295,
+            "WHCD_BYYX": "山西师范大学                  "
+        },
+        {
+            "NUM": 179,
+            "WHCD_BYYX": "山西师大"
+        },
+        {
+            "NUM": 161,
+            "WHCD_BYYX": "长治学院"
+        },
+        {
+            "NUM": 134,
+            "WHCD_BYYX": "太原师范学院"
+        },
+        {
+            "NUM": 122,
+            "WHCD_BYYX": "山西大学                      "
+        },
+        {
+            "NUM": 88,
+            "WHCD_BYYX": "中央广播电视大学"
+        },
+        {
+            "NUM": 80,
+            "WHCD_BYYX": "晋城职业技术学院"
+        },
+        {
+            "NUM": 75,
+            "WHCD_BYYX": "晋中学院"
+        },
+        {
+            "NUM": 75,
+            "WHCD_BYYX": "山西省教育学院"
+        },
+        {
+            "NUM": 72,
+            "WHCD_BYYX": "山西省教育学院                "
+        },
+        {
+            "NUM": 69,
+            "WHCD_BYYX": "晋城职业技术学院              "
+        },
+        {
+            "NUM": 67,
+            "WHCD_BYYX": "忻州师范学院"
+        },
+        {
+            "NUM": 66,
+            "WHCD_BYYX": "山西大同大学"
+        },
+        {
+            "NUM": 59,
+            "WHCD_BYYX": "太原师范学院                  "
+        },
+        {
+            "NUM": 52,
+            "WHCD_BYYX": "晋城市教育学院"
+        },
+        {
+            "NUM": 41,
+            "WHCD_BYYX": "中央广播电视大学              "
+        },
+        {
+            "NUM": 40,
+            "WHCD_BYYX": "山西师大                      "
+        },
+        {
+            "NUM": 39,
+            "WHCD_BYYX": "大同大学"
+        },
+        {
+            "NUM": 33,
+            "WHCD_BYYX": "运城幼儿师范高等专科学校"
+        },
+        {
+            "NUM": 26,
+            "WHCD_BYYX": "晋城教育学院"
+        },
+        {
+            "NUM": 24,
+            "WHCD_BYYX": "咸阳师范学院"
+        },
+        {
+            "NUM": 21,
+            "WHCD_BYYX": "运城学院"
+        },
+        {
+            "NUM": 21,
+            "WHCD_BYYX": "吕梁学院"
+        },
+        {
+            "NUM": 21,
+            "WHCD_BYYX": "晋东南师范专科学校            "
+        },
+        {
+            "NUM": 20,
+            "WHCD_BYYX": "山西广播电视大学"
+        },
+        {
+            "NUM": 20,
+            "WHCD_BYYX": "晋东南师专"
+        },
+        {
+            "NUM": 19,
+            "WHCD_BYYX": "雁北师范学院"
+        },
+        {
+            "NUM": 19,
+            "WHCD_BYYX": "晋城市教育学院                "
+        },
+        {
+            "NUM": 17,
+            "WHCD_BYYX": "晋东南师范专科学校"
+        },
+        {
+            "NUM": 14,
+            "WHCD_BYYX": "陕西师范大学"
+        },
+        {
+            "NUM": 14,
+            "WHCD_BYYX": "山西师范大学 "
+        },
+        {
+            "NUM": 14,
+            "WHCD_BYYX": "长治学院                      "
+        },
+        {
+            "NUM": 14,
+            "WHCD_BYYX": "省教育学院"
+        },
+        {
+            "NUM": 14,
+            "WHCD_BYYX": "东北师范大学"
+        },
+        {
+            "NUM": 14,
+            "WHCD_BYYX": "咸阳师范学院                  "
+        },
+        {
+            "NUM": 13,
+            "WHCD_BYYX": "山西师范大学晋东南学院"
+        },
+        {
+            "NUM": 13,
+            "WHCD_BYYX": "哈尔滨师范大学"
+        },
+        {
+            "NUM": 12,
+            "WHCD_BYYX": "晋东南师专                    "
+        },
+        {
+            "NUM": 12,
+            "WHCD_BYYX": "中北大学"
+        },
+        {
+            "NUM": 11,
+            "WHCD_BYYX": "省教育学院                    "
+        },
+        {
+            "NUM": 11,
+            "WHCD_BYYX": "太原师院"
+        },
+        {
+            "NUM": 10,
+            "WHCD_BYYX": "中央电大"
+        },
+        {
+            "NUM": 9,
+            "WHCD_BYYX": "西南大学"
+        },
+        {
+            "NUM": 9,
+            "WHCD_BYYX": "太原理工大学"
+        },
+        {
+            "NUM": 9,
+            "WHCD_BYYX": "山西大同大学                  "
+        },
+        {
+            "NUM": 8,
+            "WHCD_BYYX": "山西广播电视大学              "
+        },
+        {
+            "NUM": 8,
+            "WHCD_BYYX": "太原师范                      "
+        },
+        {
+            "NUM": 8,
+            "WHCD_BYYX": "山西大学师范学院"
+        },
+        {
+            "NUM": 8,
+            "WHCD_BYYX": "山西大学 "
+        },
+        {
+            "NUM": 7,
+            "WHCD_BYYX": "山西师范大学现代文理学院"
+        },
+        {
+            "NUM": 7,
+            "WHCD_BYYX": "太原师范学校                  "
+        },
+        {
+            "NUM": 7,
+            "WHCD_BYYX": "晋中学院                      "
+        },
+        {
+            "NUM": 7,
+            "WHCD_BYYX": "山西农业大学"
+        },
+        {
+            "NUM": 6,
+            "WHCD_BYYX": "太原师范大学"
+        },
+        {
+            "NUM": 6,
+            "WHCD_BYYX": "晋城教育学院                  "
+        },
+        {
+            "NUM": 6,
+            "WHCD_BYYX": "晋城市职业技术学院"
+        },
+        {
+            "NUM": 6,
+            "WHCD_BYYX": "西北师范大学"
+        },
+        {
+            "NUM": 6,
+            "WHCD_BYYX": "长治教育学院"
+        },
+        {
+            "NUM": 6,
+            "WHCD_BYYX": "晋中师范高等专科学校"
+        },
+        {
+            "NUM": 6,
+            "WHCD_BYYX": "东北师大"
+        },
+        {
+            "NUM": 5,
+            "WHCD_BYYX": "兰州理工大学"
+        },
+        {
+            "NUM": 5,
+            "WHCD_BYYX": "山西教育学院"
+        },
+        {
+            "NUM": 5,
+            "WHCD_BYYX": "长春教育学院"
+        },
+        {
+            "NUM": 5,
+            "WHCD_BYYX": "雁北师范学院                  "
+        },
+        {
+            "NUM": 5,
+            "WHCD_BYYX": "山西省教育学院二部            "
+        },
+        {
+            "NUM": 5,
+            "WHCD_BYYX": "晋城师范"
+        },
+        {
+            "NUM": 5,
+            "WHCD_BYYX": "渤海大学"
+        },
+        {
+            "NUM": 5,
+            "WHCD_BYYX": "吕梁高等专科学校"
+        },
+        {
+            "NUM": 5,
+            "WHCD_BYYX": "山西省师范大学"
+        },
+        {
+            "NUM": 5,
+            "WHCD_BYYX": "天津师范大学"
+        },
+        {
+            "NUM": 5,
+            "WHCD_BYYX": "山西大学晋中学院"
+        },
+        {
+            "NUM": 4,
+            "WHCD_BYYX": "王报中学"
+        },
+        {
+            "NUM": 4,
+            "WHCD_BYYX": "忻州师范"
+        },
+        {
+            "NUM": 4,
+            "WHCD_BYYX": "山西省广播函授学校            "
+        },
+        {
+            "NUM": 4,
+            "WHCD_BYYX": "高平一中"
+        },
+        {
+            "NUM": 4,
+            "WHCD_BYYX": "华东师范大学"
+        },
+        {
+            "NUM": 4,
+            "WHCD_BYYX": "北京师范大学"
+        },
+        {
+            "NUM": 4,
+            "WHCD_BYYX": "山西大学商务学院"
+        },
+        {
+            "NUM": 4,
+            "WHCD_BYYX": "郑州大学"
+        },
+        {
+            "NUM": 4,
+            "WHCD_BYYX": "省教院"
+        },
+        {
+            "NUM": 4,
+            "WHCD_BYYX": "北京师范大学                  "
+        },
+        {
+            "NUM": 4,
+            "WHCD_BYYX": "太原师院                      "
+        },
+        {
+            "NUM": 4,
+            "WHCD_BYYX": "山西工商学院"
+        },
+        {
+            "NUM": 4,
+            "WHCD_BYYX": "西南大学育才学院"
+        },
+        {
+            "NUM": 4,
+            "WHCD_BYYX": "山西师范学院"
+        },
+        {
+            "NUM": 4,
+            "WHCD_BYYX": "中央广播电视大学 "
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "咸阳师范"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "省电大                        "
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "太原科技大学"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "晋城市职业技术学院            "
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "三峡大学"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "晋城电大"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "忻州师院"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "吉林大学"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "长治师范"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "西安理工大学"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "燕山大学"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "山西煤炭管理干部学院"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "201203西北师范大学"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "陕西咸阳师范学院"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "晋城职业技术学院 "
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "运城高专"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "雁北师院"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "晋城师范                      "
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "太原理工大学阳泉学院"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "太原师范"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "中央党校"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "东北农业大学"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "长治医学院"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "河北大学"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "广西师范大学"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "太原工业学院"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "山西省大同大学"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "国家开放大学"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "内蒙古师范大学"
+        },
+        {
+            "NUM": 3,
+            "WHCD_BYYX": "山西教育学院                  "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "山西师大自考"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "山师大"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "山西省晋城师范学校            "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "对外经济贸易大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "长治学院师范分院"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "长春师范学院                  "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "太原学院"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "福建师范大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "首都师范大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "首都师范大学                  "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "山西大学    "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "晋东南幼儿师范学校"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "山东大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "郑州轻工业学院"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "天津体育学院"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "阳泉师范高等专科学校"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "咸阳师范学院 "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "辽宁大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "长春大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "许昌学院"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "陕西师大"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "兰州理工"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "长治师范学院"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "晋城师范学校                  "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "大同大学                      "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "广西教育学院"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "河西高中"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "晋中师专                      "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "山西省广播电视大学            "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "山西省煤炭管理干部学院        "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "忻州师范学院                  "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "高平市教师进修学校            "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "湘潭大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "山西师范学院                  "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "河南大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "山西师范大学临汾学院"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "山西大学师院"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "江西师范大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "安阳师范学院"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "运城高等专科学校              "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "吕梁学院                      "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "山西财经大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "西北农林科技大学              "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "西安外国语学院"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "长治师范                      "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "西藏民族大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "武汉大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "山西省广播函授学校"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "运城高专                      "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "山西广播函授学校"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "西安文理学院"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "淮北师大"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "中央广电大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "山西省师范大学                "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "中国农业大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "临汾师范大学                  "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "浙江嘉兴学院"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "山西师大\n现代文理学院"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "中国矿业大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "湖南大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "吕梁高等专科学校              "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "大连大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "浙江师范大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "上海师范大学"
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "太原师院范学院                     "
+        },
+        {
+            "NUM": 2,
+            "WHCD_BYYX": "沈阳音乐学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "中央司法警官学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "师大体院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "太原理工大学\n财经学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "广西师范学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "雁北师范专科学校              "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "吉林艺术学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山东大学威海学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "河南省许昌学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "泰山学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西省原师范学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西师大美术学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "中央广播电大"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "吉林师范大学                  "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "河南省焦作教育学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西师范大学体育学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "廊坊师范学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "浙江台州学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西大学教育"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "天津职业技术师范大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "成都信息工程学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "晋城职院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "天津理工大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "成都体院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "西华大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "黑尔宾师大"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "南京师大"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西煤碳管理干部学校"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "晋东南师范专科学校 "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "北京航空航天大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "省广播函授学校"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "河北师大"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西师范"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "中国音乐学院                  "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "运城学院                      "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "运城高等专科学校"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西电视广播大学              "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "晋中师专"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "华东交通大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "安徽师范大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "中央电视广播大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西省长治学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "晋东南幼师范"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "中国书法函授大学              "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "甘肃农业大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "中央美术学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "高平教师进修校                "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西大学                  "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西经贸职业学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "晋城师范学校            "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西师范大学（自考）          "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西省教育学院           "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "运城幼儿专科"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "晋东南幼师"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "黑龙江教育学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "淮阴师范学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "兰州商务学院陇桥学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "东北大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "潍坊科技学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "高平县河西中学校              "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "河南师范大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山大晋中学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "太原重型机械学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "河北经贸大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "河北师范大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "西华师范大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西省雁北师范学院            "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "苏州科技学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "华南理工大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "晋东南师范"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "吉林外国语大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "黑龙江科技大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西省临汾师范大学            "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "晋城职业技术学校              "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "太原理工大学财经学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西大学成人教育学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "赣南师院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西省中北大学                "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山东工商学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西省晋城教育学院            "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "太原理工阳泉学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "忻州师院                      "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西大学商务学院              "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西机电职业技术学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "高平进修校                    "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "天津师范大学                      "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "忻州师父学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "晋东南师范专科学院            "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "省广播函授学校                "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "淮北师范大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "运师学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "中北大学信息商务学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "陕西渭南师院                  "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "运城师范"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "江苏省盐城师范学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "河南科技学院新科学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "江西农业大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "大连教育学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "咸阳师范大学                  "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "华中师范大学马克思主义学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西体育职业学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西电大"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "广西科技大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "晋中师范高等专科学院          "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "渭南师院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西师范大学     "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "长治师范学校                  "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "忻州师范大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "长春师院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "西南师范大学                  "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "嘉兴学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "天津体院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西省晋城职业技术学院        "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "湖北江汉艺术职业学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西财经大学华商学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "浙江工商大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "淮南工业学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "西北民族大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西师范大学成人教育学院      "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西农大信息学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "湖北师范学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "太原大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西省晋城师范学校"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "长治师范学校"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西财经大学 "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "西安电子科技大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西省教育学院(二部)"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西师大成人教育学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "晋城职业学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "咸阳师范大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "201501忻州师范学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "天津财经学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": " 山西师大                     "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "阳泉职业技术学院              "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西大同大学                      "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西农校"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "2013-01长治学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "200407晋城职业技术学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "199207山西省教育学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "西安工业大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "晋城市教育学院          "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "200307山西师范大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "晋东南煤矿学校"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "200507晋城职业技术学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "200406山西师范大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "200507太原师范学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "1990-07晋城师范"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "临汾师大                      "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "泰山医学院                    "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "太原幼儿师范学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "内江师范学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西省旅游学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "南开大学滨海学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "忻州大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "河北传媒学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "晋中学院师范分院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "中央广播电视大学  "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山东师大"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "中北大学 "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "安阳师院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "青海师范大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "省教育学院 "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "内蒙古工业大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西省运城学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "高平县北诗中学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西省晋东南卫生学校"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "2004-06山西师范大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "牡丹江师院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西师范大学    "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西忻州师范专科学校"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "华中师范大学汉口分校"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西省忻州师范学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "2006-06山西师范大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "太原师范学院 "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "201301忻州师范学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西师范大学   "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "湖北孝感学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西财大"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "200507山西师范大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "200907运城学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "201401长治学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "200306山西师范大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西广播电视大学 "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西省晋东南\n工业学校"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "高平县建宁人民公社建宁小学校"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "黑龙江省教育学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西广播电视大学晋城分校 "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "黔南民族师范学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西师大现代文理学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "中央电视广播学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "晋城师范学校"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "东北林业大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西省广播函授学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "忻州学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "宝鸡文理学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西省长治市教育学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "烟台大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西广播电视大学晋城分校      "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "河北工业大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西矿业学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "中央党\n校函授学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西师大晋东南学院            "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "苏州大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "西安地质学院                  "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "太远师范学院                  "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "河北科技大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "  山西工商职业学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "成都理工大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "郑州铁路机械学校              "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山西省银行学校                "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "长治教学学院                  "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "吉林动画学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "                              "
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "陕西师范大学马克思主义学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "西南大学外国语学院"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "山东财经大学"
+        },
+        {
+            "NUM": 1,
+            "WHCD_BYYX": "南京林业大学"
+        },
+        {
+      </t>
+  </si>
+  <si>
+    <t>"NUM": 数量
+"WHCD_BYYX": 毕业院校</t>
+  </si>
+  <si>
+    <t>全市学生性别占比</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/xbbl</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "F": 0,
+        "M": 0
+    }
+}</t>
+  </si>
+  <si>
+    <t>M：男生数量
+F：女生数量</t>
+  </si>
+  <si>
+    <t>全市教师性别占比</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/jszb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+     {
+      "XB":"男",
+      "NUM":200
+     }
+    ]
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"XB":性别,
+"NUM":数量
+</t>
+  </si>
+  <si>
+    <t>全市学校基本情况表</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/base</t>
+  </si>
+  <si>
+    <t>type:公立高中
+name:高平市第一中学</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "JZGRS": 292,
+            "SL_NAME": "高平市第一中学",
+            "SL_ADD": "山西省晋城市高平市泫氏西街34号",
+            "SL_TYPE": "公立高中",
+            "XSZS": 3143
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>"JZGRS": 教师职工,
+"SL_NAME": 学校名称,
+"SL_ADD": 学校地址,
+"SL_TYPE": 学校类别,
+"XSZS": 学生总数</t>
+  </si>
+  <si>
+    <t>学校类别查询</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/type</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "TYPE": "公立高中"
+    }
+}</t>
+  </si>
+  <si>
+    <t>TYPE：学校类别
+例子：初中,高中,中职</t>
+  </si>
+  <si>
+    <t>在校学生人数统计</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/xsrs</t>
+  </si>
+  <si>
+    <t>date:2020</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "TOTAL": 11987,
+            "NV": 6301,
+            "NAME": "初中"
+        },
+        {
+            "TOTAL": 8839,
+            "NV": 5108,
+            "NAME": "高中"
+        },
+        {
+            "TOTAL": 1904,
+            "NV": 806,
+            "NAME": "中职"
+        },
+        {
+            "TOTAL": 23528,
+            "NV": 11656,
+            "NAME": "小学"
+        },
+        {
+            "TOTAL": 12782,
+            "NV": 6327,
+            "NAME": "幼儿园"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>"TOTAL": 在校人数,
+"NV": 在校人数-女,
+"NAME": 学校类别</t>
+  </si>
+  <si>
+    <t>年龄分布</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/nlfb</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 1,
+            "NAME": "5岁及以下"
+        },
+        {
+            "NUM": 0,
+            "NAME": "6-7岁"
+        },
+        {
+            "NUM": 2600,
+            "NAME": "7-8岁"
+        },
+        {
+            "NUM": 7930,
+            "NAME": "8-9岁"
+        },
+        {
+            "NUM": 7914,
+            "NAME": "10-11岁"
+        },
+        {
+            "NUM": 5071,
+            "NAME": "12岁及以上"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>"NUM": 数值
+"NAME": 标题</t>
+  </si>
+  <si>
+    <t>外市户籍数量占比</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/hjsl</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 550,
+            "NAME": "其他省"
+        },
+        {
+            "NUM": 197,
+            "NAME": "长治市"
+        },
+        {
+            "NUM": 26,
+            "NAME": "运城市"
+        },
+        {
+            "NUM": 21,
+            "NAME": "太原市"
+        },
+        {
+            "NUM": 19,
+            "NAME": "临汾市"
+        },
+        {
+            "NUM": 19,
+            "NAME": "吕梁市"
+        },
+        {
+            "NUM": 10,
+            "NAME": "忻州市"
+        },
+        {
+            "NUM": 10,
+            "NAME": "大同市"
+        },
+        {
+            "NUM": 8,
+            "NAME": "晋中市"
+        },
+        {
+            "NUM": 5,
+            "NAME": "朔州市"
+        },
+        {
+            "NUM": 4,
+            "NAME": "阳泉市"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>"NUM": 数量
+"NAME": 市</t>
+  </si>
+  <si>
+    <t>中小学户口所在地</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/hkszd</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 22967,
+            "NAME": "山西省"
+        },
+        {
+            "NUM": 241,
+            "NAME": "河南省"
+        },
+        {
+            "NUM": 84,
+            "NAME": "河北省"
+        },
+        {
+            "NUM": 42,
+            "NAME": "安徽省"
+        },
+        {
+            "NUM": 24,
+            "NAME": "陕西省"
+        },
+        {
+            "NUM": 24,
+            "NAME": "江苏省"
+        },
+        {
+            "NUM": 24,
+            "NAME": "福建省"
+        },
+        {
+            "NUM": 17,
+            "NAME": "浙江省"
+        },
+        {
+            "NUM": 16,
+            "NAME": "湖北省"
+        },
+        {
+            "NUM": 13,
+            "NAME": "山东省"
+        },
+        {
+            "NUM": 11,
+            "NAME": "湖南省"
+        },
+        {
+            "NUM": 9,
+            "NAME": "江西省"
+        },
+        {
+            "NUM": 8,
+            "NAME": "吉林省"
+        },
+        {
+            "NUM": 8,
+            "NAME": "四川省"
+        },
+        {
+            "NUM": 6,
+            "NAME": "重庆市"
+        },
+        {
+            "NUM": 4,
+            "NAME": "贵州省"
+        },
+        {
+            "NUM": 3,
+            "NAME": "辽宁省"
+        },
+        {
+            "NUM": 2,
+            "NAME": "黑龙江省"
+        },
+        {
+            "NUM": 2,
+            "NAME": "内蒙古自治区"
+        },
+        {
+            "NUM": 2,
+            "NAME": "广东省"
+        },
+        {
+            "NUM": 2,
+            "NAME": "云南省"
+        },
+        {
+            "NUM": 2,
+            "NAME": "青海省"
+        },
+        {
+            "NUM": 1,
+            "NAME": "海南省"
+        },
+        {
+            "NUM": 1,
+            "NAME": "天津市"
+        },
+        {
+            "NUM": 1,
+            "NAME": "甘肃省"
+        },
+        {
+            "NUM": 1,
+            "NAME": "北京市"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>在编教师工作经验</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/gzjy</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 104,
+            "TITLE": "1年"
+        },
+        {
+            "NUM": 158,
+            "TITLE": "2-3年"
+        },
+        {
+            "NUM": 186,
+            "TITLE": "4-5年"
+        },
+        {
+            "NUM": 87,
+            "TITLE": "6-7年"
+        },
+        {
+            "NUM": 380,
+            "TITLE": "8-10年"
+        },
+        {
+            "NUM": 335,
+            "TITLE": "11-15年"
+        },
+        {
+            "NUM": 467,
+            "TITLE": "16-20年"
+        },
+        {
+            "NUM": 2446,
+            "TITLE": "20年以上"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>title：标题
+num： 数量</t>
+  </si>
+  <si>
+    <t>年级分布</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/njfb</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 7956,
+            "TITLE": "小学1-2年级"
+        },
+        {
+            "NUM": 8020,
+            "TITLE": "小学3-4年级"
+        },
+        {
+            "NUM": 7547,
+            "TITLE": "小学5-6年级"
+        },
+        {
+            "NUM": 0,
+            "TITLE": "初中1-2年级"
+        },
+        {
+            "NUM": 0,
+            "TITLE": "初中3年级"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>全市水资源总量统计
+单位：(万m³)</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhsw/ysl</t>
+  </si>
+  <si>
+    <t>year:2019</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "SZYZLWDBS": "3371",
+            "YEAR": "2019",
+            "SZYZLWDXS": "7278",
+            "SZYZLWHJ": "9943",
+            "SZYZLWZFL": "706"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND:'年度'
+SZYZLWDBS:'水资源总量(万平方米)(地表水)'
+SZYZLWDXS:'水资源总量(万平方米)(地下水)'
+SZYZLWHJ:'水资源总量(万平方米)(合计)'
+SZYZLWZFL:'水资源总量(万平方米)(重复量)'
+</t>
+  </si>
+  <si>
+    <t>全市灌溉情况</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhsw/ggqk</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "XXSLSCZRLWF": "239.21",
+        "XZLSCNGCSJXZ": "6",
+        "XZLSCNGCSJCG": "49",
+        "XSZDXGCSJCG": "43",
+        "XSZDXGCSJXZ": "4",
+        "XSZDXGCJSMJWM": "4.46",
+        "XXSLGGJJY": "108",
+        "XXSLXXSKZ": "20",
+        "ZXGQQKSLG": "4",
+        "XXSLJXYSCZ": "211",
+        "ZXGQQKGGQNSK": "5",
+        "XZLSCNGCJSMJWM": "2.55",
+        "ZXGQQKGHMJWM": "6.7",
+        "XXSLSJKRWF": "3373.6"
+    }
+}</t>
+  </si>
+  <si>
+    <t>XSZDXGCJSMJWM:'节水面积(万亩)'
+XSZDXGCSJCG:'小水重点县工程(涉及村(个))'
+XSZDXGCSJXZ:'小水重点县工程(涉及乡镇)'
+XXSLGGJJY:'小型水利(灌溉机井(眼))'
+XXSLJXYSCZ:'小型水利(集蓄雨水池(座))'
+XXSLSCZRLWF:'小型水利(水池总容量(万方))'
+XXSLSJKRWF:'小型水利(设计库容(万方))'
+XXSLXXSKZ:'小型水利(小型水库(座))'
+XZLSCNGCJSMJWM:'新增粮食产能工程(节水面积(万亩))'
+XZLSCNGCSJCG:'新增粮食产能工程(涉及村(个))'
+XZLSCNGCSJXZ:'新增粮食产能工程(涉及乡镇)'
+ZXGQQKGGQNSK:'中型灌区情况(灌区内水库(座))'
+ZXGQQKGHMJWM:'中型灌区情况(规划面积(万亩))'
+ZXGQQKSLG:'中型灌区情况数量(个)'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水土流失治理面积  
+单位(km2) </t>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhsw/zlmj</t>
+  </si>
+  <si>
+    <t>year:2020(必填)</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "XDZBKM": "31.3",
+        "SJWCKM2": "31.3"
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJWCKM2:'实际完成(km2)'
+XDZBKM:'下达指标(km2)'
+</t>
+  </si>
+  <si>
+    <t>农村饮水工程统计</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhsw/ysgc</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "CSGWYSGCSYRKWR": "3.8",
+        "LCJZGSGCCSC": "44",
+        "DCJZGSGCCSC": "276",
+        "DCJZGSGCSYRKWR": "28.02",
+        "LCJZGSGCSJXZCSG": "151",
+        "DCJZGSGCSJXZCSG": "276",
+        "CSGWYSGCSJXZCSG": "18",
+        "LCJZGSGCSYRKWR": "10.87",
+        "CSGWYSGCCSC": "18"
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSGWYSGCCSC:'城市管网延伸工程(处数(处))'
+CSGWYSGCSJXZCSG:'城市管网延伸工程(涉及行政村数(个))'
+CSGWYSGCSYRKWR:'城市管网延伸工程(受益人口(万人))'
+DCJZGSGCCSC:'单村集中供水工程(处数(处))'
+DCJZGSGCSJXZCSG:'单村集中供水工程(涉及行政村数(个))'
+DCJZGSGCSYRKWR:'单村集中供水工程(受益人口(万人))'
+LCJZGSGCCSC:'联村集中供水工程(处数(处))'
+LCJZGSGCSJXZCSG:'联村集中供水工程(涉及行政村数(个))'
+LCJZGSGCSYRKWR:'联村集中供水工程(受益人口(万人))'
+</t>
+  </si>
+  <si>
+    <t>农村自来水使用情况统计</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhsw/zlssy</t>
+  </si>
+  <si>
+    <t>year:2021(必填)</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "AZLSQKF_WRH_SJZRCSG": "1",
+        "AZLSQKF_ZH_SJXZCSG": "445",
+        "AZLSQKF_ZLSRH_SJXZCSG": "444",
+        "AZLSQKF_ZH_SJZRCSGSG": "605",
+        "AZLSQKF_WRH_SJXZCSG": "1",
+        "AZLSQKF_ZLSRH_SJZRCSG": "604"
+    }
+}</t>
+  </si>
+  <si>
+    <t>AZLSQKF_WRH_SJXZCSG:'按自来水情况分_未入户_涉及行政村数(个)'
+AZLSQKF_WRH_SJZRCSG:'按自来水情况分_未入户_涉及自然村数(个)'
+AZLSQKF_ZH_SJXZCSG:'按自来水情况分_总和_涉及行政村数(个)'
+AZLSQKF_ZH_SJZRCSGSG:'按自来水情况分_总和_涉及自然村数(个)'
+AZLSQKF_ZLSRH_SJXZCSG:'按自来水情况分_自来水入户_涉及行政村数(个)'
+AZLSQKF_ZLSRH_SJZRCSG:'按自来水情况分_自来水入户_涉及自然村数(个)'</t>
+  </si>
+  <si>
+    <t>河流基本信息统计</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhsw/hlInfo</t>
+  </si>
+  <si>
+    <t>name:123 (选填)</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "JNHLCDKM": "42.485",
+            "HLMC": "丹河（跨境）",
+            "HLCDKM": "169",
+            "LYMJKM2": "3152",
+            "JNLYMJKM2": "761.6"
+        },
+        {
+            "JNHLCDKM": "16.72",
+            "HLMC": "小东仓河（跨境）",
+            "HLCDKM": "19",
+            "LYMJKM2": "113"
+        },
+        {
+            "HLMC": "大东仓河",
+            "HLCDKM": "24.676",
+            "LYMJKM2": "120"
+        },
+        {
+            "HLMC": "许河",
+            "HLCDKM": "26.2",
+            "LYMJKM2": "230"
+        },
+        {
+            "HLMC": "野川河",
+            "HLCDKM": "19",
+            "LYMJKM2": "80"
+        },
+        {
+            "JNHLCDKM": "21.505",
+            "HLMC": "东大河（跨境）",
+            "HLCDKM": "45",
+            "LYMJKM2": "484.7",
+            "JNLYMJKM2": "175.9"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>HLMC:'河流名称'
+HLCDKM:'河流长度(km)'
+JNHLCDKM:'境内河流长度(km)'
+LYMJKM2:'流域面积(km2)'
+JNLYMJKM2:'境内流域面积(km2)'</t>
+  </si>
+  <si>
+    <t>水库基本信息统计</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhsw/skInfp</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "SJHSW": "922.87",
+            "KRWM3": "264",
+            "XHHSW": "924.45",
+            "SKMC": "釜山水库",
+            "SZDZ": "寺庄镇釜山村",
+            "JD": "112°49′27″",
+            "XXSW": "919.69",
+            "WD": "35°54′02″",
+            "JYMJ": "18.53"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>SKMC:'水库名称'
+SZDZ:'所在地址'
+XXSW:'汛限水位(m)'
+XHHSW:'校核洪水位(m)'
+SJHSW:'设计洪水位(m)'
+JYMJ:'集雨面积'
+KRWM3:'库容(万m3)'
+WD:'纬度'
+JD:'经度'</t>
+  </si>
+  <si>
+    <t>汛期降雨量统计</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhsw/xqjyl</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NY": "2019",
+            "XQJYL8Y": "97.7mm",
+            "XQJYL9Y": "55.8mm",
+            "XQJYL6Y": "46.4mm",
+            "XQJYL7Y": "39.2mm"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>"NY"：'年份'
+"XQJYL6Y"：'汛期降雨量(6月)'
+"XQJYL7Y"：'汛期降雨量(7月)'
+"XQJYL8Y"：'汛期降雨量(8月)'
+"XQJYL9Y"：'汛期降雨量(9月)'</t>
+  </si>
+  <si>
+    <t>在图表下面加上这段话：
+6-9月汛期降雨量占全年80%以上，7月下旬到8月上旬为雨峰，洪水期水量占全年水量60%-70%</t>
+  </si>
+  <si>
+    <t>获取视频</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/common/sp</t>
+  </si>
+  <si>
+    <t>page:1(必传)
+size:10(必传)
+yj:雪亮工程
+ej:旅游
+sj:羊头山</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "size": 10,
+        "count": 1467,
+        "page": 1,
+        "rows": [
+            {
+                "PORT": "1936",
+                "SPMC": "海康-世纪大道长平街西南",
+                "SBPT": "公安局",
+                "IP": "10.58.0.92",
+                "JD": "112.9155",
+                "SBID": "2000000000040060",
+                "WD": "35.7809",
+                "SPLX": "雪亮工程"
+            },
+            {
+                "PORT": "1936",
+                "SPMC": "旧变压器厂丁字口1",
+                "SBPT": "公安局",
+                "IP": "10.58.0.92",
+                "JD": "112.9103",
+                "SBID": "2000000000040061",
+                "WD": "35.7821",
+                "SPLX": "雪亮工程"
+            },
+            {
+                "PORT": "1936",
+                "SPMC": "一级路上玉井口-西",
+                "SBPT": "公安局",
+                "IP": "10.58.0.92",
+                "JD": "112.9083",
+                "SBID": "2000000000040062",
+                "WD": "35.7686",
+                "SPLX": "雪亮工程"
+            },
+            {
+                "PORT": "1936",
+                "SPMC": "旧变压器厂丁字口2",
+                "SBPT": "公安局",
+                "IP": "10.58.0.92",
+                "JD": "112.9083",
+                "SBID": "2000000000040063",
+                "WD": "35.7686",
+                "SPLX": "雪亮工程"
+            },
+            {
+                "PORT": "1936",
+                "SPMC": "一级路上玉井口-东",
+                "SBPT": "公安局",
+                "IP": "10.58.0.92",
+                "JD": "112.9419",
+                "SBID": "2000000000040064",
+                "WD": "35.7814",
+                "SPLX": "雪亮工程"
+            },
+            {
+                "PORT": "1936",
+                "SPMC": "金峰大道-西山旅游路北边炸药库门口3",
+                "SBPT": "公安局",
+                "IP": "10.58.0.92",
+                "JD": "112.9347",
+                "SBID": "2000000000040065",
+                "WD": "35.7786",
+                "SPLX": "雪亮工程"
+            },
+            {
+                "PORT": "1936",
+                "SPMC": "海康-一级路马村口",
+                "SBPT": "公安局",
+                "IP": "10.58.0.92",
+                "JD": "112.9347",
+                "SBID": "2000000000040066",
+                "WD": "35.7791",
+                "SPLX": "雪亮工程"
+            },
+            {
+                "PORT": "1936",
+                "SPMC": "长晋线-大涵洞，西凤苑小区口1",
+                "SBPT": "公安局",
+                "IP": "10.58.0.92",
+                "JD": "112.9428",
+                "SBID": "2000000000040067",
+                "WD": "35.7789",
+                "SPLX": "雪亮工程"
+            },
+            {
+                "PORT": "1936",
+                "SPMC": "金峰大道-西山旅游路北边炸药库门口1",
+                "SBPT": "公安局",
+                "IP": "10.58.0.92",
+                "JD": "112.9173",
+                "SBID": "2000000000040068",
+                "WD": "35.7806",
+                "SPLX": "雪亮工程"
+            },
+            {
+                "PORT": "1936",
+                "SPMC": "一级路唐庄口北球机",
+                "SBPT": "公安局",
+                "IP": "10.58.0.92",
+                "JD": "112.9258",
+                "SBID": "2000000000040069",
+                "WD": "35.779",
+                "SPLX": "雪亮工程"
+            }
+        ]
+    }
+}</t>
+  </si>
+  <si>
+    <t>EJFL :'二级分类'
+IP :'IP'
+JD :'经度'
+PORT :'端口'
+SBID :'设备id'
+SBPT :'设备平台'
+SJFL :'三级分类'
+SPLX :'视频类型'
+SPMC :'视频名称'
+WD :'维度'</t>
+  </si>
+  <si>
+    <t>总概览</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/sjzc/count</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {}
+}</t>
+  </si>
+  <si>
+    <t>JRJHL_GB：'今日交换量/GB'
+SJJL_WT：'总数据量/万条'
+YRKZZ_G：'已入库组织/个'
+ZCCL_GB：'总存储量/GB'
+ZYS_G：'资源数/个'</t>
+  </si>
+  <si>
+    <t>接入排名</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/sjzc/jrpm</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "qb": [],
+        "rzl": [],
+        "jrzl": []
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"qb"
+      DWMC：'单位i名称'
+      SJL_WT：'数据量/万条'
+"rzl"
+      DWMC：'单位名称'
+      SJL_WT：'数据量/万条'
+"jrzl":接入总量
+      DWMC：'单位i名称'
+      SJL_WT：'数据量/万条'
+</t>
+  </si>
+  <si>
+    <t>接入排查</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/sjzc/jrpc</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "qb": [],
+        "kbsl": [],
+        "spsl": []
+    }
+}</t>
+  </si>
+  <si>
+    <t>"qb"：全部
+"kbsl": 库表数量
+"spsl": 视频数量
+DWMC:'单位名称'
+GXL:'更新率'
+GXS:'更新数'
+JRS:'接入数'</t>
+  </si>
+  <si>
+    <t>交换共享</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/sjzc/jhgx</t>
+  </si>
+  <si>
+    <t>BMKZCCL_GB：'部门库总存储量/GB'
+BMKZSJL_WT：'部门库总数据量/万条'
+BMKZYS_G：'部门库资源数/个'
+BYJHL_YT：'本月交换量/亿条'
+GXZYSJKBS_G：'共享资源数据库表数/个'
+GXZYWJS_G：'共享资源文件数/个'
+GXZY_API_S_G：'共享资源API数/个'
+JHGXZCCL_GB：'交换共享总存储量/GB'
+JHGXZSJL_WT：'交换共享总数居量/万条'
+JHGXZYS_G：'交换共享资源数/个'
+JRJHL_G：'今日交换量/个'
+JRX：'接入县'
+JRZYSJKBS_G：'接入资源数据库表数/个'
+JRZYSWJS_G：'接入资源数文件数/个'
+JRZYS_API_S_G：'接入资源数api数/个'
+JRZYS_G：'接入资源数/个'
+JRZZ_J：'接入组织/家'
+LXSJ_WT：'离线数据/万条'
+SJ_T：'数据/条'
+SSSJ_WT：'实时数据/万条'
+ZQXL_WT：'总清洗量/万条'
+ZTKZCCL_GB：'主题库总存储量/GB'
+ZTKZS_WT：'主题库总数/万条'
+ZTKZYS_G：'主题库资源数/个'</t>
+  </si>
+  <si>
+    <t>数据质量</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/sjzc/sjzl</t>
+  </si>
+  <si>
+    <t>JHSJL_WT:'稽核数据量/万条'
+WTSL_WT:'问题数量/万条'</t>
+  </si>
+  <si>
+    <t>销量排名</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/sjzc/xlpm</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "ss": [],
+        "qb": [],
+        "wts": [],
+        "lx": []
+    }
+}</t>
+  </si>
+  <si>
+    <t>"ss": 实时,
+"qb": 全部,
+"lx": 离线
+    BM:'部门'
+    WJHSL:'未稽核数量'
+    WTJHSL:'问题稽核数量'
+    ZQJHSL:'正确稽核数量'
+"wts": []
+    SL:'数量'
+    WTMS:'问题描述'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1809,6 +5336,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1817,15 +5351,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1833,14 +5360,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1855,63 +5374,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1931,13 +5396,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1946,7 +5480,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1958,19 +5528,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1982,151 +5672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2142,24 +5694,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2182,32 +5730,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2229,11 +5768,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2245,10 +5797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2257,171 +5809,201 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2772,30 +6354,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="32.8796296296296" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.1296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="32.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="32.8833333333333" style="14" customWidth="1"/>
+    <col min="2" max="2" width="39.1333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="32.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="13.5" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2808,200 +6390,210 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="345.6" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="310.5" spans="1:5">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" ht="374.4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="4" ht="409.5" spans="1:4">
+      <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" ht="230.4" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="5" ht="216" spans="1:4">
+      <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" ht="374.4" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="6" ht="409.5" spans="1:5">
+      <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" ht="374.4" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" ht="409.5" spans="1:4">
+      <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" ht="409.5" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" ht="409.5" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="9" ht="189" spans="1:5">
+      <c r="A9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" ht="409.5" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="175.5" spans="1:5">
+      <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" ht="374.4" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="409.5" spans="1:4">
+      <c r="A11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" ht="374.4" spans="1:4">
-      <c r="A12" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="12" ht="351" spans="1:4">
+      <c r="A12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" ht="302.4" spans="1:4">
-      <c r="A13" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="13" ht="324" spans="1:4">
+      <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" ht="409.5" spans="1:4">
-      <c r="A14" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="14" ht="405" spans="1:4">
+      <c r="A14" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" ht="409.5" spans="1:4">
-      <c r="A15" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="15" ht="405" spans="1:4">
+      <c r="A15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" ht="409.5" spans="1:4">
-      <c r="A16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="3" t="s">
         <v>60</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3012,7 +6604,7 @@
     <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/zhdj/djfc" tooltip="http://localhost:9090/zhdj/djfc"/>
     <hyperlink ref="B7" r:id="rId2" display="http://localhost:9090/zhdj/dljg"/>
     <hyperlink ref="B8" r:id="rId3" display="http://localhost:9090/zhdj/dyjbqk" tooltip="http://localhost:9090/zhdj/dyjbqk"/>
-    <hyperlink ref="B10" r:id="rId4" display="http://localhost:9090/zhdj/ddmf"/>
+    <hyperlink ref="B10" r:id="rId4" display="http://localhost:9090/zhdj/ddmf" tooltip="http://localhost:9090/zhdj/ddmf"/>
     <hyperlink ref="B12" r:id="rId5" display="http://localhost:9090/zhdj/fzdyqk"/>
     <hyperlink ref="B11" r:id="rId6" display="http://localhost:9090/zhdj/dynljg"/>
     <hyperlink ref="B13" r:id="rId7" display="http://localhost:9090/zhdj/zzxfb"/>
@@ -3020,9 +6612,224 @@
     <hyperlink ref="B15" r:id="rId9" display="http://localhost:9090/zhdj/shyk" tooltip="http://localhost:9090/zhdj/shyk"/>
     <hyperlink ref="B16" r:id="rId10" display="http://localhost:9090/zhdj/zyzhd" tooltip="http://localhost:9090/zhdj/zyzhd"/>
     <hyperlink ref="A1" r:id="rId11" display="http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090" tooltip="http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090"/>
+    <hyperlink ref="B6" r:id="rId12" display="http://localhost:9090/zhdj/dyhy" tooltip="http://localhost:9090/zhdj/dyhy"/>
+    <hyperlink ref="B9" r:id="rId13" display="http://localhost:9090/zhdj/dyfc"/>
+    <hyperlink ref="B4" r:id="rId14" display="http://localhost:9090/zhdj/dyxl" tooltip="http://localhost:9090/zhdj/dyxl"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="30.4416666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="49.8916666666667" customWidth="1"/>
+    <col min="5" max="5" width="42.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" ht="409.5" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/common/sp" tooltip="http://localhost:9090/common/sp"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.8916666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.8916666666667" customWidth="1"/>
+    <col min="5" max="5" width="36.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" ht="67.5" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" ht="135" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" ht="121.5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" ht="324" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" ht="135" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/sjzc/count"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/sjzc/jrpm" tooltip="http://localhost:9090/sjzc/jrpm"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/sjzc/jrpc"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/sjzc/jhgx"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/sjzc/sjzl"/>
+    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/sjzc/xlpm"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3033,113 +6840,113 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.8888888888889" style="8" customWidth="1"/>
-    <col min="4" max="4" width="38.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.8916666666667" style="20" customWidth="1"/>
+    <col min="4" max="4" width="38.1083333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="17.4" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="18.75" spans="1:4">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="144" spans="1:4">
+    <row r="3" ht="135" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" ht="201.6" spans="1:4">
+      <c r="D3" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" ht="189" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" ht="201.6" spans="1:4">
+      <c r="D4" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" ht="189" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" ht="374.4" spans="1:4">
+      <c r="D5" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" ht="351" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" ht="259.2" spans="1:4">
+      <c r="D6" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" ht="243" spans="1:4">
       <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" ht="409.5" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>83</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3150,7 +6957,7 @@
     <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/rrcz/count" tooltip="http://localhost:9090/rrcz/count"/>
     <hyperlink ref="B5" r:id="rId2" display="http://localhost:9090/rrcz/residence" tooltip="http://localhost:9090/rrcz/residence"/>
     <hyperlink ref="B4" r:id="rId3" display="http://localhost:9090/rrcz/ra"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/rrcz/profess"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/rrcz/profess" tooltip="http://localhost:9090/rrcz/profess"/>
     <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/rrcz/vocat"/>
     <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/rrcz/cz"/>
   </hyperlinks>
@@ -3163,124 +6970,125 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="28.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.8888888888889" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.775" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.3333333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.8916666666667" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="17.4" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="18.75" spans="1:4">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="313.2" spans="1:4">
+    <row r="3" ht="337.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="15" t="s">
         <v>87</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" ht="201.6" spans="1:4">
+      <c r="D4" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" ht="189" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" ht="201.6" spans="1:4">
+      <c r="D5" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" ht="189" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" ht="409.5" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="7" ht="409.5" spans="1:5">
+      <c r="A7" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="18" t="s">
         <v>103</v>
       </c>
+      <c r="D7" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" ht="409.5" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>107</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/pxqz/count"/>
     <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/pxqz/ryInfo" tooltip="http://localhost:9090/pxqz/ryInfo"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/pxqz/gzCount"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/pxqz/xbCount"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/pxqz/gzCount" tooltip="http://localhost:9090/pxqz/gzCount"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/pxqz/xbCount" tooltip="http://localhost:9090/pxqz/xbCount"/>
     <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/pxqz/pxInfo"/>
     <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/pxqz/qzInfo"/>
   </hyperlinks>
@@ -3293,153 +7101,216 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="40.4444444444444" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.2222222222222" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.4444444444444" style="2" customWidth="1"/>
+    <col min="1" max="1" width="48.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.225" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.4416666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.3333333333333" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="17.4" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="18.75" spans="1:4">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="129.6" spans="1:4">
+    <row r="3" ht="243" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="4" ht="259.2" spans="1:3">
+      <c r="D3" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" ht="297" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" ht="201.6" spans="1:4">
+      <c r="C4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" ht="189" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" ht="201.6" spans="1:4">
+    </row>
+    <row r="6" ht="189" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="7" ht="201.6" spans="1:4">
+      <c r="D6" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" ht="297" spans="1:4">
       <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="8" ht="216" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="8" ht="409.5" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="9" ht="409.5" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" ht="316.8" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="5" t="s">
+    </row>
+    <row r="10" ht="405" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" ht="187.2" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="5" t="s">
+    </row>
+    <row r="11" ht="243" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" ht="297" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" ht="189" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" ht="405" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="http://localhost:9090/zhdt/scene"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://localhost:9090/zhdt/gl"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/zhdt/dtCount"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/zhdt/dtType"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/zhdt/wbCount"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/zhdt/dtAvg"/>
-    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/zhdt/monthAvg"/>
-    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/zhdt/wbTotal"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/jyrq/infoCount" tooltip="http://localhost:9090/jyrq/infoCount"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/jyrq/typeInfo"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/jyrq/sexInfo"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/jyrq/lwsc"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/jyrq/count"/>
+    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/jyrq/edu" tooltip="http://localhost:9090/jyrq/edu"/>
+    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/jyrq/age" tooltip="http://localhost:9090/jyrq/age"/>
+    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/jyrq/jyType"/>
+    <hyperlink ref="B11" r:id="rId9" display="http://localhost:9090/jyrq/zzType"/>
+    <hyperlink ref="B12" r:id="rId10" display="http://localhost:9090/jyrq/jyfx"/>
+    <hyperlink ref="B13" r:id="rId11" display="http://localhost:9090/jyrq/xytType"/>
+    <hyperlink ref="B14" r:id="rId12" display="http://localhost:9090/jyrq/lhType"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3449,216 +7320,1060 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="48.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.2222222222222" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.4444444444444" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.3333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.775" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.8916666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.8916666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.775" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="17.4" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" ht="259.2" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" ht="216" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" ht="316.8" spans="1:4">
+        <v>154</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" ht="409.5" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" ht="201.6" spans="1:4">
+        <v>159</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" ht="409.5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" ht="201.6" spans="1:4">
+        <v>164</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" ht="283.5" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" ht="316.8" spans="1:4">
+        <v>167</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" ht="216" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" ht="230.4" spans="1:4">
+        <v>172</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" ht="135" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" ht="409.5" spans="1:4">
+        <v>177</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" ht="270" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" ht="409.5" spans="1:4">
+      <c r="D9" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" ht="216" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" ht="259.2" spans="1:4">
+        <v>185</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" ht="297" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" ht="316.8" spans="1:4">
+        <v>189</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" ht="297" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="13" ht="201.6" spans="1:4">
+      <c r="D12" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" ht="409.5" spans="1:4">
+        <v>197</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/jyrq/infoCount" tooltip="http://localhost:9090/jyrq/infoCount"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/jyrq/typeInfo"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/jyrq/sexInfo"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/jyrq/lwsc"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/jyrq/count"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/jyrq/edu" tooltip="http://localhost:9090/jyrq/edu"/>
-    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/jyrq/age"/>
-    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/jyrq/jyType"/>
-    <hyperlink ref="B11" r:id="rId9" display="http://localhost:9090/jyrq/zzType"/>
-    <hyperlink ref="B12" r:id="rId10" display="http://localhost:9090/jyrq/jyfx"/>
-    <hyperlink ref="B13" r:id="rId11" display="http://localhost:9090/jyrq/xytType"/>
-    <hyperlink ref="B14" r:id="rId12" display="http://localhost:9090/jyrq/lhType"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/trip/rsMonth" tooltip="http://localhost:9090/trip/rsMonth"/>
+    <hyperlink ref="B6" r:id="rId2" display="http://localhost:9090/trip/report"/>
+    <hyperlink ref="B7" r:id="rId3" display="http://localhost:9090/trip/rank" tooltip="http://localhost:9090/trip/rank"/>
+    <hyperlink ref="B4" r:id="rId4" display="http://localhost:9090/trip/rsqs"/>
+    <hyperlink ref="B5" r:id="rId5" display="http://localhost:9090/trip/mpMonth"/>
+    <hyperlink ref="B9" r:id="rId6" display="http://localhost:9090/trip/rjrsMonth"/>
+    <hyperlink ref="B8" r:id="rId7" display="http://localhost:9090/trip/rjrsCount"/>
+    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/trip/sfq"/>
+    <hyperlink ref="B11" r:id="rId9" display="http://localhost:9090/trip/cwCount"/>
+    <hyperlink ref="B12" r:id="rId10" display="http://localhost:9090/trip/gis" tooltip="http://localhost:9090/trip/gis"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:E9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="33.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.8916666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.1083333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.225" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" ht="108" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" ht="189" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" ht="324" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" ht="364.5" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" ht="364.5" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" ht="189" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" ht="189" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/ylgg/rsCount"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/ylgg/srCount"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/ylgg/ssjc" tooltip="http://localhost:9090/ylgg/ssjc"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/ylgg/ryrs" tooltip="http://localhost:9090/ylgg/ryrs"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/ylgg/jcf" tooltip="http://localhost:9090/ylgg/jcf"/>
+    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/ylgg/zc"/>
+    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/ylgg/xl" tooltip="http://localhost:9090/ylgg/xl"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="32.8916666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.4416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42" style="4" customWidth="1"/>
+    <col min="5" max="5" width="38.1083333333333" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" ht="243" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" ht="189" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" ht="297" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" ht="297" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" ht="162" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" ht="202.5" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" ht="162" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" ht="243" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="http://localhost:9090/zhly/hxdjzb" tooltip="http://localhost:9090/zhly/hxdjzb"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://localhost:9090/zhly/count"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/zhly/dyx" tooltip="http://localhost:9090/zhly/dyx"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/zhly/fhwz"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/zhly/hly" tooltip="http://localhost:9090/zhly/hly"/>
+    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/zhly/zfdw"/>
+    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/zhly/zbxq"/>
+    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/zhly/jbxx"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="36.1083333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.4416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.775" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="37.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" ht="121.5" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" ht="409.5" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" ht="409.5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" ht="108" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" ht="148.5" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" ht="202.5" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" ht="94.5" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" ht="409.5" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" ht="405" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" ht="409.5" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" s="7" customFormat="1" ht="409.5" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" ht="409.5" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" ht="351" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/edu/count"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/edu/xlfb" tooltip="http://localhost:9090/edu/xlfb"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/edu/byyx" tooltip="http://localhost:9090/edu/byyx"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/edu/xbbl" tooltip="http://localhost:9090/edu/xbbl"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/edu/jszb" tooltip="http://localhost:9090/edu/jszb"/>
+    <hyperlink ref="B9" r:id="rId6" display="http://localhost:9090/edu/type" tooltip="http://localhost:9090/edu/type"/>
+    <hyperlink ref="B8" r:id="rId7" display="http://localhost:9090/edu/base" tooltip="http://localhost:9090/edu/base"/>
+    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/edu/xsrs" tooltip="http://localhost:9090/edu/xsrs"/>
+    <hyperlink ref="B11" r:id="rId9" display="http://localhost:9090/edu/nlfb"/>
+    <hyperlink ref="B12" r:id="rId10" display="http://localhost:9090/edu/hjsl"/>
+    <hyperlink ref="B13" r:id="rId11" display="http://localhost:9090/edu/hkszd"/>
+    <hyperlink ref="B14" r:id="rId12" display="http://localhost:9090/edu/gzjy"/>
+    <hyperlink ref="B15" r:id="rId13" display="http://localhost:9090/edu/njfb"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="43.5583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.775" style="4" customWidth="1"/>
+    <col min="5" max="5" width="37.5583333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="50.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" ht="175.5" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" ht="283.5" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" ht="108" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" ht="256.5" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" ht="162" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" ht="409.5" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" ht="229.5" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" ht="175.5" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/zhsw/ysl" tooltip="http://localhost:9090/zhsw/ysl"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/zhsw/ggqk" tooltip="http://localhost:9090/zhsw/ggqk"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/zhsw/zlmj" tooltip="http://localhost:9090/zhsw/zlmj"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/zhsw/ysgc" tooltip="http://localhost:9090/zhsw/ysgc"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/zhsw/zlssy" tooltip="http://localhost:9090/zhsw/zlssy"/>
+    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/zhsw/hlInfo" tooltip="http://localhost:9090/zhsw/hlInfo"/>
+    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/zhsw/skInfp" tooltip="http://localhost:9090/zhsw/skInfp"/>
+    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/zhsw/xqjyl" tooltip="http://localhost:9090/zhsw/xqjyl"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangchenyang/IdeaProjects/gpdp/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC2375C-A7FD-1042-86A9-2D3E1DF82FD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9765" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="智慧党建" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="398">
   <si>
     <t>http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090</t>
   </si>
@@ -950,9 +956,6 @@
   </si>
   <si>
     <t>培训工种统计</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/pxqz/gzCount</t>
   </si>
   <si>
     <t>{
@@ -5300,18 +5303,1183 @@
     SL:'数量'
     WTMS:'问题描述'</t>
   </si>
+  <si>
+    <t>培训技能工种人员信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "total": 4914,
+        "typeInfo": [
+            {
+                "NUM": 14,
+                "PXYY_PXJNGZ": "快件处理员"
+            },
+            {
+                "NUM": 28,
+                "PXYY_PXJNGZ": "农业技术员"
+            },
+            {
+                "NUM": 59,
+                "PXYY_PXJNGZ": "西式面点师"
+            },
+            {
+                "NUM": 34,
+                "PXYY_PXJNGZ": "商品营业员"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "旅游团队领队"
+            },
+            {
+                "NUM": 133,
+                "PXYY_PXJNGZ": "井下采矿工"
+            },
+            {
+                "NUM": 18,
+                "PXYY_PXJNGZ": "广告设计师"
+            },
+            {
+                "NUM": 79,
+                "PXYY_PXJNGZ": "计算机程序设计员"
+            },
+            {
+                "NUM": 358,
+                "PXYY_PXJNGZ": "化妆师"
+            },
+            {
+                "NUM": 16,
+                "PXYY_PXJNGZ": "农艺工"
+            },
+            {
+                "NUM": 130,
+                "PXYY_PXJNGZ": "公关员"
+            },
+            {
+                "NUM": 99,
+                "PXYY_PXJNGZ": "电子商务师"
+            },
+            {
+                "NUM": 102,
+                "PXYY_PXJNGZ": "消防安全管理员"
+            },
+            {
+                "NUM": 77,
+                "PXYY_PXJNGZ": "中式面点师"
+            },
+            {
+                "NUM": 31,
+                "PXYY_PXJNGZ": "家政服务员"
+            },
+            {
+                "NUM": 31,
+                "PXYY_PXJNGZ": "医药商品购销员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "无人机装调工"
+            },
+            {
+                "NUM": 23,
+                "PXYY_PXJNGZ": "快递员"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "公共游览场所服务员"
+            },
+            {
+                "NUM": 20,
+                "PXYY_PXJNGZ": "人工智能训练师"
+            },
+            {
+                "NUM": 68,
+                "PXYY_PXJNGZ": "焊工"
+            },
+            {
+                "NUM": 175,
+                "PXYY_PXJNGZ": "中式烹调师"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "旅店服务员"
+            },
+            {
+                "NUM": 37,
+                "PXYY_PXJNGZ": "连锁经营管理师"
+            },
+            {
+                "NUM": 120,
+                "PXYY_PXJNGZ": "健康管理师"
+            },
+            {
+                "NUM": 157,
+                "PXYY_PXJNGZ": "打字员"
+            },
+            {
+                "NUM": 30,
+                "PXYY_PXJNGZ": "装饰美工"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "家禽饲养员"
+            },
+            {
+                "NUM": 24,
+                "PXYY_PXJNGZ": "美发师"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "办公设备维修工"
+            },
+            {
+                "NUM": 29,
+                "PXYY_PXJNGZ": "汽车维修工"
+            },
+            {
+                "NUM": 51,
+                "PXYY_PXJNGZ": "采购师（员）"
+            },
+            {
+                "NUM": 112,
+                "PXYY_PXJNGZ": "保卫管理员"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "装潢美术设计师"
+            },
+            {
+                "NUM": 47,
+                "PXYY_PXJNGZ": "室内装饰设计师"
+            },
+            {
+                "NUM": 29,
+                "PXYY_PXJNGZ": "公共营养师"
+            },
+            {
+                "NUM": 92,
+                "PXYY_PXJNGZ": "电工"
+            },
+            {
+                "NUM": 56,
+                "PXYY_PXJNGZ": "收银员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "工艺染织品制作工"
+            },
+            {
+                "NUM": 122,
+                "PXYY_PXJNGZ": "制图员"
+            },
+            {
+                "NUM": 18,
+                "PXYY_PXJNGZ": "质检员"
+            },
+            {
+                "NUM": 29,
+                "PXYY_PXJNGZ": "美容师"
+            },
+            {
+                "NUM": 21,
+                "PXYY_PXJNGZ": "消防装备管理员"
+            },
+            {
+                "NUM": 30,
+                "PXYY_PXJNGZ": "物业管理员"
+            },
+            {
+                "NUM": 32,
+                "PXYY_PXJNGZ": "保安员"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "裁剪工"
+            },
+            {
+                "NUM": 7,
+                "PXYY_PXJNGZ": "裁缝"
+            },
+            {
+                "NUM": 29,
+                "PXYY_PXJNGZ": "消防指挥员"
+            },
+            {
+                "NUM": 20,
+                "PXYY_PXJNGZ": "森林消防员L"
+            },
+            {
+                "NUM": 23,
+                "PXYY_PXJNGZ": "保健按摩师"
+            },
+            {
+                "NUM": 25,
+                "PXYY_PXJNGZ": "保洁员L"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "录音师"
+            },
+            {
+                "NUM": 139,
+                "PXYY_PXJNGZ": "营销员"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "家畜繁殖员"
+            },
+            {
+                "NUM": 22,
+                "PXYY_PXJNGZ": "信息通信信息化系统管理员"
+            },
+            {
+                "NUM": 91,
+                "PXYY_PXJNGZ": "秘书"
+            },
+            {
+                "NUM": 19,
+                "PXYY_PXJNGZ": "轨道列车司机L"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "电线电缆制造工"
+            },
+            {
+                "NUM": 94,
+                "PXYY_PXJNGZ": "营养配餐员"
+            },
+            {
+                "NUM": 120,
+                "PXYY_PXJNGZ": "消防员"
+            },
+            {
+                "NUM": 43,
+                "PXYY_PXJNGZ": "插花花艺师"
+            },
+            {
+                "NUM": 7,
+                "PXYY_PXJNGZ": "装饰装修工"
+            },
+            {
+                "NUM": 13,
+                "PXYY_PXJNGZ": "保育员"
+            },
+            {
+                "NUM": 29,
+                "PXYY_PXJNGZ": "育婴员"
+            },
+            {
+                "NUM": 40,
+                "PXYY_PXJNGZ": "道路客运汽车驾驶员L"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "智能楼宇管理员"
+            },
+            {
+                "NUM": 32,
+                "PXYY_PXJNGZ": "礼仪主持人"
+            },
+            {
+                "NUM": 11,
+                "PXYY_PXJNGZ": "咖啡师"
+            },
+            {
+                "NUM": 54,
+                "PXYY_PXJNGZ": "仓储管理员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "化妆师\n"
+            },
+            {
+                "NUM": 9,
+                "PXYY_PXJNGZ": "美甲师"
+            },
+            {
+                "NUM": 69,
+                "PXYY_PXJNGZ": "道路货运汽车驾驶员L"
+            },
+            {
+                "NUM": 13,
+                "PXYY_PXJNGZ": "无线电监测与设备运维员"
+            },
+            {
+                "NUM": 49,
+                "PXYY_PXJNGZ": "安全员"
+            },
+            {
+                "NUM": 16,
+                "PXYY_PXJNGZ": "计算机（微机）维修工"
+            },
+            {
+                "NUM": 8,
+                "PXYY_PXJNGZ": "家用电子产品维修工"
+            },
+            {
+                "NUM": 7,
+                "PXYY_PXJNGZ": "养老护理员"
+            },
+            {
+                "NUM": 19,
+                "PXYY_PXJNGZ": "创业指导师"
+            },
+            {
+                "NUM": 39,
+                "PXYY_PXJNGZ": "糕点面包烘焙工"
+            },
+            {
+                "NUM": 14,
+                "PXYY_PXJNGZ": "休闲农业服务员"
+            },
+            {
+                "NUM": 14,
+                "PXYY_PXJNGZ": "物流服务师L"
+            },
+            {
+                "NUM": 30,
+                "PXYY_PXJNGZ": "井下支护工"
+            },
+            {
+                "NUM": 17,
+                "PXYY_PXJNGZ": "家用电器产品维修工"
+            },
+            {
+                "NUM": 77,
+                "PXYY_PXJNGZ": "应急救援员"
+            },
+            {
+                "NUM": 11,
+                "PXYY_PXJNGZ": "信用管理师"
+            },
+            {
+                "NUM": 20,
+                "PXYY_PXJNGZ": "家畜饲养员"
+            },
+            {
+                "NUM": 18,
+                "PXYY_PXJNGZ": "婴幼儿发展引导员"
+            },
+            {
+                "NUM": 8,
+                "PXYY_PXJNGZ": "园艺工"
+            },
+            {
+                "NUM": 20,
+                "PXYY_PXJNGZ": "挖掘铲运和桩工机械司机"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "管道工"
+            },
+            {
+                "NUM": 13,
+                "PXYY_PXJNGZ": "形象设计师"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "农机驾驶操作员"
+            },
+            {
+                "NUM": 8,
+                "PXYY_PXJNGZ": "民间工艺品艺人"
+            },
+            {
+                "NUM": 12,
+                "PXYY_PXJNGZ": "机动车检测工"
+            },
+            {
+                "NUM": 24,
+                "PXYY_PXJNGZ": "矿山安全防护工"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "混凝土工"
+            },
+            {
+                "NUM": 16,
+                "PXYY_PXJNGZ": "道路客运服务员"
+            },
+            {
+                "NUM": 55,
+                "PXYY_PXJNGZ": "安检员"
+            },
+            {
+                "NUM": 39,
+                "PXYY_PXJNGZ": "网络与信息安全管理员"
+            },
+            {
+                "NUM": 13,
+                "PXYY_PXJNGZ": "房地产策划师"
+            },
+            {
+                "NUM": 11,
+                "PXYY_PXJNGZ": "园林绿化工L"
+            },
+            {
+                "NUM": 9,
+                "PXYY_PXJNGZ": "高低压电器装配工"
+            },
+            {
+                "NUM": 38,
+                "PXYY_PXJNGZ": "消防监督检查员"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "芳香保健师"
+            },
+            {
+                "NUM": 10,
+                "PXYY_PXJNGZ": "婚姻家庭咨询师"
+            },
+            {
+                "NUM": 26,
+                "PXYY_PXJNGZ": "餐厅服务员"
+            },
+            {
+                "NUM": 33,
+                "PXYY_PXJNGZ": "速录师"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "中央空调系统操作员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "糖果工艺师"
+            },
+            {
+                "NUM": 36,
+                "PXYY_PXJNGZ": "茶艺师"
+            },
+            {
+                "NUM": 23,
+                "PXYY_PXJNGZ": "信息通信网络运行管理员"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "冷藏工"
+            },
+            {
+                "NUM": 14,
+                "PXYY_PXJNGZ": "计算机软件测试员"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "眼镜验光员"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "动物疫病防治员"
+            },
+            {
+                "NUM": 17,
+                "PXYY_PXJNGZ": "客房服务员"
+            },
+            {
+                "NUM": 12,
+                "PXYY_PXJNGZ": "全媒体运营师"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "社会体育指导员"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "商品监督员"
+            },
+            {
+                "NUM": 19,
+                "PXYY_PXJNGZ": "保健调理师"
+            },
+            {
+                "NUM": 12,
+                "PXYY_PXJNGZ": "医疗临床辅助服务员"
+            },
+            {
+                "NUM": 22,
+                "PXYY_PXJNGZ": "井下机车运输工"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "家具设计师"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "酱腌菜制作工（果蔬坚果加工工）"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "康复辅助技术咨询师"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "音响调音员"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "车工"
+            },
+            {
+                "NUM": 14,
+                "PXYY_PXJNGZ": "花艺环境设计师"
+            },
+            {
+                "NUM": 43,
+                "PXYY_PXJNGZ": "矿井通风工"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "网约配送员"
+            },
+            {
+                "NUM": 29,
+                "PXYY_PXJNGZ": "矿山安全设备监测检修工"
+            },
+            {
+                "NUM": 28,
+                "PXYY_PXJNGZ": "矿井开掘工"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "食用菌生产工"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "农机修理工"
+            },
+            {
+                "NUM": 12,
+                "PXYY_PXJNGZ": "电气电子产品环保检测员"
+            },
+            {
+                "NUM": 8,
+                "PXYY_PXJNGZ": "机修钳工"
+            },
+            {
+                "NUM": 13,
+                "PXYY_PXJNGZ": "无人机测绘操控员L"
+            },
+            {
+                "NUM": 7,
+                "PXYY_PXJNGZ": "多工序数控机床操作调整工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "水泥生产工"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "供应链管理师"
+            },
+            {
+                "NUM": 20,
+                "PXYY_PXJNGZ": "调酒师"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "森林抚育工L"
+            },
+            {
+                "NUM": 11,
+                "PXYY_PXJNGZ": "职业指导员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "发电集控值班员"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "装配钳工"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "手工木工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "计算机及外部设备装配调试员"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "肉制品加工工"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "园艺产品加工工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "经济昆虫养殖员"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "模具工"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "护林员L"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "抽纱刺绣工"
+            },
+            {
+                "NUM": 20,
+                "PXYY_PXJNGZ": "导游"
+            },
+            {
+                "NUM": 17,
+                "PXYY_PXJNGZ": "商业摄影师"
+            },
+            {
+                "NUM": 10,
+                "PXYY_PXJNGZ": "信息通信网络线务员"
+            },
+            {
+                "NUM": 11,
+                "PXYY_PXJNGZ": "前厅服务员"
+            },
+            {
+                "NUM": 7,
+                "PXYY_PXJNGZ": "变配电运行值班员"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "锅炉运行值班员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "工艺品雕刻工"
+            },
+            {
+                "NUM": 14,
+                "PXYY_PXJNGZ": "矿山提升设备操作工"
+            },
+            {
+                "NUM": 7,
+                "PXYY_PXJNGZ": "电气设备安装工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "皮革及皮革制品加工工"
+            },
+            {
+                "NUM": 11,
+                "PXYY_PXJNGZ": "化学检验员"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "炼焦煤制备工"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "砌筑工"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "摩托车修理工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "动物检疫检验员"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "煤层气排采集输工"
+            },
+            {
+                "NUM": 7,
+                "PXYY_PXJNGZ": "工艺美术品设计师"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "金属轧制工"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "农作物植保员L"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "铸造工"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "豆制品制作工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "管工"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "爆破工"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "白酒酿造工"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "宠物健康护理员"
+            },
+            {
+                "NUM": 7,
+                "PXYY_PXJNGZ": "西式烹调师"
+            },
+            {
+                "NUM": 11,
+                "PXYY_PXJNGZ": "市场管理员"
+            },
+            {
+                "NUM": 7,
+                "PXYY_PXJNGZ": "动画制作员"
+            },
+            {
+                "NUM": 9,
+                "PXYY_PXJNGZ": "缝纫工"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "起重装卸机械操作工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "金属材热处理工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "家具制作工"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "糕点装饰师"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "会展策划师(设计师)"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "信息通信网络终端维修员"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "中药调剂员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "中药炮制工"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "生化检验员"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "旅行社计调"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "高炉原料工"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "工程机械维修工"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "旅游咨询员"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "民间工艺品制作工"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "电力电气设备安装工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "种子繁育员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "照相器材维修工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "制冷设备维修工"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "健康照护师"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "呼叫中心服务员"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "电机制造工"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "工业废水处理工L"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "中药材种植员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "焊接设备装配调试工"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "锅炉操作工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "高铁线路综合维修工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "物理性能检验员"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "机床装调维修工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "客户服务管理师"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "贵金属首饰手工制作工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "壁画制作工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "种苗繁育员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "冲印师"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "光伏发电运维值班员L"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "造林更新工L"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "涂装工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "印前制作员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "绒线编织拼布工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "仪器仪表维修工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "机械设备安装工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "酱油酱类制作工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "制冷工"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "装配式建筑施工员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "钢筋工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "纺织染色工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "包装设计师"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "有害生物防制员L"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "家禽繁殖员"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "无损检测员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "眼镜定配工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "出生缺陷防控咨询师"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "电子专用设备装调工"
+            }
+        ],
+        "jyType": [
+            {
+                "NUM": 1111,
+                "NAME": "lh"
+            },
+            {
+                "NUM": 40,
+                "NAME": "xyt"
+            },
+            {
+                "NUM": 266,
+                "NAME": "zz"
+            },
+            {
+                "NUM": 1877,
+                "NAME": "wd"
+            }
+        ],
+        "type": 234
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/pxqz/ryInfoNew</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/pxqz/gzCount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>求职人员信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>total：总人数
+typeinfo：工种类型详情
+jyType：就业类型
+type：类型种数
+xyt：新业态
+wd：稳定就业
+lh：灵活就业
+zz：自主创业</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "total": 3794,
+        "typeInfo": [
+            {
+                "NUM": 614,
+                "QJYY_QZHY": "农林牧渔业"
+            },
+            {
+                "NUM": 403,
+                "QJYY_QZHY": "采矿业"
+            },
+            {
+                "NUM": 313,
+                "QJYY_QZHY": "居民服务和其他服务业"
+            },
+            {
+                "NUM": 308,
+                "QJYY_QZHY": "信息传输、计算机服务和软件业"
+            },
+            {
+                "NUM": 258,
+                "QJYY_QZHY": "住宿和餐饮业"
+            },
+            {
+                "NUM": 246,
+                "QJYY_QZHY": "文化、体育和娱乐业"
+            },
+            {
+                "NUM": 229,
+                "QJYY_QZHY": "卫生、社会保障和社会福利业"
+            },
+            {
+                "NUM": 224,
+                "QJYY_QZHY": "批发和零售业"
+            },
+            {
+                "NUM": 194,
+                "QJYY_QZHY": "制造业"
+            },
+            {
+                "NUM": 171,
+                "QJYY_QZHY": "公共管理和社会组织"
+            },
+            {
+                "NUM": 165,
+                "QJYY_QZHY": "交通运输、仓储和邮政业"
+            },
+            {
+                "NUM": 156,
+                "QJYY_QZHY": "金融业"
+            },
+            {
+                "NUM": 139,
+                "QJYY_QZHY": "电力、燃气及水的生产和供应业"
+            },
+            {
+                "NUM": 115,
+                "QJYY_QZHY": "建筑业"
+            },
+            {
+                "NUM": 88,
+                "QJYY_QZHY": "教育,水利、环境和公共设施管理业"
+            },
+            {
+                "NUM": 46,
+                "QJYY_QZHY": "房地产业"
+            },
+            {
+                "NUM": 29,
+                "QJYY_QZHY": "科学研究、技术服务和地质勘查业"
+            },
+            {
+                "NUM": 18,
+                "QJYY_QZHY": "租赁和商务服务业"
+            },
+            {
+                "NUM": 12,
+                "QJYY_QZHY": "国际组织"
+            }
+        ],
+        "jyType": [
+            {
+                "NUM": 930,
+                "NAME": "lh"
+            },
+            {
+                "NUM": 29,
+                "NAME": "xyt"
+            },
+            {
+                "NUM": 170,
+                "NAME": "zz"
+            },
+            {
+                "NUM": 812,
+                "NAME": "wd"
+            }
+        ],
+        "type": 19
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/pxqz/qzryInfo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对外意向国家</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 253,
+            "YYGJ": "中国"
+        },
+        {
+            "NUM": 15,
+            "YYGJ": "日本"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"NUM": 数量
+"YYGJ": 国家</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/pxqz/dyyx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 173957,
+            "XB": "女"
+        },
+        {
+            "NUM": 175246,
+            "XB": "男"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/pxqz/sexInfo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训/求职性别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"NUM": 数量
+"XB": 性别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数：
+type：px(培训)/qz(求职)
+不传为全部人员性别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5324,7 +6492,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5332,7 +6500,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5343,135 +6511,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5496,194 +6551,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -5692,261 +6561,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5967,7 +6612,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5979,7 +6624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5991,7 +6636,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -6003,65 +6648,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6348,35 +6977,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="32.8833333333333" style="14" customWidth="1"/>
-    <col min="2" max="2" width="39.1333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.83203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="46.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="32.3833333333333" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="14">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -6390,7 +7019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="310.5" spans="1:5">
+    <row r="3" spans="1:5" ht="342">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -6407,7 +7036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="409.5" spans="1:4">
+    <row r="4" spans="1:5" ht="409.6">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -6421,7 +7050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="216" spans="1:4">
+    <row r="5" spans="1:5" ht="240">
       <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
@@ -6435,7 +7064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="409.5" spans="1:5">
+    <row r="6" spans="1:5" ht="409.6">
       <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
@@ -6450,7 +7079,7 @@
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" ht="409.5" spans="1:4">
+    <row r="7" spans="1:5" ht="409.6">
       <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
@@ -6464,7 +7093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="409.5" spans="1:4">
+    <row r="8" spans="1:5" ht="409.6">
       <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
@@ -6478,7 +7107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="189" spans="1:5">
+    <row r="9" spans="1:5" ht="210">
       <c r="A9" s="14" t="s">
         <v>30</v>
       </c>
@@ -6495,7 +7124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="175.5" spans="1:5">
+    <row r="10" spans="1:5" ht="195">
       <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
@@ -6512,7 +7141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="409.5" spans="1:4">
+    <row r="11" spans="1:5" ht="409.6">
       <c r="A11" s="14" t="s">
         <v>38</v>
       </c>
@@ -6526,7 +7155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="351" spans="1:4">
+    <row r="12" spans="1:5" ht="384">
       <c r="A12" s="14" t="s">
         <v>42</v>
       </c>
@@ -6540,7 +7169,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" ht="324" spans="1:4">
+    <row r="13" spans="1:5" ht="356">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
@@ -6554,7 +7183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" ht="405" spans="1:4">
+    <row r="14" spans="1:5" ht="409.6">
       <c r="A14" s="14" t="s">
         <v>50</v>
       </c>
@@ -6568,7 +7197,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" ht="405" spans="1:4">
+    <row r="15" spans="1:5" ht="409.6">
       <c r="A15" s="14" t="s">
         <v>54</v>
       </c>
@@ -6582,7 +7211,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" ht="409.5" spans="1:4">
+    <row r="16" spans="1:5" ht="409.6">
       <c r="A16" s="14" t="s">
         <v>58</v>
       </c>
@@ -6600,44 +7229,43 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/zhdj/djfc" tooltip="http://localhost:9090/zhdj/djfc"/>
-    <hyperlink ref="B7" r:id="rId2" display="http://localhost:9090/zhdj/dljg"/>
-    <hyperlink ref="B8" r:id="rId3" display="http://localhost:9090/zhdj/dyjbqk" tooltip="http://localhost:9090/zhdj/dyjbqk"/>
-    <hyperlink ref="B10" r:id="rId4" display="http://localhost:9090/zhdj/ddmf" tooltip="http://localhost:9090/zhdj/ddmf"/>
-    <hyperlink ref="B12" r:id="rId5" display="http://localhost:9090/zhdj/fzdyqk"/>
-    <hyperlink ref="B11" r:id="rId6" display="http://localhost:9090/zhdj/dynljg"/>
-    <hyperlink ref="B13" r:id="rId7" display="http://localhost:9090/zhdj/zzxfb"/>
-    <hyperlink ref="B14" r:id="rId8" display="http://localhost:9090/zhdj/rmgjc"/>
-    <hyperlink ref="B15" r:id="rId9" display="http://localhost:9090/zhdj/shyk" tooltip="http://localhost:9090/zhdj/shyk"/>
-    <hyperlink ref="B16" r:id="rId10" display="http://localhost:9090/zhdj/zyzhd" tooltip="http://localhost:9090/zhdj/zyzhd"/>
-    <hyperlink ref="A1" r:id="rId11" display="http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090" tooltip="http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090"/>
-    <hyperlink ref="B6" r:id="rId12" display="http://localhost:9090/zhdj/dyhy" tooltip="http://localhost:9090/zhdj/dyhy"/>
-    <hyperlink ref="B9" r:id="rId13" display="http://localhost:9090/zhdj/dyfc"/>
-    <hyperlink ref="B4" r:id="rId14" display="http://localhost:9090/zhdj/dyxl" tooltip="http://localhost:9090/zhdj/dyxl"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/zhdj/djfc" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" tooltip="http://localhost:9090/zhdj/dyjbqk" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B10" r:id="rId4" tooltip="http://localhost:9090/zhdj/ddmf" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B15" r:id="rId9" tooltip="http://localhost:9090/zhdj/shyk" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B16" r:id="rId10" tooltip="http://localhost:9090/zhdj/zyzhd" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A1" r:id="rId11" tooltip="http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B6" r:id="rId12" tooltip="http://localhost:9090/zhdj/dyhy" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B4" r:id="rId14" tooltip="http://localhost:9090/zhdj/dyxl" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="30.4416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="49.8916666666667" customWidth="1"/>
-    <col min="5" max="5" width="42.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="30.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="49.83203125" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -6645,60 +7273,59 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" ht="409.5" spans="1:5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.6">
       <c r="A3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>359</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/common/sp" tooltip="http://localhost:9090/common/sp"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/common/sp" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.8916666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.8916666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.83203125" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -6706,152 +7333,157 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" ht="67.5" spans="1:5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75">
       <c r="A3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="150">
+      <c r="A4" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="4" ht="135" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="135">
+      <c r="A5" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="5" ht="121.5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="E5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="356">
+      <c r="A6" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="6" ht="324" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="75">
+      <c r="A7" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="7" ht="67.5" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="150">
+      <c r="A8" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="8" ht="135" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>381</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/sjzc/count"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/sjzc/jrpm" tooltip="http://localhost:9090/sjzc/jrpm"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/sjzc/jrpc"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/sjzc/jhgx"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/sjzc/sjzl"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/sjzc/xlpm"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" tooltip="http://localhost:9090/sjzc/jrpm" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0A00-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="25.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.8916666666667" style="20" customWidth="1"/>
-    <col min="4" max="4" width="38.1083333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18.75" spans="1:4">
+    <row r="1" spans="1:4">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" ht="17">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -6865,7 +7497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="135" spans="1:4">
+    <row r="3" spans="1:4" ht="150">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -6879,7 +7511,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" ht="189" spans="1:4">
+    <row r="4" spans="1:4" ht="210">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -6893,7 +7525,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" ht="189" spans="1:4">
+    <row r="5" spans="1:4" ht="210">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -6907,7 +7539,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" ht="351" spans="1:4">
+    <row r="6" spans="1:4" ht="384">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -6921,7 +7553,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" ht="243" spans="1:4">
+    <row r="7" spans="1:4" ht="270">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
@@ -6935,7 +7567,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" ht="409.5" spans="1:4">
+    <row r="8" spans="1:4" ht="409.6">
       <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
@@ -6953,38 +7585,38 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/rrcz/count" tooltip="http://localhost:9090/rrcz/count"/>
-    <hyperlink ref="B5" r:id="rId2" display="http://localhost:9090/rrcz/residence" tooltip="http://localhost:9090/rrcz/residence"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://localhost:9090/rrcz/ra"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/rrcz/profess" tooltip="http://localhost:9090/rrcz/profess"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/rrcz/vocat"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/rrcz/cz"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/rrcz/count" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" tooltip="http://localhost:9090/rrcz/residence" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" tooltip="http://localhost:9090/rrcz/profess" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="118" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.775" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.3333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.8916666666667" style="4" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18.75" spans="1:4">
+    <row r="2" spans="1:5" ht="17">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -6998,7 +7630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="337.5" spans="1:4">
+    <row r="3" spans="1:5" ht="324">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -7012,7 +7644,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" ht="409.5" spans="1:4">
+    <row r="4" spans="1:5" ht="409.6">
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
@@ -7026,96 +7658,159 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" ht="189" spans="1:4">
+    <row r="5" spans="1:5" ht="210">
       <c r="A5" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="210">
+      <c r="A6" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" ht="189" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="409.6">
+      <c r="A7" s="16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" ht="409.5" spans="1:5">
-      <c r="A7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="409.6">
+      <c r="A8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" ht="409.5" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>108</v>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1"/>
+    <row r="11" spans="1:5" ht="409.6">
+      <c r="A11" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="409.6">
+      <c r="A12" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="210">
+      <c r="A13" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="210">
+      <c r="A14" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/pxqz/count"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/pxqz/ryInfo" tooltip="http://localhost:9090/pxqz/ryInfo"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/pxqz/gzCount" tooltip="http://localhost:9090/pxqz/gzCount"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/pxqz/xbCount" tooltip="http://localhost:9090/pxqz/xbCount"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/pxqz/pxInfo"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/pxqz/qzInfo"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" tooltip="http://localhost:9090/pxqz/ryInfo" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" tooltip="http://localhost:9090/pxqz/xbCount" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{9AC767F5-F252-0942-AA35-6D328277CD12}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{74E977C4-DEDD-2D41-87EA-5AE4AEDED13F}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{BA090258-9B03-F54F-BC0A-1CEA7BE4BE8C}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{77D836D2-C7CC-8741-A46B-0796D53E2403}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="48.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.225" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.4416666666667" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.3333333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18.75" spans="1:4">
+    <row r="2" spans="1:4" ht="17">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -7129,210 +7824,209 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="243" spans="1:4">
+    <row r="3" spans="1:4" ht="270">
       <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="328">
+      <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" ht="297" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="210">
+      <c r="A5" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" ht="189" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="210">
+      <c r="A6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" ht="189" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" ht="297" spans="1:4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="328">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="240">
+      <c r="A8" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" ht="216" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="409.6">
+      <c r="A9" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="9" ht="409.5" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="409.6">
+      <c r="A10" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="10" ht="405" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="270">
+      <c r="A11" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="11" ht="243" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="328">
+      <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" ht="297" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="6" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="210">
+      <c r="A13" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="13" ht="189" spans="1:4">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="409.6">
+      <c r="A14" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" ht="405" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>150</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/jyrq/infoCount" tooltip="http://localhost:9090/jyrq/infoCount"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/jyrq/typeInfo"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/jyrq/sexInfo"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/jyrq/lwsc"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/jyrq/count"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/jyrq/edu" tooltip="http://localhost:9090/jyrq/edu"/>
-    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/jyrq/age" tooltip="http://localhost:9090/jyrq/age"/>
-    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/jyrq/jyType"/>
-    <hyperlink ref="B11" r:id="rId9" display="http://localhost:9090/jyrq/zzType"/>
-    <hyperlink ref="B12" r:id="rId10" display="http://localhost:9090/jyrq/jyfx"/>
-    <hyperlink ref="B13" r:id="rId11" display="http://localhost:9090/jyrq/xytType"/>
-    <hyperlink ref="B14" r:id="rId12" display="http://localhost:9090/jyrq/lhType"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/jyrq/infoCount" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" tooltip="http://localhost:9090/jyrq/edu" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" tooltip="http://localhost:9090/jyrq/age" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="32.775" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.8916666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.8916666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.775" style="4" customWidth="1"/>
+    <col min="1" max="1" width="32.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -7340,235 +8034,234 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="240">
+      <c r="A3" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3" ht="216" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="409.6">
+      <c r="A4" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="4" ht="409.5" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="409.6">
+      <c r="A5" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="5" ht="409.5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="314">
+      <c r="A6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" ht="283.5" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="240">
+      <c r="A7" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="7" ht="216" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="150">
+      <c r="A8" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="8" ht="135" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="300">
+      <c r="A9" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="9" ht="270" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="240">
+      <c r="A10" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="10" ht="216" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="328">
+      <c r="A11" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="11" ht="297" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="328">
+      <c r="A12" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="12" ht="297" spans="1:5">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13" s="2"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/trip/rsMonth" tooltip="http://localhost:9090/trip/rsMonth"/>
-    <hyperlink ref="B6" r:id="rId2" display="http://localhost:9090/trip/report"/>
-    <hyperlink ref="B7" r:id="rId3" display="http://localhost:9090/trip/rank" tooltip="http://localhost:9090/trip/rank"/>
-    <hyperlink ref="B4" r:id="rId4" display="http://localhost:9090/trip/rsqs"/>
-    <hyperlink ref="B5" r:id="rId5" display="http://localhost:9090/trip/mpMonth"/>
-    <hyperlink ref="B9" r:id="rId6" display="http://localhost:9090/trip/rjrsMonth"/>
-    <hyperlink ref="B8" r:id="rId7" display="http://localhost:9090/trip/rjrsCount"/>
-    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/trip/sfq"/>
-    <hyperlink ref="B11" r:id="rId9" display="http://localhost:9090/trip/cwCount"/>
-    <hyperlink ref="B12" r:id="rId10" display="http://localhost:9090/trip/gis" tooltip="http://localhost:9090/trip/gis"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/trip/rsMonth" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" tooltip="http://localhost:9090/trip/rank" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" tooltip="http://localhost:9090/trip/gis" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="33.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.8916666666667" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.1083333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.225" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -7576,168 +8269,356 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" ht="108" spans="1:5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="120">
       <c r="A3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="210">
+      <c r="A4" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="4" ht="189" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="356">
+      <c r="A5" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="5" ht="324" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="398">
+      <c r="A6" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="6" ht="364.5" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="398">
+      <c r="A7" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="7" ht="364.5" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="210">
+      <c r="A8" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="8" ht="189" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="210">
+      <c r="A9" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="9" ht="189" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>228</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/ylgg/rsCount"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/ylgg/srCount"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/ylgg/ssjc" tooltip="http://localhost:9090/ylgg/ssjc"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/ylgg/ryrs" tooltip="http://localhost:9090/ylgg/ryrs"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/ylgg/jcf" tooltip="http://localhost:9090/ylgg/jcf"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/ylgg/zc"/>
-    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/ylgg/xl" tooltip="http://localhost:9090/ylgg/xl"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" tooltip="http://localhost:9090/ylgg/ssjc" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" tooltip="http://localhost:9090/ylgg/ryrs" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" tooltip="http://localhost:9090/ylgg/jcf" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" tooltip="http://localhost:9090/ylgg/xl" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="32.8916666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1083333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.4416666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="42" style="4" customWidth="1"/>
-    <col min="5" max="5" width="38.1083333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="38.1640625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="270">
+      <c r="A3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="210">
+      <c r="A4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="328">
+      <c r="A5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="328">
+      <c r="A6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="180">
+      <c r="A7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="225">
+      <c r="A8" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="180">
+      <c r="A9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="270">
+      <c r="A10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" tooltip="http://localhost:9090/zhly/hxdjzb" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" tooltip="http://localhost:9090/zhly/dyx" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" tooltip="http://localhost:9090/zhly/hly" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A2:E15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="36.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -7745,637 +8626,446 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" ht="243" spans="1:5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="135">
       <c r="A3" s="1" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" ht="189" spans="1:5">
+        <v>173</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.6">
       <c r="A4" s="1" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" ht="297" spans="1:6">
+        <v>173</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.6">
       <c r="A5" s="1" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" ht="297" spans="1:5">
+        <v>173</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="120">
       <c r="A6" s="1" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" ht="162" spans="1:5">
+        <v>160</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="165">
       <c r="A7" s="1" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" ht="202.5" spans="1:5">
+        <v>173</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="225">
       <c r="A8" s="1" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" ht="162" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="105">
       <c r="A9" s="1" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" ht="243" spans="1:5">
+        <v>291</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="409.6">
       <c r="A10" s="1" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>265</v>
+        <v>296</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="409.6">
+      <c r="A11" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="409.6">
+      <c r="A12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="7" customFormat="1" ht="409.6">
+      <c r="A13" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="409.6">
+      <c r="A14" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="384">
+      <c r="A15" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="http://localhost:9090/zhly/hxdjzb" tooltip="http://localhost:9090/zhly/hxdjzb"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://localhost:9090/zhly/count"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/zhly/dyx" tooltip="http://localhost:9090/zhly/dyx"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/zhly/fhwz"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/zhly/hly" tooltip="http://localhost:9090/zhly/hly"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/zhly/zfdw"/>
-    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/zhly/zbxq"/>
-    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/zhly/jbxx"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" tooltip="http://localhost:9090/edu/xlfb" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" tooltip="http://localhost:9090/edu/byyx" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" tooltip="http://localhost:9090/edu/xbbl" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" tooltip="http://localhost:9090/edu/jszb" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="B9" r:id="rId6" tooltip="http://localhost:9090/edu/type" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" tooltip="http://localhost:9090/edu/base" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" tooltip="http://localhost:9090/edu/xsrs" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:E15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="36.1083333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.4416666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.775" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="37.775" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" ht="121.5" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" ht="409.5" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" ht="409.5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" ht="108" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" ht="148.5" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" ht="202.5" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" ht="409.5" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" ht="405" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" ht="409.5" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" s="7" customFormat="1" ht="409.5" spans="1:5">
-      <c r="A13" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" ht="409.5" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" ht="351" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>314</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/edu/count"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/edu/xlfb" tooltip="http://localhost:9090/edu/xlfb"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/edu/byyx" tooltip="http://localhost:9090/edu/byyx"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/edu/xbbl" tooltip="http://localhost:9090/edu/xbbl"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/edu/jszb" tooltip="http://localhost:9090/edu/jszb"/>
-    <hyperlink ref="B9" r:id="rId6" display="http://localhost:9090/edu/type" tooltip="http://localhost:9090/edu/type"/>
-    <hyperlink ref="B8" r:id="rId7" display="http://localhost:9090/edu/base" tooltip="http://localhost:9090/edu/base"/>
-    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/edu/xsrs" tooltip="http://localhost:9090/edu/xsrs"/>
-    <hyperlink ref="B11" r:id="rId9" display="http://localhost:9090/edu/nlfb"/>
-    <hyperlink ref="B12" r:id="rId10" display="http://localhost:9090/edu/hjsl"/>
-    <hyperlink ref="B13" r:id="rId11" display="http://localhost:9090/edu/hkszd"/>
-    <hyperlink ref="B14" r:id="rId12" display="http://localhost:9090/edu/gzjy"/>
-    <hyperlink ref="B15" r:id="rId13" display="http://localhost:9090/edu/njfb"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="43.5583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1083333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.775" style="4" customWidth="1"/>
-    <col min="5" max="5" width="37.5583333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="50.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="37.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" ht="175.5" spans="1:5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="195">
       <c r="A3" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="314">
+      <c r="A4" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="4" ht="283.5" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="120">
+      <c r="A5" s="5" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="5" ht="108" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="E5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="285">
+      <c r="A6" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="6" ht="256.5" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="180">
+      <c r="A7" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="7" ht="162" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="E7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="409.6">
+      <c r="A8" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="8" ht="409.5" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="255">
+      <c r="A9" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" ht="229.5" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="195">
+      <c r="A10" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="10" ht="175.5" spans="1:6">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>354</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/zhsw/ysl" tooltip="http://localhost:9090/zhsw/ysl"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/zhsw/ggqk" tooltip="http://localhost:9090/zhsw/ggqk"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/zhsw/zlmj" tooltip="http://localhost:9090/zhsw/zlmj"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/zhsw/ysgc" tooltip="http://localhost:9090/zhsw/ysgc"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/zhsw/zlssy" tooltip="http://localhost:9090/zhsw/zlssy"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/zhsw/hlInfo" tooltip="http://localhost:9090/zhsw/hlInfo"/>
-    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/zhsw/skInfp" tooltip="http://localhost:9090/zhsw/skInfp"/>
-    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/zhsw/xqjyl" tooltip="http://localhost:9090/zhsw/xqjyl"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/zhsw/ysl" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" tooltip="http://localhost:9090/zhsw/ggqk" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" tooltip="http://localhost:9090/zhsw/zlmj" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" tooltip="http://localhost:9090/zhsw/ysgc" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" tooltip="http://localhost:9090/zhsw/zlssy" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" tooltip="http://localhost:9090/zhsw/hlInfo" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" tooltip="http://localhost:9090/zhsw/skInfp" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" tooltip="http://localhost:9090/zhsw/xqjyl" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangchenyang/IdeaProjects/gpdp/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC2375C-A7FD-1042-86A9-2D3E1DF82FD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C6D310-D3E9-3649-A44D-BABA95AAEDE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="智慧党建" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="403">
   <si>
     <t>http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090</t>
   </si>
@@ -2493,15 +2493,6 @@
         }
     ]
 }</t>
-  </si>
-  <si>
-    <t>"DWMC"  队伍名称
-"DWRS"  队伍人数
-"FZEXM"  负责人姓名
-"FZRDH"  负责人电话
-"GSDW"  归属单位
-"ZSDD"  驻守地点
-"ZBMC"  装备名称</t>
   </si>
   <si>
     <t>装备详情</t>
@@ -6474,6 +6465,148 @@
 不传为全部人员性别</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>中小学籍贯分布</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 22964,
+            "NAME": "山西省"
+        },
+        {
+            "NUM": 241,
+            "NAME": "河南省"
+        },
+        {
+            "NUM": 84,
+            "NAME": "河北省"
+        },
+        {
+            "NUM": 42,
+            "NAME": "安徽省"
+        },
+        {
+            "NUM": 24,
+            "NAME": "陕西省"
+        },
+        {
+            "NUM": 24,
+            "NAME": "江苏省"
+        },
+        {
+            "NUM": 24,
+            "NAME": "福建省"
+        },
+        {
+            "NUM": 17,
+            "NAME": "浙江省"
+        },
+        {
+            "NUM": 16,
+            "NAME": "湖北省"
+        },
+        {
+            "NUM": 13,
+            "NAME": "山东省"
+        },
+        {
+            "NUM": 11,
+            "NAME": "湖南省"
+        },
+        {
+            "NUM": 9,
+            "NAME": "江西省"
+        },
+        {
+            "NUM": 8,
+            "NAME": "吉林省"
+        },
+        {
+            "NUM": 8,
+            "NAME": "四川省"
+        },
+        {
+            "NUM": 6,
+            "NAME": "重庆市"
+        },
+        {
+            "NUM": 4,
+            "NAME": "贵州省"
+        },
+        {
+            "NUM": 3,
+            "NAME": "辽宁省"
+        },
+        {
+            "NUM": 2,
+            "NAME": "黑龙江省"
+        },
+        {
+            "NUM": 2,
+            "NAME": "内蒙古自治区"
+        },
+        {
+            "NUM": 2,
+            "NAME": "广东省"
+        },
+        {
+            "NUM": 2,
+            "NAME": "云南省"
+        },
+        {
+            "NUM": 2,
+            "NAME": "青海省"
+        },
+        {
+            "NUM": 1,
+            "NAME": "海南省"
+        },
+        {
+            "NUM": 1,
+            "NAME": "天津市"
+        },
+        {
+            "NUM": 1,
+            "NAME": "甘肃省"
+        },
+        {
+            "NUM": 1,
+            "NAME": "北京市"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>num:数量
+name：省份</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/hjtj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"DWMC"  队伍名称
+"DWRS"  队伍人数
+"FZEXM"  负责人姓名
+"FZRDH"  负责人电话
+"GSDW"  归属单位
+"ZSDD"  驻守地点
+"ZBMC"  装备名称
+ZSDDJD:经度
+ZSDDWD：纬度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -6492,6 +6625,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6500,6 +6634,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6507,6 +6642,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6584,7 +6720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6654,12 +6790,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6677,6 +6807,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6998,12 +7137,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
@@ -7287,19 +7426,19 @@
     </row>
     <row r="3" spans="1:5" ht="409.6">
       <c r="A3" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -7347,104 +7486,104 @@
     </row>
     <row r="3" spans="1:5" ht="75">
       <c r="A3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="150">
       <c r="A4" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="135">
       <c r="A5" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="356">
       <c r="A6" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75">
       <c r="A7" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="150">
       <c r="A8" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -7478,10 +7617,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="17">
       <c r="A2" s="14" t="s">
@@ -7603,7 +7742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="118" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="118" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -7663,7 +7802,7 @@
         <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>94</v>
@@ -7717,62 +7856,62 @@
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1"/>
     <row r="11" spans="1:5" ht="409.6">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="27" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="409.6">
+      <c r="A12" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="409.6">
-      <c r="A12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="210">
+      <c r="A13" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="210">
-      <c r="A13" s="25" t="s">
+      <c r="B13" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="210">
+      <c r="A14" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="210">
-      <c r="A14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="D14" s="26" t="s">
+      <c r="E14" s="28" t="s">
         <v>396</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -8419,8 +8558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -8550,42 +8689,42 @@
       <c r="D8" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>254</v>
+      <c r="E8" s="24" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="180">
       <c r="A9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="270">
       <c r="A10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -8606,10 +8745,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -8640,223 +8779,240 @@
     </row>
     <row r="3" spans="1:5" ht="135">
       <c r="A3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.6">
       <c r="A4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.6">
       <c r="A5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="120">
       <c r="A6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="165">
       <c r="A7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="225">
       <c r="A8" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="105">
       <c r="A9" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="409.6">
       <c r="A10" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="409.6">
       <c r="A11" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="409.6">
       <c r="A12" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1" ht="409.6">
       <c r="A13" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>308</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>173</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="409.6">
       <c r="A14" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>312</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="384">
       <c r="A15" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="409.6">
+      <c r="A16" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -8875,6 +9031,7 @@
     <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
     <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
     <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{3052DE81-DBF7-354C-BB2A-1D57F8F61B27}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8917,141 +9074,141 @@
     </row>
     <row r="3" spans="1:6" ht="195">
       <c r="A3" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="314">
       <c r="A4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="120">
       <c r="A5" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="285">
       <c r="A6" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="180">
       <c r="A7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="409.6">
       <c r="A8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="255">
       <c r="A9" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="195">
       <c r="A10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangchenyang/IdeaProjects/gpdp/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C6D310-D3E9-3649-A44D-BABA95AAEDE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AAB1DC-FF48-EF43-8A11-E32DAE7C437B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="404">
   <si>
     <t>http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090</t>
   </si>
@@ -6605,6 +6605,10 @@
 "ZBMC"  装备名称
 ZSDDJD:经度
 ZSDDWD：纬度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>eidt:05-13</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -6720,7 +6724,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6815,6 +6819,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8559,7 +8566,7 @@
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -8691,6 +8698,9 @@
       </c>
       <c r="E8" s="24" t="s">
         <v>402</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="180">

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangchenyang/IdeaProjects/gpdp/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AAB1DC-FF48-EF43-8A11-E32DAE7C437B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14089D37-39BB-8A4A-88F0-7A227BA625B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="智慧党建" sheetId="1" r:id="rId1"/>
@@ -5151,9 +5151,6 @@
     <t>总概览</t>
   </si>
   <si>
-    <t>http://localhost:9090/sjzc/count</t>
-  </si>
-  <si>
     <t>{
     "msg": "成功",
     "code": 200,
@@ -5161,46 +5158,10 @@
 }</t>
   </si>
   <si>
-    <t>JRJHL_GB：'今日交换量/GB'
-SJJL_WT：'总数据量/万条'
-YRKZZ_G：'已入库组织/个'
-ZCCL_GB：'总存储量/GB'
-ZYS_G：'资源数/个'</t>
-  </si>
-  <si>
     <t>接入排名</t>
   </si>
   <si>
-    <t>http://localhost:9090/sjzc/jrpm</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": {
-        "qb": [],
-        "rzl": [],
-        "jrzl": []
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"qb"
-      DWMC：'单位i名称'
-      SJL_WT：'数据量/万条'
-"rzl"
-      DWMC：'单位名称'
-      SJL_WT：'数据量/万条'
-"jrzl":接入总量
-      DWMC：'单位i名称'
-      SJL_WT：'数据量/万条'
-</t>
-  </si>
-  <si>
     <t>接入排查</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/sjzc/jrpc</t>
   </si>
   <si>
     <t>{
@@ -5214,85 +5175,13 @@
 }</t>
   </si>
   <si>
-    <t>"qb"：全部
-"kbsl": 库表数量
-"spsl": 视频数量
-DWMC:'单位名称'
-GXL:'更新率'
-GXS:'更新数'
-JRS:'接入数'</t>
-  </si>
-  <si>
     <t>交换共享</t>
   </si>
   <si>
-    <t>http://localhost:9090/sjzc/jhgx</t>
-  </si>
-  <si>
-    <t>BMKZCCL_GB：'部门库总存储量/GB'
-BMKZSJL_WT：'部门库总数据量/万条'
-BMKZYS_G：'部门库资源数/个'
-BYJHL_YT：'本月交换量/亿条'
-GXZYSJKBS_G：'共享资源数据库表数/个'
-GXZYWJS_G：'共享资源文件数/个'
-GXZY_API_S_G：'共享资源API数/个'
-JHGXZCCL_GB：'交换共享总存储量/GB'
-JHGXZSJL_WT：'交换共享总数居量/万条'
-JHGXZYS_G：'交换共享资源数/个'
-JRJHL_G：'今日交换量/个'
-JRX：'接入县'
-JRZYSJKBS_G：'接入资源数据库表数/个'
-JRZYSWJS_G：'接入资源数文件数/个'
-JRZYS_API_S_G：'接入资源数api数/个'
-JRZYS_G：'接入资源数/个'
-JRZZ_J：'接入组织/家'
-LXSJ_WT：'离线数据/万条'
-SJ_T：'数据/条'
-SSSJ_WT：'实时数据/万条'
-ZQXL_WT：'总清洗量/万条'
-ZTKZCCL_GB：'主题库总存储量/GB'
-ZTKZS_WT：'主题库总数/万条'
-ZTKZYS_G：'主题库资源数/个'</t>
-  </si>
-  <si>
     <t>数据质量</t>
   </si>
   <si>
-    <t>http://localhost:9090/sjzc/sjzl</t>
-  </si>
-  <si>
-    <t>JHSJL_WT:'稽核数据量/万条'
-WTSL_WT:'问题数量/万条'</t>
-  </si>
-  <si>
     <t>销量排名</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/sjzc/xlpm</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": {
-        "ss": [],
-        "qb": [],
-        "wts": [],
-        "lx": []
-    }
-}</t>
-  </si>
-  <si>
-    <t>"ss": 实时,
-"qb": 全部,
-"lx": 离线
-    BM:'部门'
-    WJHSL:'未稽核数量'
-    WTJHSL:'问题稽核数量'
-    ZQJHSL:'正确稽核数量'
-"wts": []
-    SL:'数量'
-    WTMS:'问题描述'</t>
   </si>
   <si>
     <t>培训技能工种人员信息</t>
@@ -6609,6 +6498,126 @@
   </si>
   <si>
     <t>eidt:05-13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/sjzc/count</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"exchange" :'今日交换量/GB'
+"into_organization" :'已入库组织/个'
+"resource_num" :'资源数/个'
+"total_count" :'总数据量/万条'
+"total_store" :'总存储量/GB'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {       
+        "rzl": [],
+        "jrzl": []
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"rzl"：日增量
+      name：'单位名称'
+      total：'数据量/万条'
+"jrzl":接入总量
+      name：'单位名称'
+      total：'数据量/万条'
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/sjzc/jrpc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"kbsl": 库表数量
+    "insert_num": '接入数'
+    "last_report_time": '最近上报时间'
+     "name": '单位名称'
+     "update_num": '更新数'
+"spsl": 视频数量
+      "SBPT": "公安局",
+      "NUM": 668
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/sjzc/jrpm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"data_num":'进入入库量'
+"day_exchange_num":'今日交换量/个'
+"dept_resource":'部门库资源数/个'
+"exchange_resource":'交换共享资源数/个'
+"into_city":'接入县'
+"into_organization":'接入组织/家'
+"into_resource":'接入资源数/个'
+"into_resource_api":'接入资源数api数/个'
+"into_resource_data":'接入资源数据库表数/个'
+"into_resource_file":'接入资源数文件数/个'
+"month_exchange_num":'本月交换量/条'
+"offline_num":'今日上报量'
+"real_data":'今日未上报数据（类）'
+"share_api":'共享资源api数/个'
+"share_data":'共享资源数据库表数/个'
+"share_file":'共享资源文件数/个'
+"theme_resource":'主题库资源数/个'
+"total_dept":'部门库总数据量/万条'
+"total_dept_store":'部门库总存储量/GB'
+"total_exchange":'交换共享总数据量/万条'
+"total_exchange_store":'交换共享总存储量/GB'
+"total_theme":'主题库总数/万条'
+"total_theme_store":'主题库总存储量/GB'
+"wash_data":'总清洗量/万条'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"problem_data":'疑问量/万条'
+"total_data_data":'上报量/万条'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lx": 离线
+    "correct_data":'上报量/万条'
+    "dept":'部门'
+    "not_data":'入库量/万条'
+    "problem_data":'疑问量/万条'
+"wts": []
+    Query_data_volume：疑问数据量
+Volume_unquestioned ：无疑问数据量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/sjzc/xlpm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {        
+        "wts": [],
+        "lx": []
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/sjzc/sjzl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/sjzc/jhgx</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -6724,7 +6733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6815,13 +6824,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7144,12 +7156,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
@@ -7461,8 +7473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="99" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7495,109 +7507,109 @@
       <c r="A3" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>359</v>
+      <c r="B3" s="29" t="s">
+        <v>390</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="120">
+      <c r="A4" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="150">
-      <c r="A4" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>363</v>
+      <c r="B4" s="29" t="s">
+        <v>396</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="135">
+      <c r="D4" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="190" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>394</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="356">
+        <v>362</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>173</v>
+        <v>363</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>384</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="75">
+        <v>359</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="121" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>402</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="150">
+        <v>359</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="120">
       <c r="A8" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>400</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>379</v>
+      <c r="D8" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" tooltip="http://localhost:9090/sjzc/jrpm" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
     <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
@@ -7624,10 +7636,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="17">
       <c r="A2" s="14" t="s">
@@ -7809,7 +7821,7 @@
         <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>94</v>
@@ -7864,61 +7876,61 @@
     <row r="9" spans="1:5" ht="15" customHeight="1"/>
     <row r="11" spans="1:5" ht="409.6">
       <c r="A11" s="25" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="409.6">
       <c r="A12" s="23" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="210">
       <c r="A13" s="23" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="210">
       <c r="A14" s="23" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -8565,8 +8577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -8697,10 +8709,10 @@
         <v>253</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>403</v>
+        <v>388</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="180">
@@ -9010,19 +9022,19 @@
     </row>
     <row r="16" spans="1:5" ht="409.6">
       <c r="A16" s="23" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangchenyang/IdeaProjects/gpdp/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14089D37-39BB-8A4A-88F0-7A227BA625B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2789EEBE-1A62-7149-B63E-9D6C5E675210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="智慧党建" sheetId="1" r:id="rId1"/>
@@ -7473,8 +7473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="99" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangchenyang/IdeaProjects/gpdp/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2789EEBE-1A62-7149-B63E-9D6C5E675210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D411A49-8B84-D742-A6D9-E9EBE0943DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6524,30 +6524,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">"rzl"：日增量
-      name：'单位名称'
-      total：'数据量/万条'
-"jrzl":接入总量
-      name：'单位名称'
-      total：'数据量/万条'
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>http://localhost:9090/sjzc/jrpc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-"kbsl": 库表数量
-    "insert_num": '接入数'
-    "last_report_time": '最近上报时间'
-     "name": '单位名称'
-     "update_num": '更新数'
-"spsl": 视频数量
-      "SBPT": "公安局",
-      "NUM": 668
-</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -6618,6 +6595,36 @@
   </si>
   <si>
     <t>http://localhost:9090/sjzc/jhgx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"rzl"：日增量
+      name：'单位名称'
+      total：'数据量/万条'
+"jrzl":接入总量
+      name：'单位名称'
+      total：'数据量/万条'
+"qb":全部
+      name：'单位名称'
+      jrzl：'介入总量'
+       rzl ：自增量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"kbsl": 库表数量
+    "insert_num": '接入数'
+    "last_report_time": '最近上报时间'
+     "name": '单位名称'
+     "update_num": '更新数'
+"spsl": 视频数量
+      "SBPT": "公安局",
+      "NUM": 668
+"qb":全部
+      "insert_num": '接入数'
+    "last_report_time": '最近上报时间'
+     "name": '单位名称'
+     "NUM": 视频数量</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7473,8 +7480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7520,12 +7527,12 @@
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="120">
+    <row r="4" spans="1:5" ht="150">
       <c r="A4" s="1" t="s">
         <v>360</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>173</v>
@@ -7534,7 +7541,7 @@
         <v>392</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="190" customHeight="1">
@@ -7542,7 +7549,7 @@
         <v>361</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>173</v>
@@ -7551,7 +7558,7 @@
         <v>362</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="409" customHeight="1">
@@ -7559,7 +7566,7 @@
         <v>363</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>384</v>
@@ -7568,7 +7575,7 @@
         <v>359</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="121" customHeight="1">
@@ -7576,7 +7583,7 @@
         <v>364</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>173</v>
@@ -7585,7 +7592,7 @@
         <v>359</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="120">
@@ -7593,16 +7600,16 @@
         <v>365</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangchenyang/IdeaProjects/gpdp/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D411A49-8B84-D742-A6D9-E9EBE0943DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9A0D51-4B6F-5340-AC80-D3E993EDDF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="智慧党建" sheetId="1" r:id="rId1"/>
@@ -6502,14 +6502,6 @@
   </si>
   <si>
     <t>http://localhost:9090/sjzc/count</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"exchange" :'今日交换量/GB'
-"into_organization" :'已入库组织/个'
-"resource_num" :'资源数/个'
-"total_count" :'总数据量/万条'
-"total_store" :'总存储量/GB'</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -6625,6 +6617,15 @@
     "last_report_time": '最近上报时间'
      "name": '单位名称'
      "NUM": 视频数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"exchange" :'今日交换量/GB'
+"into_organization" :'已入库组织/个'
+"resource_num" :'资源数/个'
+"total_count" :'总数据量/万条'
+"total_store" :'总存储量/GB',
+"spCount": 视频总数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -6740,7 +6741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6833,6 +6834,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7163,12 +7167,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
@@ -7420,7 +7424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
@@ -7481,7 +7485,7 @@
   <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7510,11 +7514,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="75">
+    <row r="3" spans="1:5" ht="90">
       <c r="A3" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>390</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7524,7 +7528,7 @@
         <v>359</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="150">
@@ -7532,16 +7536,16 @@
         <v>360</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="190" customHeight="1">
@@ -7549,7 +7553,7 @@
         <v>361</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>173</v>
@@ -7558,7 +7562,7 @@
         <v>362</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="409" customHeight="1">
@@ -7566,7 +7570,7 @@
         <v>363</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>384</v>
@@ -7575,7 +7579,7 @@
         <v>359</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="121" customHeight="1">
@@ -7583,7 +7587,7 @@
         <v>364</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>173</v>
@@ -7592,7 +7596,7 @@
         <v>359</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="120">
@@ -7600,16 +7604,16 @@
         <v>365</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -7643,10 +7647,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="32"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="17">
       <c r="A2" s="14" t="s">

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangchenyang/IdeaProjects/gpdp/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9A0D51-4B6F-5340-AC80-D3E993EDDF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC2B492-D33B-054F-8B21-EDED107C11C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7484,8 +7484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="99" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7535,7 +7535,7 @@
       <c r="A4" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>393</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -7552,7 +7552,7 @@
       <c r="A5" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="31" t="s">
         <v>392</v>
       </c>
       <c r="C5" s="1" t="s">

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangchenyang/IdeaProjects/gpdp/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC2B492-D33B-054F-8B21-EDED107C11C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A5FD66-E5B1-E649-93E8-50F01354BC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="智慧党建" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="408">
   <si>
     <t>http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090</t>
   </si>
@@ -6626,6 +6626,96 @@
 "total_count" :'总数据量/万条'
 "total_store" :'总存储量/GB',
 "spCount": 视频总数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频分类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/common/spType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "name": "道路监控",
+            "child": [
+                {
+                    "EJFL": "清闲路"
+                },
+                {
+                    "EJFL": "旧变压器厂"
+                }
+            ]
+        },
+        {
+            "name": "景区监控",
+            "child": [
+                {
+                    "EJFL": "炎帝陵"
+                },
+                {
+                    "EJFL": "炎帝公园"
+                }
+            ]
+        },
+        {
+            "name": "学校监控",
+            "child": [
+                {
+                    "EJFL": "高平中专"
+                },
+                {
+                    "EJFL": "丹河幼儿园"
+                }
+            ]
+        },
+        {
+            "name": "医院监控",
+            "child": [
+                {
+                    "EJFL": "高平中医院"
+                },
+                {
+                    "EJFL": "众和医院"
+                },
+                {
+                    "EJFL": "高平人民医院"
+                }
+            ]
+        },
+        {
+            "name": "扬尘监控",
+            "child": [
+                {
+                    "EJFL": "尚东美地"
+                },
+                {
+                    "EJFL": "金华苑二期"
+                },
+                {
+                    "EJFL": "幸福花园"
+                },
+                {
+                    "EJFL": "高平诚建"
+                }
+            ]
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            "name": "一级分类",
+            "child": [
+                {
+                    "EJFL": "二级分类"
+                }           
+             ]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -6741,7 +6831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6834,6 +6924,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7167,12 +7260,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
@@ -7422,10 +7515,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A2:E3"/>
+  <dimension ref="A2:E4"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7471,10 +7564,28 @@
         <v>357</v>
       </c>
     </row>
+    <row r="4" spans="1:5" ht="409.6">
+      <c r="A4" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>407</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/common/sp" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{2A7B7756-358D-CF43-B5C5-B7D79AAC130B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7484,7 +7595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="99" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="99" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -7647,10 +7758,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="17">
       <c r="A2" s="14" t="s">

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangchenyang/IdeaProjects/gpdp/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijWorkSpace\idea\git\gpdp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A5FD66-E5B1-E649-93E8-50F01354BC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1613D04D-458A-4BB0-8325-D9B88C973E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="智慧党建" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="410">
   <si>
     <t>http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090</t>
   </si>
@@ -6718,12 +6718,20 @@
              ]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>http://localhost:9090/zhsw/dmjc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地表水考核断面水质统计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6831,7 +6839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6924,6 +6932,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7251,23 +7262,23 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="39.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="46.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -7281,7 +7292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="342">
+    <row r="3" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -7298,7 +7309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -7312,7 +7323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="240">
+    <row r="5" spans="1:5" ht="216" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
@@ -7326,7 +7337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="409.6">
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
@@ -7341,7 +7352,7 @@
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" ht="409.6">
+    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
@@ -7355,7 +7366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="409.6">
+    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
@@ -7369,7 +7380,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="210">
+    <row r="9" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>30</v>
       </c>
@@ -7386,7 +7397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="195">
+    <row r="10" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
@@ -7403,7 +7414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="409.6">
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
         <v>38</v>
       </c>
@@ -7417,7 +7428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="384">
+    <row r="12" spans="1:5" ht="351" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>42</v>
       </c>
@@ -7431,7 +7442,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="356">
+    <row r="13" spans="1:5" ht="324" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
@@ -7445,7 +7456,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="409.6">
+    <row r="14" spans="1:5" ht="405" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
         <v>50</v>
       </c>
@@ -7459,7 +7470,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="409.6">
+    <row r="15" spans="1:5" ht="405" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>54</v>
       </c>
@@ -7473,7 +7484,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="409.6">
+    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>58</v>
       </c>
@@ -7517,20 +7528,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+    <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
-    <col min="4" max="4" width="49.83203125" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.625" customWidth="1"/>
+    <col min="4" max="4" width="49.875" customWidth="1"/>
+    <col min="5" max="5" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7547,7 +7558,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.6">
+    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>353</v>
       </c>
@@ -7564,7 +7575,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
         <v>404</v>
       </c>
@@ -7599,16 +7610,16 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.83203125" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.875" customWidth="1"/>
+    <col min="5" max="5" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7625,7 +7636,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="90">
+    <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>358</v>
       </c>
@@ -7642,7 +7653,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="150">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>360</v>
       </c>
@@ -7659,7 +7670,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="190" customHeight="1">
+    <row r="5" spans="1:5" ht="189.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>361</v>
       </c>
@@ -7676,7 +7687,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="409" customHeight="1">
+    <row r="6" spans="1:5" ht="408.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>363</v>
       </c>
@@ -7693,7 +7704,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="121" customHeight="1">
+    <row r="7" spans="1:5" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>364</v>
       </c>
@@ -7710,7 +7721,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="120">
+    <row r="8" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>365</v>
       </c>
@@ -7749,21 +7760,21 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.83203125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="38.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="34"/>
-    </row>
-    <row r="2" spans="1:4" ht="17">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="35"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -7777,7 +7788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="150">
+    <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -7791,7 +7802,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="210">
+    <row r="4" spans="1:4" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -7805,7 +7816,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="210">
+    <row r="5" spans="1:4" ht="189" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -7819,7 +7830,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="384">
+    <row r="6" spans="1:4" ht="351" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -7833,7 +7844,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="270">
+    <row r="7" spans="1:4" ht="243" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
@@ -7847,7 +7858,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="409.6">
+    <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
@@ -7887,16 +7898,16 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.1640625" customWidth="1"/>
+    <col min="1" max="1" width="28.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="17">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -7910,7 +7921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="324">
+    <row r="3" spans="1:5" ht="337.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -7924,7 +7935,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
@@ -7938,7 +7949,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="210">
+    <row r="5" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>93</v>
       </c>
@@ -7952,7 +7963,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="210">
+    <row r="6" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>96</v>
       </c>
@@ -7966,7 +7977,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="409.6">
+    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>100</v>
       </c>
@@ -7981,7 +7992,7 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5" ht="409.6">
+    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>104</v>
       </c>
@@ -7995,8 +8006,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1"/>
-    <row r="11" spans="1:5" ht="409.6">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>366</v>
       </c>
@@ -8010,7 +8021,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="409.6">
+    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
         <v>370</v>
       </c>
@@ -8024,7 +8035,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="210">
+    <row r="13" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
         <v>374</v>
       </c>
@@ -8038,7 +8049,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="210">
+    <row r="14" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
         <v>380</v>
       </c>
@@ -8082,15 +8093,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="17">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -8104,7 +8115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="270">
+    <row r="3" spans="1:4" ht="243" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
@@ -8118,7 +8129,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="328">
+    <row r="4" spans="1:4" ht="297" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
@@ -8132,7 +8143,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="210">
+    <row r="5" spans="1:4" ht="189" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>116</v>
       </c>
@@ -8146,7 +8157,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="210">
+    <row r="6" spans="1:4" ht="189" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>119</v>
       </c>
@@ -8160,7 +8171,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="328">
+    <row r="7" spans="1:4" ht="297" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
@@ -8174,7 +8185,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="240">
+    <row r="8" spans="1:4" ht="216" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>125</v>
       </c>
@@ -8188,7 +8199,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="409.6">
+    <row r="9" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>129</v>
       </c>
@@ -8202,7 +8213,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="409.6">
+    <row r="10" spans="1:4" ht="405" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>133</v>
       </c>
@@ -8216,7 +8227,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="270">
+    <row r="11" spans="1:4" ht="243" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>137</v>
       </c>
@@ -8230,7 +8241,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="328">
+    <row r="12" spans="1:4" ht="297" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
@@ -8244,7 +8255,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="210">
+    <row r="13" spans="1:4" ht="189" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>144</v>
       </c>
@@ -8258,7 +8269,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="409.6">
+    <row r="14" spans="1:4" ht="405" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>147</v>
       </c>
@@ -8300,16 +8311,16 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.83203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8326,7 +8337,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="240">
+    <row r="3" spans="1:5" ht="216" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>153</v>
       </c>
@@ -8343,7 +8354,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>158</v>
       </c>
@@ -8360,7 +8371,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.6">
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>163</v>
       </c>
@@ -8377,7 +8388,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="314">
+    <row r="6" spans="1:5" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>166</v>
       </c>
@@ -8394,7 +8405,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="240">
+    <row r="7" spans="1:5" ht="216" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>171</v>
       </c>
@@ -8411,7 +8422,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="150">
+    <row r="8" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>176</v>
       </c>
@@ -8428,7 +8439,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="300">
+    <row r="9" spans="1:5" ht="270" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>180</v>
       </c>
@@ -8445,7 +8456,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="240">
+    <row r="10" spans="1:5" ht="216" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>184</v>
       </c>
@@ -8462,7 +8473,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="328">
+    <row r="11" spans="1:5" ht="297" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>188</v>
       </c>
@@ -8479,7 +8490,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="328">
+    <row r="12" spans="1:5" ht="297" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>192</v>
       </c>
@@ -8496,7 +8507,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>196</v>
       </c>
@@ -8504,7 +8515,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>197</v>
       </c>
@@ -8535,16 +8546,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.1640625" customWidth="1"/>
+    <col min="1" max="1" width="33.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8561,7 +8572,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="120">
+    <row r="3" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>198</v>
       </c>
@@ -8578,7 +8589,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="210">
+    <row r="4" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>203</v>
       </c>
@@ -8595,7 +8606,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="356">
+    <row r="5" spans="1:5" ht="324" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>207</v>
       </c>
@@ -8612,7 +8623,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="398">
+    <row r="6" spans="1:5" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>212</v>
       </c>
@@ -8629,7 +8640,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="398">
+    <row r="7" spans="1:5" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>216</v>
       </c>
@@ -8646,7 +8657,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="210">
+    <row r="8" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>220</v>
       </c>
@@ -8663,7 +8674,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="210">
+    <row r="9" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>224</v>
       </c>
@@ -8703,16 +8714,16 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="42" style="4" customWidth="1"/>
-    <col min="5" max="5" width="38.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="38.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8729,7 +8740,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="270">
+    <row r="3" spans="1:6" ht="243" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>228</v>
       </c>
@@ -8746,7 +8757,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="210">
+    <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>232</v>
       </c>
@@ -8763,7 +8774,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="328">
+    <row r="5" spans="1:6" ht="297" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>236</v>
       </c>
@@ -8783,7 +8794,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="328">
+    <row r="6" spans="1:6" ht="297" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>241</v>
       </c>
@@ -8800,7 +8811,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="180">
+    <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>245</v>
       </c>
@@ -8817,7 +8828,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="225">
+    <row r="8" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>250</v>
       </c>
@@ -8837,7 +8848,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="180">
+    <row r="9" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>254</v>
       </c>
@@ -8854,7 +8865,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="270">
+    <row r="10" spans="1:6" ht="243" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>259</v>
       </c>
@@ -8895,16 +8906,16 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="37.83203125" customWidth="1"/>
+    <col min="5" max="5" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8921,7 +8932,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135">
+    <row r="3" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>264</v>
       </c>
@@ -8938,7 +8949,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>268</v>
       </c>
@@ -8955,7 +8966,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.6">
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>272</v>
       </c>
@@ -8972,7 +8983,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="120">
+    <row r="6" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>276</v>
       </c>
@@ -8989,7 +9000,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="165">
+    <row r="7" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>280</v>
       </c>
@@ -9006,7 +9017,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="225">
+    <row r="8" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>284</v>
       </c>
@@ -9023,7 +9034,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="105">
+    <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>289</v>
       </c>
@@ -9040,7 +9051,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="409.6">
+    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>293</v>
       </c>
@@ -9057,7 +9068,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="409.6">
+    <row r="11" spans="1:5" ht="405" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>298</v>
       </c>
@@ -9074,7 +9085,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="409.6">
+    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>302</v>
       </c>
@@ -9091,7 +9102,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="409.6">
+    <row r="13" spans="1:5" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>306</v>
       </c>
@@ -9108,7 +9119,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="409.6">
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>309</v>
       </c>
@@ -9125,7 +9136,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="384">
+    <row r="15" spans="1:5" ht="351" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>313</v>
       </c>
@@ -9142,7 +9153,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="409.6">
+    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
         <v>383</v>
       </c>
@@ -9183,23 +9194,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A2:F10"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="41.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="37.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="50.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9216,7 +9227,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="195">
+    <row r="3" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>316</v>
       </c>
@@ -9233,7 +9244,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="314">
+    <row r="4" spans="1:6" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>321</v>
       </c>
@@ -9250,7 +9261,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="120">
+    <row r="5" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>325</v>
       </c>
@@ -9267,7 +9278,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="285">
+    <row r="6" spans="1:6" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>330</v>
       </c>
@@ -9284,7 +9295,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="180">
+    <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>334</v>
       </c>
@@ -9301,7 +9312,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="409.6">
+    <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>339</v>
       </c>
@@ -9318,7 +9329,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="255">
+    <row r="9" spans="1:6" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>344</v>
       </c>
@@ -9335,7 +9346,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="195">
+    <row r="10" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>348</v>
       </c>
@@ -9353,6 +9364,14 @@
       </c>
       <c r="F10" s="3" t="s">
         <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -9366,6 +9385,7 @@
     <hyperlink ref="B8" r:id="rId6" tooltip="http://localhost:9090/zhsw/hlInfo" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
     <hyperlink ref="B9" r:id="rId7" tooltip="http://localhost:9090/zhsw/skInfp" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
     <hyperlink ref="B10" r:id="rId8" tooltip="http://localhost:9090/zhsw/xqjyl" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{70A52527-1A05-491F-9C80-AFAB0021B99A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijWorkSpace\idea\git\gpdp\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1613D04D-458A-4BB0-8325-D9B88C973E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9347" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="智慧党建" sheetId="1" r:id="rId1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="415">
   <si>
     <t>http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090</t>
   </si>
@@ -958,6 +952,9 @@
     <t>培训工种统计</t>
   </si>
   <si>
+    <t>http://localhost:9090/pxqz/gzCount</t>
+  </si>
+  <si>
     <t>{
     "msg": "成功",
     "code": 200,
@@ -1256,6 +1253,1154 @@
    qz 求职意向
    dw 对外求职意向
    rate 输出率</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/pxqz/ryInfoNew</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "total": 4914,
+        "typeInfo": [
+            {
+                "NUM": 14,
+                "PXYY_PXJNGZ": "快件处理员"
+            },
+            {
+                "NUM": 28,
+                "PXYY_PXJNGZ": "农业技术员"
+            },
+            {
+                "NUM": 59,
+                "PXYY_PXJNGZ": "西式面点师"
+            },
+            {
+                "NUM": 34,
+                "PXYY_PXJNGZ": "商品营业员"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "旅游团队领队"
+            },
+            {
+                "NUM": 133,
+                "PXYY_PXJNGZ": "井下采矿工"
+            },
+            {
+                "NUM": 18,
+                "PXYY_PXJNGZ": "广告设计师"
+            },
+            {
+                "NUM": 79,
+                "PXYY_PXJNGZ": "计算机程序设计员"
+            },
+            {
+                "NUM": 358,
+                "PXYY_PXJNGZ": "化妆师"
+            },
+            {
+                "NUM": 16,
+                "PXYY_PXJNGZ": "农艺工"
+            },
+            {
+                "NUM": 130,
+                "PXYY_PXJNGZ": "公关员"
+            },
+            {
+                "NUM": 99,
+                "PXYY_PXJNGZ": "电子商务师"
+            },
+            {
+                "NUM": 102,
+                "PXYY_PXJNGZ": "消防安全管理员"
+            },
+            {
+                "NUM": 77,
+                "PXYY_PXJNGZ": "中式面点师"
+            },
+            {
+                "NUM": 31,
+                "PXYY_PXJNGZ": "家政服务员"
+            },
+            {
+                "NUM": 31,
+                "PXYY_PXJNGZ": "医药商品购销员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "无人机装调工"
+            },
+            {
+                "NUM": 23,
+                "PXYY_PXJNGZ": "快递员"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "公共游览场所服务员"
+            },
+            {
+                "NUM": 20,
+                "PXYY_PXJNGZ": "人工智能训练师"
+            },
+            {
+                "NUM": 68,
+                "PXYY_PXJNGZ": "焊工"
+            },
+            {
+                "NUM": 175,
+                "PXYY_PXJNGZ": "中式烹调师"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "旅店服务员"
+            },
+            {
+                "NUM": 37,
+                "PXYY_PXJNGZ": "连锁经营管理师"
+            },
+            {
+                "NUM": 120,
+                "PXYY_PXJNGZ": "健康管理师"
+            },
+            {
+                "NUM": 157,
+                "PXYY_PXJNGZ": "打字员"
+            },
+            {
+                "NUM": 30,
+                "PXYY_PXJNGZ": "装饰美工"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "家禽饲养员"
+            },
+            {
+                "NUM": 24,
+                "PXYY_PXJNGZ": "美发师"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "办公设备维修工"
+            },
+            {
+                "NUM": 29,
+                "PXYY_PXJNGZ": "汽车维修工"
+            },
+            {
+                "NUM": 51,
+                "PXYY_PXJNGZ": "采购师（员）"
+            },
+            {
+                "NUM": 112,
+                "PXYY_PXJNGZ": "保卫管理员"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "装潢美术设计师"
+            },
+            {
+                "NUM": 47,
+                "PXYY_PXJNGZ": "室内装饰设计师"
+            },
+            {
+                "NUM": 29,
+                "PXYY_PXJNGZ": "公共营养师"
+            },
+            {
+                "NUM": 92,
+                "PXYY_PXJNGZ": "电工"
+            },
+            {
+                "NUM": 56,
+                "PXYY_PXJNGZ": "收银员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "工艺染织品制作工"
+            },
+            {
+                "NUM": 122,
+                "PXYY_PXJNGZ": "制图员"
+            },
+            {
+                "NUM": 18,
+                "PXYY_PXJNGZ": "质检员"
+            },
+            {
+                "NUM": 29,
+                "PXYY_PXJNGZ": "美容师"
+            },
+            {
+                "NUM": 21,
+                "PXYY_PXJNGZ": "消防装备管理员"
+            },
+            {
+                "NUM": 30,
+                "PXYY_PXJNGZ": "物业管理员"
+            },
+            {
+                "NUM": 32,
+                "PXYY_PXJNGZ": "保安员"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "裁剪工"
+            },
+            {
+                "NUM": 7,
+                "PXYY_PXJNGZ": "裁缝"
+            },
+            {
+                "NUM": 29,
+                "PXYY_PXJNGZ": "消防指挥员"
+            },
+            {
+                "NUM": 20,
+                "PXYY_PXJNGZ": "森林消防员L"
+            },
+            {
+                "NUM": 23,
+                "PXYY_PXJNGZ": "保健按摩师"
+            },
+            {
+                "NUM": 25,
+                "PXYY_PXJNGZ": "保洁员L"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "录音师"
+            },
+            {
+                "NUM": 139,
+                "PXYY_PXJNGZ": "营销员"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "家畜繁殖员"
+            },
+            {
+                "NUM": 22,
+                "PXYY_PXJNGZ": "信息通信信息化系统管理员"
+            },
+            {
+                "NUM": 91,
+                "PXYY_PXJNGZ": "秘书"
+            },
+            {
+                "NUM": 19,
+                "PXYY_PXJNGZ": "轨道列车司机L"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "电线电缆制造工"
+            },
+            {
+                "NUM": 94,
+                "PXYY_PXJNGZ": "营养配餐员"
+            },
+            {
+                "NUM": 120,
+                "PXYY_PXJNGZ": "消防员"
+            },
+            {
+                "NUM": 43,
+                "PXYY_PXJNGZ": "插花花艺师"
+            },
+            {
+                "NUM": 7,
+                "PXYY_PXJNGZ": "装饰装修工"
+            },
+            {
+                "NUM": 13,
+                "PXYY_PXJNGZ": "保育员"
+            },
+            {
+                "NUM": 29,
+                "PXYY_PXJNGZ": "育婴员"
+            },
+            {
+                "NUM": 40,
+                "PXYY_PXJNGZ": "道路客运汽车驾驶员L"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "智能楼宇管理员"
+            },
+            {
+                "NUM": 32,
+                "PXYY_PXJNGZ": "礼仪主持人"
+            },
+            {
+                "NUM": 11,
+                "PXYY_PXJNGZ": "咖啡师"
+            },
+            {
+                "NUM": 54,
+                "PXYY_PXJNGZ": "仓储管理员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "化妆师\n"
+            },
+            {
+                "NUM": 9,
+                "PXYY_PXJNGZ": "美甲师"
+            },
+            {
+                "NUM": 69,
+                "PXYY_PXJNGZ": "道路货运汽车驾驶员L"
+            },
+            {
+                "NUM": 13,
+                "PXYY_PXJNGZ": "无线电监测与设备运维员"
+            },
+            {
+                "NUM": 49,
+                "PXYY_PXJNGZ": "安全员"
+            },
+            {
+                "NUM": 16,
+                "PXYY_PXJNGZ": "计算机（微机）维修工"
+            },
+            {
+                "NUM": 8,
+                "PXYY_PXJNGZ": "家用电子产品维修工"
+            },
+            {
+                "NUM": 7,
+                "PXYY_PXJNGZ": "养老护理员"
+            },
+            {
+                "NUM": 19,
+                "PXYY_PXJNGZ": "创业指导师"
+            },
+            {
+                "NUM": 39,
+                "PXYY_PXJNGZ": "糕点面包烘焙工"
+            },
+            {
+                "NUM": 14,
+                "PXYY_PXJNGZ": "休闲农业服务员"
+            },
+            {
+                "NUM": 14,
+                "PXYY_PXJNGZ": "物流服务师L"
+            },
+            {
+                "NUM": 30,
+                "PXYY_PXJNGZ": "井下支护工"
+            },
+            {
+                "NUM": 17,
+                "PXYY_PXJNGZ": "家用电器产品维修工"
+            },
+            {
+                "NUM": 77,
+                "PXYY_PXJNGZ": "应急救援员"
+            },
+            {
+                "NUM": 11,
+                "PXYY_PXJNGZ": "信用管理师"
+            },
+            {
+                "NUM": 20,
+                "PXYY_PXJNGZ": "家畜饲养员"
+            },
+            {
+                "NUM": 18,
+                "PXYY_PXJNGZ": "婴幼儿发展引导员"
+            },
+            {
+                "NUM": 8,
+                "PXYY_PXJNGZ": "园艺工"
+            },
+            {
+                "NUM": 20,
+                "PXYY_PXJNGZ": "挖掘铲运和桩工机械司机"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "管道工"
+            },
+            {
+                "NUM": 13,
+                "PXYY_PXJNGZ": "形象设计师"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "农机驾驶操作员"
+            },
+            {
+                "NUM": 8,
+                "PXYY_PXJNGZ": "民间工艺品艺人"
+            },
+            {
+                "NUM": 12,
+                "PXYY_PXJNGZ": "机动车检测工"
+            },
+            {
+                "NUM": 24,
+                "PXYY_PXJNGZ": "矿山安全防护工"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "混凝土工"
+            },
+            {
+                "NUM": 16,
+                "PXYY_PXJNGZ": "道路客运服务员"
+            },
+            {
+                "NUM": 55,
+                "PXYY_PXJNGZ": "安检员"
+            },
+            {
+                "NUM": 39,
+                "PXYY_PXJNGZ": "网络与信息安全管理员"
+            },
+            {
+                "NUM": 13,
+                "PXYY_PXJNGZ": "房地产策划师"
+            },
+            {
+                "NUM": 11,
+                "PXYY_PXJNGZ": "园林绿化工L"
+            },
+            {
+                "NUM": 9,
+                "PXYY_PXJNGZ": "高低压电器装配工"
+            },
+            {
+                "NUM": 38,
+                "PXYY_PXJNGZ": "消防监督检查员"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "芳香保健师"
+            },
+            {
+                "NUM": 10,
+                "PXYY_PXJNGZ": "婚姻家庭咨询师"
+            },
+            {
+                "NUM": 26,
+                "PXYY_PXJNGZ": "餐厅服务员"
+            },
+            {
+                "NUM": 33,
+                "PXYY_PXJNGZ": "速录师"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "中央空调系统操作员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "糖果工艺师"
+            },
+            {
+                "NUM": 36,
+                "PXYY_PXJNGZ": "茶艺师"
+            },
+            {
+                "NUM": 23,
+                "PXYY_PXJNGZ": "信息通信网络运行管理员"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "冷藏工"
+            },
+            {
+                "NUM": 14,
+                "PXYY_PXJNGZ": "计算机软件测试员"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "眼镜验光员"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "动物疫病防治员"
+            },
+            {
+                "NUM": 17,
+                "PXYY_PXJNGZ": "客房服务员"
+            },
+            {
+                "NUM": 12,
+                "PXYY_PXJNGZ": "全媒体运营师"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "社会体育指导员"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "商品监督员"
+            },
+            {
+                "NUM": 19,
+                "PXYY_PXJNGZ": "保健调理师"
+            },
+            {
+                "NUM": 12,
+                "PXYY_PXJNGZ": "医疗临床辅助服务员"
+            },
+            {
+                "NUM": 22,
+                "PXYY_PXJNGZ": "井下机车运输工"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "家具设计师"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "酱腌菜制作工（果蔬坚果加工工）"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "康复辅助技术咨询师"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "音响调音员"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "车工"
+            },
+            {
+                "NUM": 14,
+                "PXYY_PXJNGZ": "花艺环境设计师"
+            },
+            {
+                "NUM": 43,
+                "PXYY_PXJNGZ": "矿井通风工"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "网约配送员"
+            },
+            {
+                "NUM": 29,
+                "PXYY_PXJNGZ": "矿山安全设备监测检修工"
+            },
+            {
+                "NUM": 28,
+                "PXYY_PXJNGZ": "矿井开掘工"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "食用菌生产工"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "农机修理工"
+            },
+            {
+                "NUM": 12,
+                "PXYY_PXJNGZ": "电气电子产品环保检测员"
+            },
+            {
+                "NUM": 8,
+                "PXYY_PXJNGZ": "机修钳工"
+            },
+            {
+                "NUM": 13,
+                "PXYY_PXJNGZ": "无人机测绘操控员L"
+            },
+            {
+                "NUM": 7,
+                "PXYY_PXJNGZ": "多工序数控机床操作调整工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "水泥生产工"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "供应链管理师"
+            },
+            {
+                "NUM": 20,
+                "PXYY_PXJNGZ": "调酒师"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "森林抚育工L"
+            },
+            {
+                "NUM": 11,
+                "PXYY_PXJNGZ": "职业指导员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "发电集控值班员"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "装配钳工"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "手工木工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "计算机及外部设备装配调试员"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "肉制品加工工"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "园艺产品加工工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "经济昆虫养殖员"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "模具工"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "护林员L"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "抽纱刺绣工"
+            },
+            {
+                "NUM": 20,
+                "PXYY_PXJNGZ": "导游"
+            },
+            {
+                "NUM": 17,
+                "PXYY_PXJNGZ": "商业摄影师"
+            },
+            {
+                "NUM": 10,
+                "PXYY_PXJNGZ": "信息通信网络线务员"
+            },
+            {
+                "NUM": 11,
+                "PXYY_PXJNGZ": "前厅服务员"
+            },
+            {
+                "NUM": 7,
+                "PXYY_PXJNGZ": "变配电运行值班员"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "锅炉运行值班员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "工艺品雕刻工"
+            },
+            {
+                "NUM": 14,
+                "PXYY_PXJNGZ": "矿山提升设备操作工"
+            },
+            {
+                "NUM": 7,
+                "PXYY_PXJNGZ": "电气设备安装工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "皮革及皮革制品加工工"
+            },
+            {
+                "NUM": 11,
+                "PXYY_PXJNGZ": "化学检验员"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "炼焦煤制备工"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "砌筑工"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "摩托车修理工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "动物检疫检验员"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "煤层气排采集输工"
+            },
+            {
+                "NUM": 7,
+                "PXYY_PXJNGZ": "工艺美术品设计师"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "金属轧制工"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "农作物植保员L"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "铸造工"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "豆制品制作工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "管工"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "爆破工"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "白酒酿造工"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "宠物健康护理员"
+            },
+            {
+                "NUM": 7,
+                "PXYY_PXJNGZ": "西式烹调师"
+            },
+            {
+                "NUM": 11,
+                "PXYY_PXJNGZ": "市场管理员"
+            },
+            {
+                "NUM": 7,
+                "PXYY_PXJNGZ": "动画制作员"
+            },
+            {
+                "NUM": 9,
+                "PXYY_PXJNGZ": "缝纫工"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "起重装卸机械操作工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "金属材热处理工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "家具制作工"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "糕点装饰师"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "会展策划师(设计师)"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "信息通信网络终端维修员"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "中药调剂员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "中药炮制工"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "生化检验员"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "旅行社计调"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "高炉原料工"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "工程机械维修工"
+            },
+            {
+                "NUM": 5,
+                "PXYY_PXJNGZ": "旅游咨询员"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "民间工艺品制作工"
+            },
+            {
+                "NUM": 4,
+                "PXYY_PXJNGZ": "电力电气设备安装工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "种子繁育员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "照相器材维修工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "制冷设备维修工"
+            },
+            {
+                "NUM": 6,
+                "PXYY_PXJNGZ": "健康照护师"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "呼叫中心服务员"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "电机制造工"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "工业废水处理工L"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "中药材种植员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "焊接设备装配调试工"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "锅炉操作工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "高铁线路综合维修工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "物理性能检验员"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "机床装调维修工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "客户服务管理师"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "贵金属首饰手工制作工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "壁画制作工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "种苗繁育员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "冲印师"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "光伏发电运维值班员L"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "造林更新工L"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "涂装工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "印前制作员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "绒线编织拼布工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "仪器仪表维修工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "机械设备安装工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "酱油酱类制作工"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "制冷工"
+            },
+            {
+                "NUM": 3,
+                "PXYY_PXJNGZ": "装配式建筑施工员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "钢筋工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "纺织染色工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "包装设计师"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "有害生物防制员L"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "家禽繁殖员"
+            },
+            {
+                "NUM": 2,
+                "PXYY_PXJNGZ": "无损检测员"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "眼镜定配工"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "出生缺陷防控咨询师"
+            },
+            {
+                "NUM": 1,
+                "PXYY_PXJNGZ": "电子专用设备装调工"
+            }
+        ],
+        "jyType": [
+            {
+                "NUM": 1111,
+                "NAME": "lh"
+            },
+            {
+                "NUM": 40,
+                "NAME": "xyt"
+            },
+            {
+                "NUM": 266,
+                "NAME": "zz"
+            },
+            {
+                "NUM": 1877,
+                "NAME": "wd"
+            }
+        ],
+        "type": 234
+    }
+}</t>
+  </si>
+  <si>
+    <t>total：总人数
+typeinfo：工种类型详情
+jyType：就业类型
+type：类型种数
+xyt：新业态
+wd：稳定就业
+lh：灵活就业
+zz：自主创业</t>
+  </si>
+  <si>
+    <t>求职人员信息</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/pxqz/qzryInfo</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "total": 3794,
+        "typeInfo": [
+            {
+                "NUM": 614,
+                "QJYY_QZHY": "农林牧渔业"
+            },
+            {
+                "NUM": 403,
+                "QJYY_QZHY": "采矿业"
+            },
+            {
+                "NUM": 313,
+                "QJYY_QZHY": "居民服务和其他服务业"
+            },
+            {
+                "NUM": 308,
+                "QJYY_QZHY": "信息传输、计算机服务和软件业"
+            },
+            {
+                "NUM": 258,
+                "QJYY_QZHY": "住宿和餐饮业"
+            },
+            {
+                "NUM": 246,
+                "QJYY_QZHY": "文化、体育和娱乐业"
+            },
+            {
+                "NUM": 229,
+                "QJYY_QZHY": "卫生、社会保障和社会福利业"
+            },
+            {
+                "NUM": 224,
+                "QJYY_QZHY": "批发和零售业"
+            },
+            {
+                "NUM": 194,
+                "QJYY_QZHY": "制造业"
+            },
+            {
+                "NUM": 171,
+                "QJYY_QZHY": "公共管理和社会组织"
+            },
+            {
+                "NUM": 165,
+                "QJYY_QZHY": "交通运输、仓储和邮政业"
+            },
+            {
+                "NUM": 156,
+                "QJYY_QZHY": "金融业"
+            },
+            {
+                "NUM": 139,
+                "QJYY_QZHY": "电力、燃气及水的生产和供应业"
+            },
+            {
+                "NUM": 115,
+                "QJYY_QZHY": "建筑业"
+            },
+            {
+                "NUM": 88,
+                "QJYY_QZHY": "教育,水利、环境和公共设施管理业"
+            },
+            {
+                "NUM": 46,
+                "QJYY_QZHY": "房地产业"
+            },
+            {
+                "NUM": 29,
+                "QJYY_QZHY": "科学研究、技术服务和地质勘查业"
+            },
+            {
+                "NUM": 18,
+                "QJYY_QZHY": "租赁和商务服务业"
+            },
+            {
+                "NUM": 12,
+                "QJYY_QZHY": "国际组织"
+            }
+        ],
+        "jyType": [
+            {
+                "NUM": 930,
+                "NAME": "lh"
+            },
+            {
+                "NUM": 29,
+                "NAME": "xyt"
+            },
+            {
+                "NUM": 170,
+                "NAME": "zz"
+            },
+            {
+                "NUM": 812,
+                "NAME": "wd"
+            }
+        ],
+        "type": 19
+    }
+}</t>
+  </si>
+  <si>
+    <t>对外意向国家</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/pxqz/dyyx</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 253,
+            "YYGJ": "中国"
+        },
+        {
+            "NUM": 15,
+            "YYGJ": "日本"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>"NUM": 数量
+"YYGJ": 国家</t>
+  </si>
+  <si>
+    <t>培训/求职性别</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/pxqz/sexInfo</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 173957,
+            "XB": "女"
+        },
+        {
+            "NUM": 175246,
+            "XB": "男"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>"NUM": 数量
+"XB": 性别</t>
+  </si>
+  <si>
+    <t>请求参数：
+type：px(培训)/qz(求职)
+不传为全部人员性别</t>
   </si>
   <si>
     <t>就业情况统计</t>
@@ -2495,6 +3640,20 @@
 }</t>
   </si>
   <si>
+    <t>"DWMC"  队伍名称
+"DWRS"  队伍人数
+"FZEXM"  负责人姓名
+"FZRDH"  负责人电话
+"GSDW"  归属单位
+"ZSDD"  驻守地点
+"ZBMC"  装备名称
+ZSDDJD:经度
+ZSDDWD：纬度</t>
+  </si>
+  <si>
+    <t>eidt:05-13</t>
+  </si>
+  <si>
     <t>装备详情</t>
   </si>
   <si>
@@ -4713,6 +5872,128 @@
         }
     ]
 }</t>
+  </si>
+  <si>
+    <t>中小学籍贯分布</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/hjtj</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 22964,
+            "NAME": "山西省"
+        },
+        {
+            "NUM": 241,
+            "NAME": "河南省"
+        },
+        {
+            "NUM": 84,
+            "NAME": "河北省"
+        },
+        {
+            "NUM": 42,
+            "NAME": "安徽省"
+        },
+        {
+            "NUM": 24,
+            "NAME": "陕西省"
+        },
+        {
+            "NUM": 24,
+            "NAME": "江苏省"
+        },
+        {
+            "NUM": 24,
+            "NAME": "福建省"
+        },
+        {
+            "NUM": 17,
+            "NAME": "浙江省"
+        },
+        {
+            "NUM": 16,
+            "NAME": "湖北省"
+        },
+        {
+            "NUM": 13,
+            "NAME": "山东省"
+        },
+        {
+            "NUM": 11,
+            "NAME": "湖南省"
+        },
+        {
+            "NUM": 9,
+            "NAME": "江西省"
+        },
+        {
+            "NUM": 8,
+            "NAME": "吉林省"
+        },
+        {
+            "NUM": 8,
+            "NAME": "四川省"
+        },
+        {
+            "NUM": 6,
+            "NAME": "重庆市"
+        },
+        {
+            "NUM": 4,
+            "NAME": "贵州省"
+        },
+        {
+            "NUM": 3,
+            "NAME": "辽宁省"
+        },
+        {
+            "NUM": 2,
+            "NAME": "黑龙江省"
+        },
+        {
+            "NUM": 2,
+            "NAME": "内蒙古自治区"
+        },
+        {
+            "NUM": 2,
+            "NAME": "广东省"
+        },
+        {
+            "NUM": 2,
+            "NAME": "云南省"
+        },
+        {
+            "NUM": 2,
+            "NAME": "青海省"
+        },
+        {
+            "NUM": 1,
+            "NAME": "海南省"
+        },
+        {
+            "NUM": 1,
+            "NAME": "天津市"
+        },
+        {
+            "NUM": 1,
+            "NAME": "甘肃省"
+        },
+        {
+            "NUM": 1,
+            "NAME": "北京市"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>num:数量
+name：省份</t>
   </si>
   <si>
     <t>全市水资源总量统计
@@ -5010,6 +6291,123 @@
 6-9月汛期降雨量占全年80%以上，7月下旬到8月上旬为雨峰，洪水期水量占全年水量60%-70%</t>
   </si>
   <si>
+    <t>地表水考核断面水质统计</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhsw/dmjc</t>
+  </si>
+  <si>
+    <t>{
+    "msg":"成功",
+    "code":200,
+    "data":[
+        {
+            "month":"月份",
+            "year":"年份",
+            "NH3-N":"0.06",
+            "name":"断面名称",
+            "COD":"6",
+            "TP":"0.04",
+            "type":"Ⅱ"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "month":"月份",
+    "year":"年份",
+    "NH3-N":"0.06",
+    "name":"断面名称",
+    "COD":"6",
+    "TP":"0.04",
+    "type":"Ⅱ"
+}</t>
+  </si>
+  <si>
+    <t>全部地表水考核断面水质检测数据</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhsw/dmdetail</t>
+  </si>
+  <si>
+    <t>page:1(必传)
+size:10(必传)</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "size": 10,
+        "count": 24,
+        "page": 3,
+        "rows": [
+            {
+                "Cd": "0.0001L",
+                "PV": "1",
+                "FL": "0.32",
+                "get_time": "2019-04-08",
+                "DO": "9.14",
+                "Cr": "0.004L",
+                "Pb": "0.002L",
+                "Cu": "0.006L",
+                "As": "0.0004",
+                "oil": "0.01L",
+                "water_temp": "11.6",
+                "conductivity": "60.6",
+                "Zn": "0.004L",
+                "BOD": "0.6",
+                "COD": "4",
+                "AACG": "0.05L",
+                "flow": "0.04",
+                "Hg": "0.00004L",
+                "FCB": "1100",
+                "CN": "0.004L",
+                "sulphide": "0.005L",
+                "Se": "0.0004L",
+                "name": "赵庄",
+                "ph": "8.07",
+                "phenol": "0.0003L",
+                "TN": "1.59",
+                "NH4": "0.06",
+                "TP": "0.03"
+            }
+        ]
+    }
+}</t>
+  </si>
+  <si>
+    <t>AACG:'阴离子表面活性剂mg/L阴离子表面活性剂mg/L'
+As:'砷mg/L'
+BOD:'生化需氧量mg/L'
+CN:'氰化物mg/L'
+COD:'化学需氧量mg/L'
+Cd:'镉mg/L'
+Cr:'六价铬mg/L'
+Cu:'铜mg/L'
+DO:'溶解氧mg/L'
+FCB:'粪大肠菌群个/L'
+FL:'氟化物mg/L'
+Hg:'汞mg/L'
+NH4:'氨氮mg/L'
+PV:'高锰酸盐指数mg/L'
+Pb:'铅mg/L'
+Se:'硒mg/L'
+TN:'总氮mg/L'
+TP:'总磷mg/L'
+Zn:'锌mg/L'
+conductivity:'电导率ms/m'
+flow:'流量M3/S'
+get_time:'采样时间'
+name:'断面名称'
+oil:'石油类mg/L'
+ph:'pH'
+phenol:'挥发酚mg/L'
+sulphide:'硫化物mg/L'
+water_temp:'水温℃'</t>
+  </si>
+  <si>
     <t>获取视频</t>
   </si>
   <si>
@@ -5148,7 +6546,96 @@
 WD :'维度'</t>
   </si>
   <si>
+    <t>视频分类</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/common/spType</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "name": "道路监控",
+            "child": [
+                {
+                    "EJFL": "清闲路"
+                },
+                {
+                    "EJFL": "旧变压器厂"
+                }
+            ]
+        },
+        {
+            "name": "景区监控",
+            "child": [
+                {
+                    "EJFL": "炎帝陵"
+                },
+                {
+                    "EJFL": "炎帝公园"
+                }
+            ]
+        },
+        {
+            "name": "学校监控",
+            "child": [
+                {
+                    "EJFL": "高平中专"
+                },
+                {
+                    "EJFL": "丹河幼儿园"
+                }
+            ]
+        },
+        {
+            "name": "医院监控",
+            "child": [
+                {
+                    "EJFL": "高平中医院"
+                },
+                {
+                    "EJFL": "众和医院"
+                },
+                {
+                    "EJFL": "高平人民医院"
+                }
+            ]
+        },
+        {
+            "name": "扬尘监控",
+            "child": [
+                {
+                    "EJFL": "尚东美地"
+                },
+                {
+                    "EJFL": "金华苑二期"
+                },
+                {
+                    "EJFL": "幸福花园"
+                },
+                {
+                    "EJFL": "高平诚建"
+                }
+            ]
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "name": "一级分类",
+            "child": [
+                {
+                    "EJFL": "二级分类"
+                }           
+             ]</t>
+  </si>
+  <si>
     <t>总概览</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/sjzc/count</t>
   </si>
   <si>
     <t>{
@@ -5158,10 +6645,46 @@
 }</t>
   </si>
   <si>
+    <t>"exchange" :'今日交换量/GB'
+"into_organization" :'已入库组织/个'
+"resource_num" :'资源数/个'
+"total_count" :'总数据量/万条'
+"total_store" :'总存储量/GB',
+"spCount": 视频总数</t>
+  </si>
+  <si>
     <t>接入排名</t>
   </si>
   <si>
+    <t>http://localhost:9090/sjzc/jrpm</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {       
+        "rzl": [],
+        "jrzl": []
+    }
+}</t>
+  </si>
+  <si>
+    <t>"rzl"：日增量
+      name：'单位名称'
+      total：'数据量/万条'
+"jrzl":接入总量
+      name：'单位名称'
+      total：'数据量/万条'
+"qb":全部
+      name：'单位名称'
+      jrzl：'介入总量'
+       rzl ：自增量</t>
+  </si>
+  <si>
     <t>接入排查</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/sjzc/jrpc</t>
   </si>
   <si>
     <t>{
@@ -5175,1353 +6698,26 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">
+"kbsl": 库表数量
+    "insert_num": '接入数'
+    "last_report_time": '最近上报时间'
+     "name": '单位名称'
+     "update_num": '更新数'
+"spsl": 视频数量
+      "SBPT": "公安局",
+      "NUM": 668
+"qb":全部
+      "insert_num": '接入数'
+    "last_report_time": '最近上报时间'
+     "name": '单位名称'
+     "NUM": 视频数量</t>
+  </si>
+  <si>
     <t>交换共享</t>
   </si>
   <si>
-    <t>数据质量</t>
-  </si>
-  <si>
-    <t>销量排名</t>
-  </si>
-  <si>
-    <t>培训技能工种人员信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": {
-        "total": 4914,
-        "typeInfo": [
-            {
-                "NUM": 14,
-                "PXYY_PXJNGZ": "快件处理员"
-            },
-            {
-                "NUM": 28,
-                "PXYY_PXJNGZ": "农业技术员"
-            },
-            {
-                "NUM": 59,
-                "PXYY_PXJNGZ": "西式面点师"
-            },
-            {
-                "NUM": 34,
-                "PXYY_PXJNGZ": "商品营业员"
-            },
-            {
-                "NUM": 5,
-                "PXYY_PXJNGZ": "旅游团队领队"
-            },
-            {
-                "NUM": 133,
-                "PXYY_PXJNGZ": "井下采矿工"
-            },
-            {
-                "NUM": 18,
-                "PXYY_PXJNGZ": "广告设计师"
-            },
-            {
-                "NUM": 79,
-                "PXYY_PXJNGZ": "计算机程序设计员"
-            },
-            {
-                "NUM": 358,
-                "PXYY_PXJNGZ": "化妆师"
-            },
-            {
-                "NUM": 16,
-                "PXYY_PXJNGZ": "农艺工"
-            },
-            {
-                "NUM": 130,
-                "PXYY_PXJNGZ": "公关员"
-            },
-            {
-                "NUM": 99,
-                "PXYY_PXJNGZ": "电子商务师"
-            },
-            {
-                "NUM": 102,
-                "PXYY_PXJNGZ": "消防安全管理员"
-            },
-            {
-                "NUM": 77,
-                "PXYY_PXJNGZ": "中式面点师"
-            },
-            {
-                "NUM": 31,
-                "PXYY_PXJNGZ": "家政服务员"
-            },
-            {
-                "NUM": 31,
-                "PXYY_PXJNGZ": "医药商品购销员"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "无人机装调工"
-            },
-            {
-                "NUM": 23,
-                "PXYY_PXJNGZ": "快递员"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "公共游览场所服务员"
-            },
-            {
-                "NUM": 20,
-                "PXYY_PXJNGZ": "人工智能训练师"
-            },
-            {
-                "NUM": 68,
-                "PXYY_PXJNGZ": "焊工"
-            },
-            {
-                "NUM": 175,
-                "PXYY_PXJNGZ": "中式烹调师"
-            },
-            {
-                "NUM": 5,
-                "PXYY_PXJNGZ": "旅店服务员"
-            },
-            {
-                "NUM": 37,
-                "PXYY_PXJNGZ": "连锁经营管理师"
-            },
-            {
-                "NUM": 120,
-                "PXYY_PXJNGZ": "健康管理师"
-            },
-            {
-                "NUM": 157,
-                "PXYY_PXJNGZ": "打字员"
-            },
-            {
-                "NUM": 30,
-                "PXYY_PXJNGZ": "装饰美工"
-            },
-            {
-                "NUM": 6,
-                "PXYY_PXJNGZ": "家禽饲养员"
-            },
-            {
-                "NUM": 24,
-                "PXYY_PXJNGZ": "美发师"
-            },
-            {
-                "NUM": 5,
-                "PXYY_PXJNGZ": "办公设备维修工"
-            },
-            {
-                "NUM": 29,
-                "PXYY_PXJNGZ": "汽车维修工"
-            },
-            {
-                "NUM": 51,
-                "PXYY_PXJNGZ": "采购师（员）"
-            },
-            {
-                "NUM": 112,
-                "PXYY_PXJNGZ": "保卫管理员"
-            },
-            {
-                "NUM": 5,
-                "PXYY_PXJNGZ": "装潢美术设计师"
-            },
-            {
-                "NUM": 47,
-                "PXYY_PXJNGZ": "室内装饰设计师"
-            },
-            {
-                "NUM": 29,
-                "PXYY_PXJNGZ": "公共营养师"
-            },
-            {
-                "NUM": 92,
-                "PXYY_PXJNGZ": "电工"
-            },
-            {
-                "NUM": 56,
-                "PXYY_PXJNGZ": "收银员"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "工艺染织品制作工"
-            },
-            {
-                "NUM": 122,
-                "PXYY_PXJNGZ": "制图员"
-            },
-            {
-                "NUM": 18,
-                "PXYY_PXJNGZ": "质检员"
-            },
-            {
-                "NUM": 29,
-                "PXYY_PXJNGZ": "美容师"
-            },
-            {
-                "NUM": 21,
-                "PXYY_PXJNGZ": "消防装备管理员"
-            },
-            {
-                "NUM": 30,
-                "PXYY_PXJNGZ": "物业管理员"
-            },
-            {
-                "NUM": 32,
-                "PXYY_PXJNGZ": "保安员"
-            },
-            {
-                "NUM": 4,
-                "PXYY_PXJNGZ": "裁剪工"
-            },
-            {
-                "NUM": 7,
-                "PXYY_PXJNGZ": "裁缝"
-            },
-            {
-                "NUM": 29,
-                "PXYY_PXJNGZ": "消防指挥员"
-            },
-            {
-                "NUM": 20,
-                "PXYY_PXJNGZ": "森林消防员L"
-            },
-            {
-                "NUM": 23,
-                "PXYY_PXJNGZ": "保健按摩师"
-            },
-            {
-                "NUM": 25,
-                "PXYY_PXJNGZ": "保洁员L"
-            },
-            {
-                "NUM": 5,
-                "PXYY_PXJNGZ": "录音师"
-            },
-            {
-                "NUM": 139,
-                "PXYY_PXJNGZ": "营销员"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "家畜繁殖员"
-            },
-            {
-                "NUM": 22,
-                "PXYY_PXJNGZ": "信息通信信息化系统管理员"
-            },
-            {
-                "NUM": 91,
-                "PXYY_PXJNGZ": "秘书"
-            },
-            {
-                "NUM": 19,
-                "PXYY_PXJNGZ": "轨道列车司机L"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "电线电缆制造工"
-            },
-            {
-                "NUM": 94,
-                "PXYY_PXJNGZ": "营养配餐员"
-            },
-            {
-                "NUM": 120,
-                "PXYY_PXJNGZ": "消防员"
-            },
-            {
-                "NUM": 43,
-                "PXYY_PXJNGZ": "插花花艺师"
-            },
-            {
-                "NUM": 7,
-                "PXYY_PXJNGZ": "装饰装修工"
-            },
-            {
-                "NUM": 13,
-                "PXYY_PXJNGZ": "保育员"
-            },
-            {
-                "NUM": 29,
-                "PXYY_PXJNGZ": "育婴员"
-            },
-            {
-                "NUM": 40,
-                "PXYY_PXJNGZ": "道路客运汽车驾驶员L"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "智能楼宇管理员"
-            },
-            {
-                "NUM": 32,
-                "PXYY_PXJNGZ": "礼仪主持人"
-            },
-            {
-                "NUM": 11,
-                "PXYY_PXJNGZ": "咖啡师"
-            },
-            {
-                "NUM": 54,
-                "PXYY_PXJNGZ": "仓储管理员"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "化妆师\n"
-            },
-            {
-                "NUM": 9,
-                "PXYY_PXJNGZ": "美甲师"
-            },
-            {
-                "NUM": 69,
-                "PXYY_PXJNGZ": "道路货运汽车驾驶员L"
-            },
-            {
-                "NUM": 13,
-                "PXYY_PXJNGZ": "无线电监测与设备运维员"
-            },
-            {
-                "NUM": 49,
-                "PXYY_PXJNGZ": "安全员"
-            },
-            {
-                "NUM": 16,
-                "PXYY_PXJNGZ": "计算机（微机）维修工"
-            },
-            {
-                "NUM": 8,
-                "PXYY_PXJNGZ": "家用电子产品维修工"
-            },
-            {
-                "NUM": 7,
-                "PXYY_PXJNGZ": "养老护理员"
-            },
-            {
-                "NUM": 19,
-                "PXYY_PXJNGZ": "创业指导师"
-            },
-            {
-                "NUM": 39,
-                "PXYY_PXJNGZ": "糕点面包烘焙工"
-            },
-            {
-                "NUM": 14,
-                "PXYY_PXJNGZ": "休闲农业服务员"
-            },
-            {
-                "NUM": 14,
-                "PXYY_PXJNGZ": "物流服务师L"
-            },
-            {
-                "NUM": 30,
-                "PXYY_PXJNGZ": "井下支护工"
-            },
-            {
-                "NUM": 17,
-                "PXYY_PXJNGZ": "家用电器产品维修工"
-            },
-            {
-                "NUM": 77,
-                "PXYY_PXJNGZ": "应急救援员"
-            },
-            {
-                "NUM": 11,
-                "PXYY_PXJNGZ": "信用管理师"
-            },
-            {
-                "NUM": 20,
-                "PXYY_PXJNGZ": "家畜饲养员"
-            },
-            {
-                "NUM": 18,
-                "PXYY_PXJNGZ": "婴幼儿发展引导员"
-            },
-            {
-                "NUM": 8,
-                "PXYY_PXJNGZ": "园艺工"
-            },
-            {
-                "NUM": 20,
-                "PXYY_PXJNGZ": "挖掘铲运和桩工机械司机"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "管道工"
-            },
-            {
-                "NUM": 13,
-                "PXYY_PXJNGZ": "形象设计师"
-            },
-            {
-                "NUM": 4,
-                "PXYY_PXJNGZ": "农机驾驶操作员"
-            },
-            {
-                "NUM": 8,
-                "PXYY_PXJNGZ": "民间工艺品艺人"
-            },
-            {
-                "NUM": 12,
-                "PXYY_PXJNGZ": "机动车检测工"
-            },
-            {
-                "NUM": 24,
-                "PXYY_PXJNGZ": "矿山安全防护工"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "混凝土工"
-            },
-            {
-                "NUM": 16,
-                "PXYY_PXJNGZ": "道路客运服务员"
-            },
-            {
-                "NUM": 55,
-                "PXYY_PXJNGZ": "安检员"
-            },
-            {
-                "NUM": 39,
-                "PXYY_PXJNGZ": "网络与信息安全管理员"
-            },
-            {
-                "NUM": 13,
-                "PXYY_PXJNGZ": "房地产策划师"
-            },
-            {
-                "NUM": 11,
-                "PXYY_PXJNGZ": "园林绿化工L"
-            },
-            {
-                "NUM": 9,
-                "PXYY_PXJNGZ": "高低压电器装配工"
-            },
-            {
-                "NUM": 38,
-                "PXYY_PXJNGZ": "消防监督检查员"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "芳香保健师"
-            },
-            {
-                "NUM": 10,
-                "PXYY_PXJNGZ": "婚姻家庭咨询师"
-            },
-            {
-                "NUM": 26,
-                "PXYY_PXJNGZ": "餐厅服务员"
-            },
-            {
-                "NUM": 33,
-                "PXYY_PXJNGZ": "速录师"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "中央空调系统操作员"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "糖果工艺师"
-            },
-            {
-                "NUM": 36,
-                "PXYY_PXJNGZ": "茶艺师"
-            },
-            {
-                "NUM": 23,
-                "PXYY_PXJNGZ": "信息通信网络运行管理员"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "冷藏工"
-            },
-            {
-                "NUM": 14,
-                "PXYY_PXJNGZ": "计算机软件测试员"
-            },
-            {
-                "NUM": 5,
-                "PXYY_PXJNGZ": "眼镜验光员"
-            },
-            {
-                "NUM": 5,
-                "PXYY_PXJNGZ": "动物疫病防治员"
-            },
-            {
-                "NUM": 17,
-                "PXYY_PXJNGZ": "客房服务员"
-            },
-            {
-                "NUM": 12,
-                "PXYY_PXJNGZ": "全媒体运营师"
-            },
-            {
-                "NUM": 5,
-                "PXYY_PXJNGZ": "社会体育指导员"
-            },
-            {
-                "NUM": 4,
-                "PXYY_PXJNGZ": "商品监督员"
-            },
-            {
-                "NUM": 19,
-                "PXYY_PXJNGZ": "保健调理师"
-            },
-            {
-                "NUM": 12,
-                "PXYY_PXJNGZ": "医疗临床辅助服务员"
-            },
-            {
-                "NUM": 22,
-                "PXYY_PXJNGZ": "井下机车运输工"
-            },
-            {
-                "NUM": 6,
-                "PXYY_PXJNGZ": "家具设计师"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "酱腌菜制作工（果蔬坚果加工工）"
-            },
-            {
-                "NUM": 4,
-                "PXYY_PXJNGZ": "康复辅助技术咨询师"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "音响调音员"
-            },
-            {
-                "NUM": 6,
-                "PXYY_PXJNGZ": "车工"
-            },
-            {
-                "NUM": 14,
-                "PXYY_PXJNGZ": "花艺环境设计师"
-            },
-            {
-                "NUM": 43,
-                "PXYY_PXJNGZ": "矿井通风工"
-            },
-            {
-                "NUM": 4,
-                "PXYY_PXJNGZ": "网约配送员"
-            },
-            {
-                "NUM": 29,
-                "PXYY_PXJNGZ": "矿山安全设备监测检修工"
-            },
-            {
-                "NUM": 28,
-                "PXYY_PXJNGZ": "矿井开掘工"
-            },
-            {
-                "NUM": 5,
-                "PXYY_PXJNGZ": "食用菌生产工"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "农机修理工"
-            },
-            {
-                "NUM": 12,
-                "PXYY_PXJNGZ": "电气电子产品环保检测员"
-            },
-            {
-                "NUM": 8,
-                "PXYY_PXJNGZ": "机修钳工"
-            },
-            {
-                "NUM": 13,
-                "PXYY_PXJNGZ": "无人机测绘操控员L"
-            },
-            {
-                "NUM": 7,
-                "PXYY_PXJNGZ": "多工序数控机床操作调整工"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "水泥生产工"
-            },
-            {
-                "NUM": 5,
-                "PXYY_PXJNGZ": "供应链管理师"
-            },
-            {
-                "NUM": 20,
-                "PXYY_PXJNGZ": "调酒师"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "森林抚育工L"
-            },
-            {
-                "NUM": 11,
-                "PXYY_PXJNGZ": "职业指导员"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "发电集控值班员"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "装配钳工"
-            },
-            {
-                "NUM": 6,
-                "PXYY_PXJNGZ": "手工木工"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "计算机及外部设备装配调试员"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "肉制品加工工"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "园艺产品加工工"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "经济昆虫养殖员"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "模具工"
-            },
-            {
-                "NUM": 6,
-                "PXYY_PXJNGZ": "护林员L"
-            },
-            {
-                "NUM": 6,
-                "PXYY_PXJNGZ": "抽纱刺绣工"
-            },
-            {
-                "NUM": 20,
-                "PXYY_PXJNGZ": "导游"
-            },
-            {
-                "NUM": 17,
-                "PXYY_PXJNGZ": "商业摄影师"
-            },
-            {
-                "NUM": 10,
-                "PXYY_PXJNGZ": "信息通信网络线务员"
-            },
-            {
-                "NUM": 11,
-                "PXYY_PXJNGZ": "前厅服务员"
-            },
-            {
-                "NUM": 7,
-                "PXYY_PXJNGZ": "变配电运行值班员"
-            },
-            {
-                "NUM": 4,
-                "PXYY_PXJNGZ": "锅炉运行值班员"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "工艺品雕刻工"
-            },
-            {
-                "NUM": 14,
-                "PXYY_PXJNGZ": "矿山提升设备操作工"
-            },
-            {
-                "NUM": 7,
-                "PXYY_PXJNGZ": "电气设备安装工"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "皮革及皮革制品加工工"
-            },
-            {
-                "NUM": 11,
-                "PXYY_PXJNGZ": "化学检验员"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "炼焦煤制备工"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "砌筑工"
-            },
-            {
-                "NUM": 6,
-                "PXYY_PXJNGZ": "摩托车修理工"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "动物检疫检验员"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "煤层气排采集输工"
-            },
-            {
-                "NUM": 7,
-                "PXYY_PXJNGZ": "工艺美术品设计师"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "金属轧制工"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "农作物植保员L"
-            },
-            {
-                "NUM": 6,
-                "PXYY_PXJNGZ": "铸造工"
-            },
-            {
-                "NUM": 5,
-                "PXYY_PXJNGZ": "豆制品制作工"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "管工"
-            },
-            {
-                "NUM": 5,
-                "PXYY_PXJNGZ": "爆破工"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "白酒酿造工"
-            },
-            {
-                "NUM": 4,
-                "PXYY_PXJNGZ": "宠物健康护理员"
-            },
-            {
-                "NUM": 7,
-                "PXYY_PXJNGZ": "西式烹调师"
-            },
-            {
-                "NUM": 11,
-                "PXYY_PXJNGZ": "市场管理员"
-            },
-            {
-                "NUM": 7,
-                "PXYY_PXJNGZ": "动画制作员"
-            },
-            {
-                "NUM": 9,
-                "PXYY_PXJNGZ": "缝纫工"
-            },
-            {
-                "NUM": 6,
-                "PXYY_PXJNGZ": "起重装卸机械操作工"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "金属材热处理工"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "家具制作工"
-            },
-            {
-                "NUM": 4,
-                "PXYY_PXJNGZ": "糕点装饰师"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "会展策划师(设计师)"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "信息通信网络终端维修员"
-            },
-            {
-                "NUM": 5,
-                "PXYY_PXJNGZ": "中药调剂员"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "中药炮制工"
-            },
-            {
-                "NUM": 5,
-                "PXYY_PXJNGZ": "生化检验员"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "旅行社计调"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "高炉原料工"
-            },
-            {
-                "NUM": 4,
-                "PXYY_PXJNGZ": "工程机械维修工"
-            },
-            {
-                "NUM": 5,
-                "PXYY_PXJNGZ": "旅游咨询员"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "民间工艺品制作工"
-            },
-            {
-                "NUM": 4,
-                "PXYY_PXJNGZ": "电力电气设备安装工"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "种子繁育员"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "照相器材维修工"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "制冷设备维修工"
-            },
-            {
-                "NUM": 6,
-                "PXYY_PXJNGZ": "健康照护师"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "呼叫中心服务员"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "电机制造工"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "工业废水处理工L"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "中药材种植员"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "焊接设备装配调试工"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "锅炉操作工"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "高铁线路综合维修工"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "物理性能检验员"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "机床装调维修工"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "客户服务管理师"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "贵金属首饰手工制作工"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "壁画制作工"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "种苗繁育员"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "冲印师"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "光伏发电运维值班员L"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "造林更新工L"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "涂装工"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "印前制作员"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "绒线编织拼布工"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "仪器仪表维修工"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "机械设备安装工"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "酱油酱类制作工"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "制冷工"
-            },
-            {
-                "NUM": 3,
-                "PXYY_PXJNGZ": "装配式建筑施工员"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "钢筋工"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "纺织染色工"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "包装设计师"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "有害生物防制员L"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "家禽繁殖员"
-            },
-            {
-                "NUM": 2,
-                "PXYY_PXJNGZ": "无损检测员"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "眼镜定配工"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "出生缺陷防控咨询师"
-            },
-            {
-                "NUM": 1,
-                "PXYY_PXJNGZ": "电子专用设备装调工"
-            }
-        ],
-        "jyType": [
-            {
-                "NUM": 1111,
-                "NAME": "lh"
-            },
-            {
-                "NUM": 40,
-                "NAME": "xyt"
-            },
-            {
-                "NUM": 266,
-                "NAME": "zz"
-            },
-            {
-                "NUM": 1877,
-                "NAME": "wd"
-            }
-        ],
-        "type": 234
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:9090/pxqz/ryInfoNew</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:9090/pxqz/gzCount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>求职人员信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>total：总人数
-typeinfo：工种类型详情
-jyType：就业类型
-type：类型种数
-xyt：新业态
-wd：稳定就业
-lh：灵活就业
-zz：自主创业</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": {
-        "total": 3794,
-        "typeInfo": [
-            {
-                "NUM": 614,
-                "QJYY_QZHY": "农林牧渔业"
-            },
-            {
-                "NUM": 403,
-                "QJYY_QZHY": "采矿业"
-            },
-            {
-                "NUM": 313,
-                "QJYY_QZHY": "居民服务和其他服务业"
-            },
-            {
-                "NUM": 308,
-                "QJYY_QZHY": "信息传输、计算机服务和软件业"
-            },
-            {
-                "NUM": 258,
-                "QJYY_QZHY": "住宿和餐饮业"
-            },
-            {
-                "NUM": 246,
-                "QJYY_QZHY": "文化、体育和娱乐业"
-            },
-            {
-                "NUM": 229,
-                "QJYY_QZHY": "卫生、社会保障和社会福利业"
-            },
-            {
-                "NUM": 224,
-                "QJYY_QZHY": "批发和零售业"
-            },
-            {
-                "NUM": 194,
-                "QJYY_QZHY": "制造业"
-            },
-            {
-                "NUM": 171,
-                "QJYY_QZHY": "公共管理和社会组织"
-            },
-            {
-                "NUM": 165,
-                "QJYY_QZHY": "交通运输、仓储和邮政业"
-            },
-            {
-                "NUM": 156,
-                "QJYY_QZHY": "金融业"
-            },
-            {
-                "NUM": 139,
-                "QJYY_QZHY": "电力、燃气及水的生产和供应业"
-            },
-            {
-                "NUM": 115,
-                "QJYY_QZHY": "建筑业"
-            },
-            {
-                "NUM": 88,
-                "QJYY_QZHY": "教育,水利、环境和公共设施管理业"
-            },
-            {
-                "NUM": 46,
-                "QJYY_QZHY": "房地产业"
-            },
-            {
-                "NUM": 29,
-                "QJYY_QZHY": "科学研究、技术服务和地质勘查业"
-            },
-            {
-                "NUM": 18,
-                "QJYY_QZHY": "租赁和商务服务业"
-            },
-            {
-                "NUM": 12,
-                "QJYY_QZHY": "国际组织"
-            }
-        ],
-        "jyType": [
-            {
-                "NUM": 930,
-                "NAME": "lh"
-            },
-            {
-                "NUM": 29,
-                "NAME": "xyt"
-            },
-            {
-                "NUM": 170,
-                "NAME": "zz"
-            },
-            {
-                "NUM": 812,
-                "NAME": "wd"
-            }
-        ],
-        "type": 19
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:9090/pxqz/qzryInfo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>对外意向国家</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "NUM": 253,
-            "YYGJ": "中国"
-        },
-        {
-            "NUM": 15,
-            "YYGJ": "日本"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"NUM": 数量
-"YYGJ": 国家</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:9090/pxqz/dyyx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "NUM": 173957,
-            "XB": "女"
-        },
-        {
-            "NUM": 175246,
-            "XB": "男"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:9090/pxqz/sexInfo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>培训/求职性别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"NUM": 数量
-"XB": 性别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求参数：
-type：px(培训)/qz(求职)
-不传为全部人员性别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中小学籍贯分布</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "NUM": 22964,
-            "NAME": "山西省"
-        },
-        {
-            "NUM": 241,
-            "NAME": "河南省"
-        },
-        {
-            "NUM": 84,
-            "NAME": "河北省"
-        },
-        {
-            "NUM": 42,
-            "NAME": "安徽省"
-        },
-        {
-            "NUM": 24,
-            "NAME": "陕西省"
-        },
-        {
-            "NUM": 24,
-            "NAME": "江苏省"
-        },
-        {
-            "NUM": 24,
-            "NAME": "福建省"
-        },
-        {
-            "NUM": 17,
-            "NAME": "浙江省"
-        },
-        {
-            "NUM": 16,
-            "NAME": "湖北省"
-        },
-        {
-            "NUM": 13,
-            "NAME": "山东省"
-        },
-        {
-            "NUM": 11,
-            "NAME": "湖南省"
-        },
-        {
-            "NUM": 9,
-            "NAME": "江西省"
-        },
-        {
-            "NUM": 8,
-            "NAME": "吉林省"
-        },
-        {
-            "NUM": 8,
-            "NAME": "四川省"
-        },
-        {
-            "NUM": 6,
-            "NAME": "重庆市"
-        },
-        {
-            "NUM": 4,
-            "NAME": "贵州省"
-        },
-        {
-            "NUM": 3,
-            "NAME": "辽宁省"
-        },
-        {
-            "NUM": 2,
-            "NAME": "黑龙江省"
-        },
-        {
-            "NUM": 2,
-            "NAME": "内蒙古自治区"
-        },
-        {
-            "NUM": 2,
-            "NAME": "广东省"
-        },
-        {
-            "NUM": 2,
-            "NAME": "云南省"
-        },
-        {
-            "NUM": 2,
-            "NAME": "青海省"
-        },
-        {
-            "NUM": 1,
-            "NAME": "海南省"
-        },
-        {
-            "NUM": 1,
-            "NAME": "天津市"
-        },
-        {
-            "NUM": 1,
-            "NAME": "甘肃省"
-        },
-        {
-            "NUM": 1,
-            "NAME": "北京市"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>num:数量
-name：省份</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:9090/edu/hjtj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"DWMC"  队伍名称
-"DWRS"  队伍人数
-"FZEXM"  负责人姓名
-"FZRDH"  负责人电话
-"GSDW"  归属单位
-"ZSDD"  驻守地点
-"ZBMC"  装备名称
-ZSDDJD:经度
-ZSDDWD：纬度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>eidt:05-13</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:9090/sjzc/count</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": {       
-        "rzl": [],
-        "jrzl": []
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:9090/sjzc/jrpc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:9090/sjzc/jrpm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>http://localhost:9090/sjzc/jhgx</t>
   </si>
   <si>
     <t>"data_num":'进入入库量'
@@ -6548,12 +6744,32 @@
 "total_theme":'主题库总数/万条'
 "total_theme_store":'主题库总存储量/GB'
 "wash_data":'总清洗量/万条'</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据质量</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/sjzc/sjzl</t>
   </si>
   <si>
     <t>"problem_data":'疑问量/万条'
 "total_data_data":'上报量/万条'</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>销量排名</t>
+  </si>
+  <si>
+    <t>http://localhost:9090/sjzc/xlpm</t>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {        
+        "wts": [],
+        "lx": []
+    }
+}</t>
   </si>
   <si>
     <t>"lx": 离线
@@ -6564,174 +6780,19 @@
 "wts": []
     Query_data_volume：疑问数据量
 Volume_unquestioned ：无疑问数据量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:9090/sjzc/xlpm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": {        
-        "wts": [],
-        "lx": []
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:9090/sjzc/sjzl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:9090/sjzc/jhgx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"rzl"：日增量
-      name：'单位名称'
-      total：'数据量/万条'
-"jrzl":接入总量
-      name：'单位名称'
-      total：'数据量/万条'
-"qb":全部
-      name：'单位名称'
-      jrzl：'介入总量'
-       rzl ：自增量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-"kbsl": 库表数量
-    "insert_num": '接入数'
-    "last_report_time": '最近上报时间'
-     "name": '单位名称'
-     "update_num": '更新数'
-"spsl": 视频数量
-      "SBPT": "公安局",
-      "NUM": 668
-"qb":全部
-      "insert_num": '接入数'
-    "last_report_time": '最近上报时间'
-     "name": '单位名称'
-     "NUM": 视频数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"exchange" :'今日交换量/GB'
-"into_organization" :'已入库组织/个'
-"resource_num" :'资源数/个'
-"total_count" :'总数据量/万条'
-"total_store" :'总存储量/GB',
-"spCount": 视频总数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频分类</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:9090/common/spType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "name": "道路监控",
-            "child": [
-                {
-                    "EJFL": "清闲路"
-                },
-                {
-                    "EJFL": "旧变压器厂"
-                }
-            ]
-        },
-        {
-            "name": "景区监控",
-            "child": [
-                {
-                    "EJFL": "炎帝陵"
-                },
-                {
-                    "EJFL": "炎帝公园"
-                }
-            ]
-        },
-        {
-            "name": "学校监控",
-            "child": [
-                {
-                    "EJFL": "高平中专"
-                },
-                {
-                    "EJFL": "丹河幼儿园"
-                }
-            ]
-        },
-        {
-            "name": "医院监控",
-            "child": [
-                {
-                    "EJFL": "高平中医院"
-                },
-                {
-                    "EJFL": "众和医院"
-                },
-                {
-                    "EJFL": "高平人民医院"
-                }
-            ]
-        },
-        {
-            "name": "扬尘监控",
-            "child": [
-                {
-                    "EJFL": "尚东美地"
-                },
-                {
-                    "EJFL": "金华苑二期"
-                },
-                {
-                    "EJFL": "幸福花园"
-                },
-                {
-                    "EJFL": "高平诚建"
-                }
-            ]
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            "name": "一级分类",
-            "child": [
-                {
-                    "EJFL": "二级分类"
-                }           
-             ]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:9090/zhsw/dmjc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>地表水考核断面水质统计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6744,7 +6805,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6753,7 +6813,6 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6761,14 +6820,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6776,12 +6827,140 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6806,8 +6985,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -6830,27 +7195,275 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6867,19 +7480,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6891,7 +7501,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -6900,70 +7510,77 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -7250,36 +7867,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="39.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="1" max="1" width="32.8796296296296" style="16" customWidth="1"/>
+    <col min="2" max="2" width="39.1296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5" style="25" customWidth="1"/>
+    <col min="4" max="4" width="32.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+    <row r="1" ht="14.4" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7292,11 +7909,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+    <row r="3" ht="345.6" spans="1:5">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -7309,8 +7926,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
+    <row r="4" ht="409.5" spans="1:4">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -7323,8 +7940,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="216" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
+    <row r="5" ht="230.4" spans="1:4">
+      <c r="A5" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7337,8 +7954,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
+    <row r="6" ht="409.5" spans="1:5">
+      <c r="A6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -7350,10 +7967,10 @@
       <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" ht="409.5" spans="1:4">
+      <c r="A7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -7366,8 +7983,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
+    <row r="8" ht="409.5" spans="1:4">
+      <c r="A8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -7376,12 +7993,12 @@
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="189" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
+    <row r="9" ht="201.6" spans="1:5">
+      <c r="A9" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -7397,8 +8014,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
+    <row r="10" ht="201.6" spans="1:5">
+      <c r="A10" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -7414,8 +8031,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
+    <row r="11" ht="409.5" spans="1:4">
+      <c r="A11" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -7428,8 +8045,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="351" x14ac:dyDescent="0.15">
-      <c r="A12" s="14" t="s">
+    <row r="12" ht="374.4" spans="1:4">
+      <c r="A12" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -7442,8 +8059,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="324" x14ac:dyDescent="0.15">
-      <c r="A13" s="14" t="s">
+    <row r="13" ht="345.6" spans="1:4">
+      <c r="A13" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -7456,8 +8073,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="405" x14ac:dyDescent="0.15">
-      <c r="A14" s="14" t="s">
+    <row r="14" ht="409.5" spans="1:4">
+      <c r="A14" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -7470,8 +8087,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="405" x14ac:dyDescent="0.15">
-      <c r="A15" s="14" t="s">
+    <row r="15" ht="409.5" spans="1:4">
+      <c r="A15" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -7484,8 +8101,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="14" t="s">
+    <row r="16" ht="409.5" spans="1:4">
+      <c r="A16" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -7494,7 +8111,7 @@
       <c r="C16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7502,321 +8119,318 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/zhdj/djfc" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B8" r:id="rId3" tooltip="http://localhost:9090/zhdj/dyjbqk" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B10" r:id="rId4" tooltip="http://localhost:9090/zhdj/ddmf" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B15" r:id="rId9" tooltip="http://localhost:9090/zhdj/shyk" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B16" r:id="rId10" tooltip="http://localhost:9090/zhdj/zyzhd" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A1" r:id="rId11" tooltip="http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B6" r:id="rId12" tooltip="http://localhost:9090/zhdj/dyhy" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B4" r:id="rId14" tooltip="http://localhost:9090/zhdj/dyxl" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/zhdj/djfc" tooltip="http://localhost:9090/zhdj/djfc"/>
+    <hyperlink ref="B7" r:id="rId2" display="http://localhost:9090/zhdj/dljg"/>
+    <hyperlink ref="B8" r:id="rId3" display="http://localhost:9090/zhdj/dyjbqk" tooltip="http://localhost:9090/zhdj/dyjbqk"/>
+    <hyperlink ref="B10" r:id="rId4" display="http://localhost:9090/zhdj/ddmf" tooltip="http://localhost:9090/zhdj/ddmf"/>
+    <hyperlink ref="B12" r:id="rId5" display="http://localhost:9090/zhdj/fzdyqk"/>
+    <hyperlink ref="B11" r:id="rId6" display="http://localhost:9090/zhdj/dynljg"/>
+    <hyperlink ref="B13" r:id="rId7" display="http://localhost:9090/zhdj/zzxfb"/>
+    <hyperlink ref="B14" r:id="rId8" display="http://localhost:9090/zhdj/rmgjc"/>
+    <hyperlink ref="B15" r:id="rId9" display="http://localhost:9090/zhdj/shyk" tooltip="http://localhost:9090/zhdj/shyk"/>
+    <hyperlink ref="B16" r:id="rId10" display="http://localhost:9090/zhdj/zyzhd" tooltip="http://localhost:9090/zhdj/zyzhd"/>
+    <hyperlink ref="A1" r:id="rId11" display="http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090" tooltip="http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090"/>
+    <hyperlink ref="B6" r:id="rId12" display="http://localhost:9090/zhdj/dyhy" tooltip="http://localhost:9090/zhdj/dyhy"/>
+    <hyperlink ref="B9" r:id="rId13" display="http://localhost:9090/zhdj/dyfc"/>
+    <hyperlink ref="B4" r:id="rId14" display="http://localhost:9090/zhdj/dyxl" tooltip="http://localhost:9090/zhdj/dyxl"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:E4"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.625" customWidth="1"/>
-    <col min="4" max="4" width="49.875" customWidth="1"/>
-    <col min="5" max="5" width="42.625" customWidth="1"/>
+    <col min="2" max="2" width="38.6296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="49.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="42.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" ht="409.5" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>406</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>407</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" ht="409.5" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/common/sp" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{2A7B7756-358D-CF43-B5C5-B7D79AAC130B}"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/common/sp" tooltip="http://localhost:9090/common/sp"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/common/spType"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="99" workbookViewId="0">
+    <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.875" customWidth="1"/>
-    <col min="5" max="5" width="36.625" customWidth="1"/>
+    <col min="2" max="2" width="35.6296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="36.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" ht="100.8" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>390</v>
+        <v>393</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E3" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" ht="144" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" ht="189.95" customHeight="1" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="189.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>392</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="408.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" ht="408.95" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>384</v>
+        <v>405</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" ht="120.95" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>399</v>
+        <v>408</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E7" s="28" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+      <c r="E7" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" ht="115.2" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>397</v>
+        <v>411</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>396</v>
+        <v>189</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0A00-000005000000}"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/sjzc/count"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/sjzc/jrpm"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/sjzc/jrpc"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/sjzc/jhgx"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/sjzc/sjzl"/>
+    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/sjzc/xlpm"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="38.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.8796296296296" style="25" customWidth="1"/>
+    <col min="4" max="4" width="38.1296296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="35"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="2" ht="17.4" spans="1:4">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="3" ht="144" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="189" x14ac:dyDescent="0.15">
+    <row r="4" ht="201.6" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="189" x14ac:dyDescent="0.15">
+    <row r="5" ht="201.6" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -7826,11 +8440,11 @@
       <c r="C5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="351" x14ac:dyDescent="0.15">
+    <row r="6" ht="374.4" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -7840,11 +8454,11 @@
       <c r="C6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="243" x14ac:dyDescent="0.15">
+    <row r="7" ht="259.2" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
@@ -7854,11 +8468,11 @@
       <c r="C7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="8" ht="409.5" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
@@ -7868,7 +8482,7 @@
       <c r="C8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -7876,1517 +8490,1551 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/rrcz/count" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" tooltip="http://localhost:9090/rrcz/residence" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" tooltip="http://localhost:9090/rrcz/profess" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/rrcz/count" tooltip="http://localhost:9090/rrcz/count"/>
+    <hyperlink ref="B5" r:id="rId2" display="http://localhost:9090/rrcz/residence" tooltip="http://localhost:9090/rrcz/residence"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://localhost:9090/rrcz/ra"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/rrcz/profess" tooltip="http://localhost:9090/rrcz/profess"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/rrcz/vocat"/>
+    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/rrcz/cz"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="118" workbookViewId="0">
+    <sheetView zoomScale="118" zoomScaleNormal="118" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="28.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.125" customWidth="1"/>
+    <col min="1" max="1" width="28.3796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.8796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.3796296296296" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27.8796296296296" style="7" customWidth="1"/>
+    <col min="5" max="5" width="42.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="2" ht="17.4" spans="1:4">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="337.5" x14ac:dyDescent="0.15">
+    <row r="3" ht="313.2" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="409.5" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+    <row r="5" ht="201.6" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C5" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+      <c r="D5" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" ht="201.6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+      <c r="D6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="17" t="s">
+    </row>
+    <row r="7" ht="409.5" spans="1:5">
+      <c r="A7" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="D7" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" ht="409.5" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
-        <v>370</v>
+      <c r="D8" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1"/>
+    <row r="11" ht="409.5" spans="1:4">
+      <c r="A11" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" ht="409.5" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="189" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
-        <v>374</v>
+        <v>113</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" ht="201.6" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="189" x14ac:dyDescent="0.15">
-      <c r="A14" s="23" t="s">
-        <v>380</v>
+        <v>116</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" ht="201.6" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>382</v>
+        <v>120</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" tooltip="http://localhost:9090/pxqz/ryInfo" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" tooltip="http://localhost:9090/pxqz/xbCount" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{9AC767F5-F252-0942-AA35-6D328277CD12}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{74E977C4-DEDD-2D41-87EA-5AE4AEDED13F}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{BA090258-9B03-F54F-BC0A-1CEA7BE4BE8C}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{77D836D2-C7CC-8741-A46B-0796D53E2403}"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/pxqz/count"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/pxqz/ryInfo" tooltip="http://localhost:9090/pxqz/ryInfo"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/pxqz/gzCount"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/pxqz/xbCount" tooltip="http://localhost:9090/pxqz/xbCount"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/pxqz/pxInfo"/>
+    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/pxqz/qzInfo"/>
+    <hyperlink ref="B11" r:id="rId7" display="http://localhost:9090/pxqz/ryInfoNew"/>
+    <hyperlink ref="B12" r:id="rId8" display="http://localhost:9090/pxqz/qzryInfo"/>
+    <hyperlink ref="B13" r:id="rId9" display="http://localhost:9090/pxqz/dyyx"/>
+    <hyperlink ref="B14" r:id="rId10" display="http://localhost:9090/pxqz/sexInfo"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="48.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="48.6296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="37.3796296296296" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="2" ht="17.4" spans="1:4">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="243" x14ac:dyDescent="0.15">
+    <row r="3" ht="259.2" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="297" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" ht="316.8" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="189" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" ht="201.6" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="189" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" ht="201.6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="297" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" ht="316.8" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="216" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" ht="230.4" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" ht="409.5" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="405" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" ht="409.5" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="243" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" ht="259.2" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="297" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" ht="316.8" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="189" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" ht="201.6" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="405" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" ht="409.5" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>143</v>
+        <v>164</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/jyrq/infoCount" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="B8" r:id="rId6" tooltip="http://localhost:9090/jyrq/edu" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="B9" r:id="rId7" tooltip="http://localhost:9090/jyrq/age" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/jyrq/infoCount" tooltip="http://localhost:9090/jyrq/infoCount"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/jyrq/typeInfo"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/jyrq/sexInfo"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/jyrq/lwsc"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/jyrq/count"/>
+    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/jyrq/edu" tooltip="http://localhost:9090/jyrq/edu"/>
+    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/jyrq/age" tooltip="http://localhost:9090/jyrq/age"/>
+    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/jyrq/jyType"/>
+    <hyperlink ref="B11" r:id="rId9" display="http://localhost:9090/jyrq/zzType"/>
+    <hyperlink ref="B12" r:id="rId10" display="http://localhost:9090/jyrq/jyfx"/>
+    <hyperlink ref="B13" r:id="rId11" display="http://localhost:9090/jyrq/xytType"/>
+    <hyperlink ref="B14" r:id="rId12" display="http://localhost:9090/jyrq/lhType"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.8796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.8796296296296" style="7" customWidth="1"/>
+    <col min="5" max="5" width="36.8796296296296" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="216" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" ht="230.4" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" ht="409.5" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" ht="409.5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="283.5" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" ht="302.4" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="216" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" ht="230.4" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" ht="144" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="270" x14ac:dyDescent="0.15">
+      <c r="D8" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" ht="288" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="216" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" ht="230.4" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="297" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" ht="316.8" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="297" x14ac:dyDescent="0.15">
+      <c r="D11" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" ht="316.8" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/trip/rsMonth" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="B7" r:id="rId3" tooltip="http://localhost:9090/trip/rank" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="B12" r:id="rId10" tooltip="http://localhost:9090/trip/gis" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/trip/rsMonth" tooltip="http://localhost:9090/trip/rsMonth"/>
+    <hyperlink ref="B6" r:id="rId2" display="http://localhost:9090/trip/report"/>
+    <hyperlink ref="B7" r:id="rId3" display="http://localhost:9090/trip/rank" tooltip="http://localhost:9090/trip/rank"/>
+    <hyperlink ref="B4" r:id="rId4" display="http://localhost:9090/trip/rsqs"/>
+    <hyperlink ref="B5" r:id="rId5" display="http://localhost:9090/trip/mpMonth"/>
+    <hyperlink ref="B9" r:id="rId6" display="http://localhost:9090/trip/rjrsMonth"/>
+    <hyperlink ref="B8" r:id="rId7" display="http://localhost:9090/trip/rjrsCount"/>
+    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/trip/sfq"/>
+    <hyperlink ref="B11" r:id="rId9" display="http://localhost:9090/trip/cwCount"/>
+    <hyperlink ref="B12" r:id="rId10" display="http://localhost:9090/trip/gis" tooltip="http://localhost:9090/trip/gis"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="33.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.125" customWidth="1"/>
+    <col min="1" max="1" width="33.3796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.8796296296296" style="7" customWidth="1"/>
+    <col min="4" max="4" width="42.1296296296296" style="7" customWidth="1"/>
+    <col min="5" max="5" width="34.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" ht="115.2" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>201</v>
+        <v>215</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" ht="201.6" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>205</v>
+        <v>219</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="324" x14ac:dyDescent="0.15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" ht="345.6" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>210</v>
+        <v>224</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="364.5" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" ht="388.8" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>214</v>
+        <v>229</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="364.5" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" ht="388.8" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>218</v>
+        <v>233</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" ht="201.6" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>222</v>
+        <v>189</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" ht="201.6" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>226</v>
+        <v>189</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" tooltip="http://localhost:9090/ylgg/ssjc" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" tooltip="http://localhost:9090/ylgg/ryrs" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId5" tooltip="http://localhost:9090/ylgg/jcf" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="B9" r:id="rId7" tooltip="http://localhost:9090/ylgg/xl" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/ylgg/rsCount"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/ylgg/srCount"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/ylgg/ssjc" tooltip="http://localhost:9090/ylgg/ssjc"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/ylgg/ryrs" tooltip="http://localhost:9090/ylgg/ryrs"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/ylgg/jcf" tooltip="http://localhost:9090/ylgg/jcf"/>
+    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/ylgg/zc"/>
+    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/ylgg/xl" tooltip="http://localhost:9090/ylgg/xl"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1296296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42" style="4" customWidth="1"/>
-    <col min="5" max="5" width="38.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.1296296296296" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="243" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" ht="259.2" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" ht="201.6" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="297" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" ht="316.8" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>239</v>
+        <v>189</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="297" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" ht="316.8" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" ht="172.8" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" ht="216" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="162" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" ht="172.8" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="243" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" ht="259.2" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>263</v>
+        <v>279</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" tooltip="http://localhost:9090/zhly/hxdjzb" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" tooltip="http://localhost:9090/zhly/dyx" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId5" tooltip="http://localhost:9090/zhly/hly" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://localhost:9090/zhly/hxdjzb" tooltip="http://localhost:9090/zhly/hxdjzb"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://localhost:9090/zhly/count"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/zhly/dyx" tooltip="http://localhost:9090/zhly/dyx"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/zhly/fhwz"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/zhly/hly" tooltip="http://localhost:9090/zhly/hly"/>
+    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/zhly/zfdw"/>
+    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/zhly/zbxq"/>
+    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/zhly/jbxx"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="36.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="37.875" customWidth="1"/>
+    <col min="5" max="5" width="37.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" ht="129.6" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" ht="409.5" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" ht="409.5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" ht="115.2" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" ht="158.4" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" ht="216" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>286</v>
+        <v>303</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>304</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" ht="100.8" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" ht="409.5" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="405" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" ht="409.5" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" ht="409.5" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" s="10" customFormat="1" ht="409.5" spans="1:5">
+      <c r="A13" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" ht="409.5" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="351" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" ht="374.4" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>386</v>
+        <v>189</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" ht="409.5" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" tooltip="http://localhost:9090/edu/xlfb" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" tooltip="http://localhost:9090/edu/byyx" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" tooltip="http://localhost:9090/edu/xbbl" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId5" tooltip="http://localhost:9090/edu/jszb" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="B9" r:id="rId6" tooltip="http://localhost:9090/edu/type" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" tooltip="http://localhost:9090/edu/base" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="B10" r:id="rId8" tooltip="http://localhost:9090/edu/xsrs" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{3052DE81-DBF7-354C-BB2A-1D57F8F61B27}"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/edu/count"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/edu/xlfb" tooltip="http://localhost:9090/edu/xlfb"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/edu/byyx" tooltip="http://localhost:9090/edu/byyx"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/edu/xbbl" tooltip="http://localhost:9090/edu/xbbl"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/edu/jszb" tooltip="http://localhost:9090/edu/jszb"/>
+    <hyperlink ref="B9" r:id="rId6" display="http://localhost:9090/edu/type" tooltip="http://localhost:9090/edu/type"/>
+    <hyperlink ref="B8" r:id="rId7" display="http://localhost:9090/edu/base" tooltip="http://localhost:9090/edu/base"/>
+    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/edu/xsrs" tooltip="http://localhost:9090/edu/xsrs"/>
+    <hyperlink ref="B11" r:id="rId9" display="http://localhost:9090/edu/nlfb"/>
+    <hyperlink ref="B12" r:id="rId10" display="http://localhost:9090/edu/hjsl"/>
+    <hyperlink ref="B13" r:id="rId11" display="http://localhost:9090/edu/hkszd"/>
+    <hyperlink ref="B14" r:id="rId12" display="http://localhost:9090/edu/gzjy"/>
+    <hyperlink ref="B15" r:id="rId13" display="http://localhost:9090/edu/njfb"/>
+    <hyperlink ref="B16" r:id="rId14" display="http://localhost:9090/edu/hjtj"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A2:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="43.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1296296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="37.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="50.375" customWidth="1"/>
+    <col min="4" max="4" width="41.8796296296296" style="7" customWidth="1"/>
+    <col min="5" max="5" width="37.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="50.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>316</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" ht="187.2" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="283.5" x14ac:dyDescent="0.15">
+        <v>340</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" ht="345.6" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="108" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>325</v>
+        <v>189</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" ht="115.2" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>347</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="256.5" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" ht="273.6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" ht="172.8" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+        <v>358</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" ht="409.5" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="229.5" x14ac:dyDescent="0.15">
+        <v>363</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" ht="244.8" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
+        <v>363</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" ht="187.2" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>351</v>
+        <v>189</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>373</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11" ht="216" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>408</v>
+        <v>375</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" ht="409.5" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/zhsw/ysl" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" tooltip="http://localhost:9090/zhsw/ggqk" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" tooltip="http://localhost:9090/zhsw/zlmj" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" tooltip="http://localhost:9090/zhsw/ysgc" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId5" tooltip="http://localhost:9090/zhsw/zlssy" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="B8" r:id="rId6" tooltip="http://localhost:9090/zhsw/hlInfo" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
-    <hyperlink ref="B9" r:id="rId7" tooltip="http://localhost:9090/zhsw/skInfp" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
-    <hyperlink ref="B10" r:id="rId8" tooltip="http://localhost:9090/zhsw/xqjyl" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{70A52527-1A05-491F-9C80-AFAB0021B99A}"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/zhsw/ysl" tooltip="http://localhost:9090/zhsw/ysl"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/zhsw/ggqk" tooltip="http://localhost:9090/zhsw/ggqk"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/zhsw/zlmj" tooltip="http://localhost:9090/zhsw/zlmj"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/zhsw/ysgc" tooltip="http://localhost:9090/zhsw/ysgc"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/zhsw/zlssy" tooltip="http://localhost:9090/zhsw/zlssy"/>
+    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/zhsw/hlInfo" tooltip="http://localhost:9090/zhsw/hlInfo"/>
+    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/zhsw/skInfp" tooltip="http://localhost:9090/zhsw/skInfp"/>
+    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/zhsw/xqjyl" tooltip="http://localhost:9090/zhsw/xqjyl"/>
+    <hyperlink ref="B11" r:id="rId9" display="http://localhost:9090/zhsw/dmjc"/>
+    <hyperlink ref="B12" r:id="rId10" display="http://localhost:9090/zhsw/dmdetail"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijWorkSpace\idea\git\gpdp\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C155C0-F1E1-4952-8129-DC44703971BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9347" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="智慧党建" sheetId="1" r:id="rId1"/>
@@ -6785,14 +6791,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6825,142 +6825,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6985,194 +6864,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -7195,262 +6888,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7480,7 +6934,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -7489,7 +6943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7501,7 +6955,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -7513,7 +6967,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7522,65 +6976,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -7867,35 +7290,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.8796296296296" style="16" customWidth="1"/>
-    <col min="2" max="2" width="39.1296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="39.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="46.5" style="25" customWidth="1"/>
-    <col min="4" max="4" width="32.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -7909,7 +7332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="345.6" spans="1:5">
+    <row r="3" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
@@ -7926,7 +7349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="409.5" spans="1:4">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
@@ -7940,7 +7363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="230.4" spans="1:4">
+    <row r="5" spans="1:5" ht="216" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>14</v>
       </c>
@@ -7954,7 +7377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="409.5" spans="1:5">
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>18</v>
       </c>
@@ -7969,7 +7392,7 @@
       </c>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" ht="409.5" spans="1:4">
+    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>22</v>
       </c>
@@ -7983,7 +7406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="409.5" spans="1:4">
+    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>26</v>
       </c>
@@ -7997,7 +7420,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="201.6" spans="1:5">
+    <row r="9" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>30</v>
       </c>
@@ -8014,7 +7437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="201.6" spans="1:5">
+    <row r="10" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>34</v>
       </c>
@@ -8031,7 +7454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="409.5" spans="1:4">
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>38</v>
       </c>
@@ -8045,7 +7468,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="374.4" spans="1:4">
+    <row r="12" spans="1:5" ht="351" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>42</v>
       </c>
@@ -8059,7 +7482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" ht="345.6" spans="1:4">
+    <row r="13" spans="1:5" ht="324" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>46</v>
       </c>
@@ -8073,7 +7496,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" ht="409.5" spans="1:4">
+    <row r="14" spans="1:5" ht="405" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>50</v>
       </c>
@@ -8087,7 +7510,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" ht="409.5" spans="1:4">
+    <row r="15" spans="1:5" ht="405" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>54</v>
       </c>
@@ -8101,7 +7524,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" ht="409.5" spans="1:4">
+    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>58</v>
       </c>
@@ -8119,47 +7542,46 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/zhdj/djfc" tooltip="http://localhost:9090/zhdj/djfc"/>
-    <hyperlink ref="B7" r:id="rId2" display="http://localhost:9090/zhdj/dljg"/>
-    <hyperlink ref="B8" r:id="rId3" display="http://localhost:9090/zhdj/dyjbqk" tooltip="http://localhost:9090/zhdj/dyjbqk"/>
-    <hyperlink ref="B10" r:id="rId4" display="http://localhost:9090/zhdj/ddmf" tooltip="http://localhost:9090/zhdj/ddmf"/>
-    <hyperlink ref="B12" r:id="rId5" display="http://localhost:9090/zhdj/fzdyqk"/>
-    <hyperlink ref="B11" r:id="rId6" display="http://localhost:9090/zhdj/dynljg"/>
-    <hyperlink ref="B13" r:id="rId7" display="http://localhost:9090/zhdj/zzxfb"/>
-    <hyperlink ref="B14" r:id="rId8" display="http://localhost:9090/zhdj/rmgjc"/>
-    <hyperlink ref="B15" r:id="rId9" display="http://localhost:9090/zhdj/shyk" tooltip="http://localhost:9090/zhdj/shyk"/>
-    <hyperlink ref="B16" r:id="rId10" display="http://localhost:9090/zhdj/zyzhd" tooltip="http://localhost:9090/zhdj/zyzhd"/>
-    <hyperlink ref="A1" r:id="rId11" display="http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090" tooltip="http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090"/>
-    <hyperlink ref="B6" r:id="rId12" display="http://localhost:9090/zhdj/dyhy" tooltip="http://localhost:9090/zhdj/dyhy"/>
-    <hyperlink ref="B9" r:id="rId13" display="http://localhost:9090/zhdj/dyfc"/>
-    <hyperlink ref="B4" r:id="rId14" display="http://localhost:9090/zhdj/dyxl" tooltip="http://localhost:9090/zhdj/dyxl"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/zhdj/djfc" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" tooltip="http://localhost:9090/zhdj/dyjbqk" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B10" r:id="rId4" tooltip="http://localhost:9090/zhdj/ddmf" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B15" r:id="rId9" tooltip="http://localhost:9090/zhdj/shyk" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B16" r:id="rId10" tooltip="http://localhost:9090/zhdj/zyzhd" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A1" r:id="rId11" tooltip="http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B6" r:id="rId12" tooltip="http://localhost:9090/zhdj/dyhy" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B4" r:id="rId14" tooltip="http://localhost:9090/zhdj/dyxl" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="49.8796296296296" customWidth="1"/>
-    <col min="5" max="5" width="42.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="38.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.625" customWidth="1"/>
+    <col min="4" max="4" width="49.875" customWidth="1"/>
+    <col min="5" max="5" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8176,7 +7598,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" ht="409.5" spans="1:5">
+    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>384</v>
       </c>
@@ -8193,7 +7615,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" ht="409.5" spans="1:5">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>389</v>
       </c>
@@ -8211,34 +7633,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/common/sp" tooltip="http://localhost:9090/common/sp"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/common/spType"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/common/sp" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.8796296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.8796296296296" customWidth="1"/>
-    <col min="5" max="5" width="36.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.875" customWidth="1"/>
+    <col min="5" max="5" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8255,7 +7676,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" ht="100.8" spans="1:5">
+    <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>393</v>
       </c>
@@ -8272,7 +7693,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="4" ht="144" spans="1:5">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>397</v>
       </c>
@@ -8289,7 +7710,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" ht="189.95" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="189.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>401</v>
       </c>
@@ -8306,7 +7727,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" ht="408.95" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="408.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>405</v>
       </c>
@@ -8323,7 +7744,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" ht="120.95" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>408</v>
       </c>
@@ -8340,7 +7761,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" ht="115.2" spans="1:5">
+    <row r="8" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>411</v>
       </c>
@@ -8358,37 +7779,42 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/sjzc/count"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/sjzc/jrpm"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/sjzc/jrpc"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/sjzc/jhgx"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/sjzc/sjzl"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/sjzc/xlpm"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0A00-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.6296296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.8796296296296" style="25" customWidth="1"/>
-    <col min="4" max="4" width="38.1296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="38.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="17.4" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -8402,7 +7828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="144" spans="1:4">
+    <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -8416,7 +7842,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" ht="201.6" spans="1:4">
+    <row r="4" spans="1:4" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -8430,7 +7856,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" ht="201.6" spans="1:4">
+    <row r="5" spans="1:4" ht="189" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -8444,7 +7870,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" ht="374.4" spans="1:4">
+    <row r="6" spans="1:4" ht="351" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -8458,7 +7884,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" ht="259.2" spans="1:4">
+    <row r="7" spans="1:4" ht="243" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
@@ -8472,7 +7898,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" ht="409.5" spans="1:4">
+    <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
@@ -8490,39 +7916,38 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/rrcz/count" tooltip="http://localhost:9090/rrcz/count"/>
-    <hyperlink ref="B5" r:id="rId2" display="http://localhost:9090/rrcz/residence" tooltip="http://localhost:9090/rrcz/residence"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://localhost:9090/rrcz/ra"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/rrcz/profess" tooltip="http://localhost:9090/rrcz/profess"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/rrcz/vocat"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/rrcz/cz"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/rrcz/count" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" tooltip="http://localhost:9090/rrcz/residence" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" tooltip="http://localhost:9090/rrcz/profess" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.3796296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.8796296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.3796296296296" style="7" customWidth="1"/>
-    <col min="4" max="4" width="27.8796296296296" style="7" customWidth="1"/>
-    <col min="5" max="5" width="42.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="28.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="17.4" spans="1:4">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -8536,7 +7961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="313.2" spans="1:4">
+    <row r="3" spans="1:5" ht="337.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -8550,7 +7975,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" ht="409.5" spans="1:4">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
@@ -8564,7 +7989,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" ht="201.6" spans="1:4">
+    <row r="5" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>93</v>
       </c>
@@ -8578,7 +8003,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" ht="201.6" spans="1:4">
+    <row r="6" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
@@ -8592,7 +8017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" ht="409.5" spans="1:5">
+    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
         <v>101</v>
       </c>
@@ -8607,7 +8032,7 @@
       </c>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" ht="409.5" spans="1:4">
+    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -8621,8 +8046,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1"/>
-    <row r="11" ht="409.5" spans="1:4">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
         <v>89</v>
       </c>
@@ -8636,7 +8061,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" ht="409.5" spans="1:4">
+    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>112</v>
       </c>
@@ -8650,7 +8075,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" ht="201.6" spans="1:4">
+    <row r="13" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>115</v>
       </c>
@@ -8664,7 +8089,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" ht="201.6" spans="1:5">
+    <row r="14" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>119</v>
       </c>
@@ -8682,42 +8107,41 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/pxqz/count"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/pxqz/ryInfo" tooltip="http://localhost:9090/pxqz/ryInfo"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/pxqz/gzCount"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/pxqz/xbCount" tooltip="http://localhost:9090/pxqz/xbCount"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/pxqz/pxInfo"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/pxqz/qzInfo"/>
-    <hyperlink ref="B11" r:id="rId7" display="http://localhost:9090/pxqz/ryInfoNew"/>
-    <hyperlink ref="B12" r:id="rId8" display="http://localhost:9090/pxqz/qzryInfo"/>
-    <hyperlink ref="B13" r:id="rId9" display="http://localhost:9090/pxqz/dyyx"/>
-    <hyperlink ref="B14" r:id="rId10" display="http://localhost:9090/pxqz/sexInfo"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" tooltip="http://localhost:9090/pxqz/ryInfo" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" tooltip="http://localhost:9090/pxqz/xbCount" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="48.6296296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="37.3796296296296" style="7" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="17.4" spans="1:4">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -8731,7 +8155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="259.2" spans="1:4">
+    <row r="3" spans="1:4" ht="243" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -8745,7 +8169,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" ht="316.8" spans="1:4">
+    <row r="4" spans="1:4" ht="297" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>128</v>
       </c>
@@ -8759,7 +8183,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" ht="201.6" spans="1:4">
+    <row r="5" spans="1:4" ht="189" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -8773,7 +8197,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" ht="201.6" spans="1:4">
+    <row r="6" spans="1:4" ht="189" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>135</v>
       </c>
@@ -8787,7 +8211,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" ht="316.8" spans="1:4">
+    <row r="7" spans="1:4" ht="297" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
@@ -8801,7 +8225,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" ht="230.4" spans="1:4">
+    <row r="8" spans="1:4" ht="216" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>141</v>
       </c>
@@ -8815,7 +8239,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" ht="409.5" spans="1:4">
+    <row r="9" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>145</v>
       </c>
@@ -8829,7 +8253,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" ht="409.5" spans="1:4">
+    <row r="10" spans="1:4" ht="405" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>149</v>
       </c>
@@ -8843,7 +8267,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" ht="259.2" spans="1:4">
+    <row r="11" spans="1:4" ht="243" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>153</v>
       </c>
@@ -8857,7 +8281,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" ht="316.8" spans="1:4">
+    <row r="12" spans="1:4" ht="297" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>156</v>
       </c>
@@ -8871,7 +8295,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" ht="201.6" spans="1:4">
+    <row r="13" spans="1:4" ht="189" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -8885,7 +8309,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" ht="409.5" spans="1:4">
+    <row r="14" spans="1:4" ht="405" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>163</v>
       </c>
@@ -8900,44 +8324,43 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/jyrq/infoCount" tooltip="http://localhost:9090/jyrq/infoCount"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/jyrq/typeInfo"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/jyrq/sexInfo"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/jyrq/lwsc"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/jyrq/count"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/jyrq/edu" tooltip="http://localhost:9090/jyrq/edu"/>
-    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/jyrq/age" tooltip="http://localhost:9090/jyrq/age"/>
-    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/jyrq/jyType"/>
-    <hyperlink ref="B11" r:id="rId9" display="http://localhost:9090/jyrq/zzType"/>
-    <hyperlink ref="B12" r:id="rId10" display="http://localhost:9090/jyrq/jyfx"/>
-    <hyperlink ref="B13" r:id="rId11" display="http://localhost:9090/jyrq/xytType"/>
-    <hyperlink ref="B14" r:id="rId12" display="http://localhost:9090/jyrq/lhType"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/jyrq/infoCount" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" tooltip="http://localhost:9090/jyrq/edu" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" tooltip="http://localhost:9090/jyrq/age" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.8796296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.8796296296296" style="7" customWidth="1"/>
-    <col min="5" max="5" width="36.8796296296296" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="36.875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8954,7 +8377,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" ht="230.4" spans="1:5">
+    <row r="3" spans="1:5" ht="216" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>169</v>
       </c>
@@ -8971,7 +8394,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" ht="409.5" spans="1:5">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>174</v>
       </c>
@@ -8988,7 +8411,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" ht="409.5" spans="1:5">
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>179</v>
       </c>
@@ -9005,7 +8428,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" ht="302.4" spans="1:5">
+    <row r="6" spans="1:5" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>182</v>
       </c>
@@ -9022,7 +8445,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" ht="230.4" spans="1:5">
+    <row r="7" spans="1:5" ht="216" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>187</v>
       </c>
@@ -9039,7 +8462,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" ht="144" spans="1:5">
+    <row r="8" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>192</v>
       </c>
@@ -9056,7 +8479,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" ht="288" spans="1:5">
+    <row r="9" spans="1:5" ht="270" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>196</v>
       </c>
@@ -9073,7 +8496,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" ht="230.4" spans="1:5">
+    <row r="10" spans="1:5" ht="216" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>200</v>
       </c>
@@ -9090,7 +8513,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" ht="316.8" spans="1:5">
+    <row r="11" spans="1:5" ht="297" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>204</v>
       </c>
@@ -9107,7 +8530,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" ht="316.8" spans="1:5">
+    <row r="12" spans="1:5" ht="297" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>208</v>
       </c>
@@ -9124,7 +8547,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>212</v>
       </c>
@@ -9132,48 +8555,47 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>213</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/trip/rsMonth" tooltip="http://localhost:9090/trip/rsMonth"/>
-    <hyperlink ref="B6" r:id="rId2" display="http://localhost:9090/trip/report"/>
-    <hyperlink ref="B7" r:id="rId3" display="http://localhost:9090/trip/rank" tooltip="http://localhost:9090/trip/rank"/>
-    <hyperlink ref="B4" r:id="rId4" display="http://localhost:9090/trip/rsqs"/>
-    <hyperlink ref="B5" r:id="rId5" display="http://localhost:9090/trip/mpMonth"/>
-    <hyperlink ref="B9" r:id="rId6" display="http://localhost:9090/trip/rjrsMonth"/>
-    <hyperlink ref="B8" r:id="rId7" display="http://localhost:9090/trip/rjrsCount"/>
-    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/trip/sfq"/>
-    <hyperlink ref="B11" r:id="rId9" display="http://localhost:9090/trip/cwCount"/>
-    <hyperlink ref="B12" r:id="rId10" display="http://localhost:9090/trip/gis" tooltip="http://localhost:9090/trip/gis"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/trip/rsMonth" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" tooltip="http://localhost:9090/trip/rank" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" tooltip="http://localhost:9090/trip/gis" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.3796296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.8796296296296" style="7" customWidth="1"/>
-    <col min="4" max="4" width="42.1296296296296" style="7" customWidth="1"/>
-    <col min="5" max="5" width="34.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="33.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="42.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9190,7 +8612,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" ht="115.2" spans="1:5">
+    <row r="3" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>214</v>
       </c>
@@ -9207,7 +8629,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" ht="201.6" spans="1:5">
+    <row r="4" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>219</v>
       </c>
@@ -9224,7 +8646,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" ht="345.6" spans="1:5">
+    <row r="5" spans="1:5" ht="324" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>223</v>
       </c>
@@ -9241,7 +8663,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" ht="388.8" spans="1:5">
+    <row r="6" spans="1:5" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>228</v>
       </c>
@@ -9258,7 +8680,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" ht="388.8" spans="1:5">
+    <row r="7" spans="1:5" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>232</v>
       </c>
@@ -9275,7 +8697,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" ht="201.6" spans="1:5">
+    <row r="8" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>236</v>
       </c>
@@ -9292,7 +8714,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" ht="201.6" spans="1:5">
+    <row r="9" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>240</v>
       </c>
@@ -9310,39 +8732,38 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/ylgg/rsCount"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/ylgg/srCount"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/ylgg/ssjc" tooltip="http://localhost:9090/ylgg/ssjc"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/ylgg/ryrs" tooltip="http://localhost:9090/ylgg/ryrs"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/ylgg/jcf" tooltip="http://localhost:9090/ylgg/jcf"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/ylgg/zc"/>
-    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/ylgg/xl" tooltip="http://localhost:9090/ylgg/xl"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" tooltip="http://localhost:9090/ylgg/ssjc" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" tooltip="http://localhost:9090/ylgg/ryrs" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" tooltip="http://localhost:9090/ylgg/jcf" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" tooltip="http://localhost:9090/ylgg/xl" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.8796296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="42" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.1296296296296" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9359,7 +8780,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" ht="259.2" spans="1:5">
+    <row r="3" spans="1:6" ht="243" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>244</v>
       </c>
@@ -9376,7 +8797,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" ht="201.6" spans="1:5">
+    <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>248</v>
       </c>
@@ -9393,7 +8814,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" ht="316.8" spans="1:6">
+    <row r="5" spans="1:6" ht="297" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>252</v>
       </c>
@@ -9413,7 +8834,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" ht="316.8" spans="1:5">
+    <row r="6" spans="1:6" ht="297" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>257</v>
       </c>
@@ -9430,7 +8851,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" ht="172.8" spans="1:5">
+    <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>261</v>
       </c>
@@ -9447,7 +8868,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" ht="216" spans="1:6">
+    <row r="8" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>266</v>
       </c>
@@ -9467,7 +8888,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" ht="172.8" spans="1:5">
+    <row r="9" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>272</v>
       </c>
@@ -9484,7 +8905,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" ht="259.2" spans="1:5">
+    <row r="10" spans="1:6" ht="243" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>277</v>
       </c>
@@ -9502,40 +8923,39 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="http://localhost:9090/zhly/hxdjzb" tooltip="http://localhost:9090/zhly/hxdjzb"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://localhost:9090/zhly/count"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/zhly/dyx" tooltip="http://localhost:9090/zhly/dyx"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/zhly/fhwz"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/zhly/hly" tooltip="http://localhost:9090/zhly/hly"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/zhly/zfdw"/>
-    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/zhly/zbxq"/>
-    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/zhly/jbxx"/>
+    <hyperlink ref="B4" r:id="rId1" tooltip="http://localhost:9090/zhly/hxdjzb" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" tooltip="http://localhost:9090/zhly/dyx" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" tooltip="http://localhost:9090/zhly/hly" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="36.1296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="37.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9552,7 +8972,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" ht="129.6" spans="1:5">
+    <row r="3" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>282</v>
       </c>
@@ -9569,7 +8989,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" ht="409.5" spans="1:5">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>286</v>
       </c>
@@ -9586,7 +9006,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" ht="409.5" spans="1:5">
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>290</v>
       </c>
@@ -9603,7 +9023,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" ht="115.2" spans="1:5">
+    <row r="6" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>294</v>
       </c>
@@ -9620,7 +9040,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" ht="158.4" spans="1:5">
+    <row r="7" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>298</v>
       </c>
@@ -9637,7 +9057,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" ht="216" spans="1:5">
+    <row r="8" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>302</v>
       </c>
@@ -9654,7 +9074,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" ht="100.8" spans="1:5">
+    <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>307</v>
       </c>
@@ -9671,7 +9091,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" ht="409.5" spans="1:5">
+    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>311</v>
       </c>
@@ -9688,7 +9108,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" ht="409.5" spans="1:5">
+    <row r="11" spans="1:5" ht="405" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>316</v>
       </c>
@@ -9705,7 +9125,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" ht="409.5" spans="1:5">
+    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>320</v>
       </c>
@@ -9722,7 +9142,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" s="10" customFormat="1" ht="409.5" spans="1:5">
+    <row r="13" spans="1:5" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
         <v>324</v>
       </c>
@@ -9739,7 +9159,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" ht="409.5" spans="1:5">
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>327</v>
       </c>
@@ -9756,7 +9176,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" ht="374.4" spans="1:5">
+    <row r="15" spans="1:5" ht="351" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>331</v>
       </c>
@@ -9773,7 +9193,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" ht="409.5" spans="1:5">
+    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>334</v>
       </c>
@@ -9791,47 +9211,46 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/edu/count"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/edu/xlfb" tooltip="http://localhost:9090/edu/xlfb"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/edu/byyx" tooltip="http://localhost:9090/edu/byyx"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/edu/xbbl" tooltip="http://localhost:9090/edu/xbbl"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/edu/jszb" tooltip="http://localhost:9090/edu/jszb"/>
-    <hyperlink ref="B9" r:id="rId6" display="http://localhost:9090/edu/type" tooltip="http://localhost:9090/edu/type"/>
-    <hyperlink ref="B8" r:id="rId7" display="http://localhost:9090/edu/base" tooltip="http://localhost:9090/edu/base"/>
-    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/edu/xsrs" tooltip="http://localhost:9090/edu/xsrs"/>
-    <hyperlink ref="B11" r:id="rId9" display="http://localhost:9090/edu/nlfb"/>
-    <hyperlink ref="B12" r:id="rId10" display="http://localhost:9090/edu/hjsl"/>
-    <hyperlink ref="B13" r:id="rId11" display="http://localhost:9090/edu/hkszd"/>
-    <hyperlink ref="B14" r:id="rId12" display="http://localhost:9090/edu/gzjy"/>
-    <hyperlink ref="B15" r:id="rId13" display="http://localhost:9090/edu/njfb"/>
-    <hyperlink ref="B16" r:id="rId14" display="http://localhost:9090/edu/hjtj"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" tooltip="http://localhost:9090/edu/xlfb" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" tooltip="http://localhost:9090/edu/byyx" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" tooltip="http://localhost:9090/edu/xbbl" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" tooltip="http://localhost:9090/edu/jszb" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="B9" r:id="rId6" tooltip="http://localhost:9090/edu/type" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" tooltip="http://localhost:9090/edu/base" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" tooltip="http://localhost:9090/edu/xsrs" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.8796296296296" style="7" customWidth="1"/>
+    <col min="4" max="4" width="41.875" style="7" customWidth="1"/>
     <col min="5" max="5" width="37.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="50.3796296296296" customWidth="1"/>
+    <col min="6" max="6" width="50.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9848,7 +9267,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" ht="187.2" spans="1:5">
+    <row r="3" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>338</v>
       </c>
@@ -9865,7 +9284,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" ht="345.6" spans="1:5">
+    <row r="4" spans="1:6" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>343</v>
       </c>
@@ -9882,7 +9301,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" ht="115.2" spans="1:5">
+    <row r="5" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>347</v>
       </c>
@@ -9899,7 +9318,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" ht="273.6" spans="1:5">
+    <row r="6" spans="1:6" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>352</v>
       </c>
@@ -9916,7 +9335,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="7" ht="172.8" spans="1:5">
+    <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>356</v>
       </c>
@@ -9933,7 +9352,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" ht="409.5" spans="1:5">
+    <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>361</v>
       </c>
@@ -9950,7 +9369,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="9" ht="244.8" spans="1:5">
+    <row r="9" spans="1:6" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>366</v>
       </c>
@@ -9967,7 +9386,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="10" ht="187.2" spans="1:6">
+    <row r="10" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>370</v>
       </c>
@@ -9987,8 +9406,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="11" ht="216" spans="1:5">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="30" t="s">
         <v>375</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -10004,8 +9423,8 @@
         <v>378</v>
       </c>
     </row>
-    <row r="12" ht="409.5" spans="1:5">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="30" t="s">
         <v>379</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -10022,19 +9441,19 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/zhsw/ysl" tooltip="http://localhost:9090/zhsw/ysl"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/zhsw/ggqk" tooltip="http://localhost:9090/zhsw/ggqk"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/zhsw/zlmj" tooltip="http://localhost:9090/zhsw/zlmj"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/zhsw/ysgc" tooltip="http://localhost:9090/zhsw/ysgc"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/zhsw/zlssy" tooltip="http://localhost:9090/zhsw/zlssy"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/zhsw/hlInfo" tooltip="http://localhost:9090/zhsw/hlInfo"/>
-    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/zhsw/skInfp" tooltip="http://localhost:9090/zhsw/skInfp"/>
-    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/zhsw/xqjyl" tooltip="http://localhost:9090/zhsw/xqjyl"/>
-    <hyperlink ref="B11" r:id="rId9" display="http://localhost:9090/zhsw/dmjc"/>
-    <hyperlink ref="B12" r:id="rId10" display="http://localhost:9090/zhsw/dmdetail"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/zhsw/ysl" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" tooltip="http://localhost:9090/zhsw/ggqk" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" tooltip="http://localhost:9090/zhsw/zlmj" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" tooltip="http://localhost:9090/zhsw/ysgc" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" tooltip="http://localhost:9090/zhsw/zlssy" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" tooltip="http://localhost:9090/zhsw/hlInfo" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" tooltip="http://localhost:9090/zhsw/skInfp" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" tooltip="http://localhost:9090/zhsw/xqjyl" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijWorkSpace\idea\git\gpdp\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijWorkSpace\git\gpdp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C155C0-F1E1-4952-8129-DC44703971BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B68453-E74E-4253-BD37-C1EC1A4274D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="智慧党建" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="421">
   <si>
     <t>http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090</t>
   </si>
@@ -6787,12 +6787,36 @@
     Query_data_volume：疑问数据量
 Volume_unquestioned ：无疑问数据量</t>
   </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频树形结构初始化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/common/queryNode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/common/spInit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>子节点查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId:1342177727</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6833,6 +6857,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -6897,7 +6929,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6982,14 +7014,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7311,12 +7352,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -7566,10 +7607,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A2:E4"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7632,11 +7673,35 @@
         <v>392</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/common/sp" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{CA6DC39C-E371-4E24-8BB1-2A5E849D6BF0}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{373D7151-4086-48A6-9BF5-18ADD02C6278}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7809,10 +7874,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="28"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -9236,8 +9301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E12"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9407,14 +9472,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="28" t="s">
         <v>375</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>189</v>
+      <c r="C11" s="32" t="s">
+        <v>415</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>377</v>
@@ -9424,7 +9489,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="28" t="s">
         <v>379</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -9455,5 +9520,6 @@
     <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijWorkSpace\git\gpdp\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijWorkSpace\idea\git\gpdp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B68453-E74E-4253-BD37-C1EC1A4274D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F24DB-8438-4B95-ADEB-D9A26018F3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-1770" windowWidth="21840" windowHeight="13140" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="智慧党建" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="425">
   <si>
     <t>http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090</t>
   </si>
@@ -3462,31 +3462,6 @@
     <t>http://localhost:9090/zhly/count</t>
   </si>
   <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "TITLE": "mj",
-            "COUNT": "0"
-        },
-        {
-            "TITLE": "rate",
-            "COUNT": "16.78%"
-        },
-        {
-            "TITLE": "lcsl",
-            "COUNT": "35"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>mj：面积(亩)
-rate：覆盖率
-lcsl：林场数量</t>
-  </si>
-  <si>
     <t>全市林场森林火险等级占比</t>
   </si>
   <si>
@@ -3519,42 +3494,6 @@
     <t>http://localhost:9090/zhly/dyx</t>
   </si>
   <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "NUM": 0,
-            "NAME": "type"
-        },
-        {
-            "NUM": 0,
-            "NAME": "num"
-        },
-        {
-            "NUM": 0,
-            "NAME": "yj"
-        },
-        {
-            "NUM": 0,
-            "NAME": "ej"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-一级 一级古树保护级别
-二级 二级古树保护级别
-三级 三级古树保护级别
-num:名树数量(颗)
-type:种类数量(种)</t>
-  </si>
-  <si>
-    <t>@edit：
-4-22</t>
-  </si>
-  <si>
     <t>护林防火物资</t>
   </si>
   <si>
@@ -3585,12 +3524,6 @@
 }</t>
   </si>
   <si>
-    <t>qsdd：取水地点(处)
-hly:护林员(人)
-dwzb：队伍装备(套)
-dwzf：队伍住房(个)</t>
-  </si>
-  <si>
     <t>护林员信息表</t>
   </si>
   <si>
@@ -3598,20 +3531,6 @@
   </si>
   <si>
     <t>name:护林员姓名</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "XM": 张三,
-            "ZYJSZC": "xxxxx",
-            "FZLCMC": "yyyyyy",
-            "DH":"13511113333"
-        }
-    ]
-}</t>
   </si>
   <si>
     <t>"XM" : '姓名'
@@ -3629,37 +3548,6 @@
     <t>dwmc:队伍名称</t>
   </si>
   <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "FZEXM": "张三",
-            "ZSDD": "张王村",
-            "DWRS": 16,
-            "FZRDH": "18888888888",
-            "ZBMC": "",
-            "DWMC": "护林小队",
-            "GSDW": "三甲镇林业局"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>"DWMC"  队伍名称
-"DWRS"  队伍人数
-"FZEXM"  负责人姓名
-"FZRDH"  负责人电话
-"GSDW"  归属单位
-"ZSDD"  驻守地点
-"ZBMC"  装备名称
-ZSDDJD:经度
-ZSDDWD：纬度</t>
-  </si>
-  <si>
-    <t>eidt:05-13</t>
-  </si>
-  <si>
     <t>装备详情</t>
   </si>
   <si>
@@ -3670,67 +3558,7 @@
 zbmc:装备名称</t>
   </si>
   <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-     {
-      "ZBMC":"123",
-      "ZBSL":123,
-      "FZRXM":"王五",
-      "FZRDH":"18888888888"
-     }
-    ]
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ZBMC":装备名称,
-"ZBSL":装备数量,
-"FZRXM":负责人姓名,
-"FZRDH":负责人电话
-</t>
-  </si>
-  <si>
     <t>林场基本信息</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/zhly/jbxx</t>
-  </si>
-  <si>
-    <t>lcmc:林场名称</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "LCMC": "林场名称",
-            "LCDZ": "林场地址",
-            "LCHXDJ": "林场火险等级",
-            "MJM": "面积(亩)",
-            "QSDD": "取水地点",
-            "HLYSL": "护林员数量",
-            "FZRXM": "负责人姓名",
-            "FZRDH": "负责人电话",
-            "WD": "维度",
-            "JD": "经度",
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-"LCMC": "林场名称",
-"LCDZ": "林场地址",
-"LCHXDJ": "林场火险等级",
-"MJM": "面积(亩)",
-"QSDD": "取水地点",
-"HLYSL": "护林员数量",
-"FZRXM": "负责人姓名",
-"FZRDH": "负责人电话",
-"WD": "维度",
-"JD": "经度",</t>
   </si>
   <si>
     <t>高平市学校概况</t>
@@ -6809,6 +6637,322 @@
   </si>
   <si>
     <t>resourceId:1342177727</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "TITLE": "mj",
+            "COUNT": "0"
+        },{
+            "TITLE": "lcsl",
+            "COUNT": "35"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mj：面积(亩)
+lcsl：林场数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "LCMC": "林场名称",
+            "LCDZ": "林场地址",
+            "LCHXDJ": "林场火险等级",
+            "MJM": "面积(亩)",
+            "QSDD": "取水地点",
+            "HLYSL": "护林员数量",
+            "FZRXM": "负责人姓名",
+            "FZRDH": "负责人电话",
+            "WD": "维度",
+            "JD": "经度",
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcmc:林场名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+num:名树数量(颗)
+type:种类数量(种)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 0,
+            "NAME": "type"
+        },
+        {
+            "NUM": 0,
+            "NAME": "num"
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "XM": 张三,
+            "ZYJSZC": "xxxxx",
+            "FZLCMC": "yyyyyy",
+            "DH":"13511113333"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+     {
+      "ZBMC":"123",
+      "ZBSL":123,
+      "FZRXM":"王五",
+      "FZRDH":"18888888888"，
+     }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"DWMC"  队伍名称
+"DWRS"  队伍人数
+"FZEXM"  负责人姓名
+"FZRDH"  负责人电话
+"GSDW"  归属单位
+"ZSDD"  驻守地点
+"ZBMC"  装备名称
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"ZBMC":装备名称,
+"ZBSL":装备数量,
+"FZRXM":负责人姓名,
+"FZRDH":负责人电话
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "FZEXM": "张三",
+            "ZSDD": "张王村",
+            "DWRS": 16,
+            "FZRDH": "18888888888",
+            "ZBMC": "",
+            "DWMC": "护林小队",
+            "GSDW": "三甲镇林业局"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// qsdd：取水地点(处) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>移除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+hly:护林员(人)
+dwzb：队伍装备(套)
+dwzf：队伍住房(个)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+"LCMC": "林场名称",
+"LCDZ": "林场地址",
+"LCHXDJ": "林场火险等级",
+"MJM": "面积(亩)",
+"QSDD": "取水地点", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>移除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"HLYSL": "护林员数量",
+"FZRXM": "负责人姓名",
+"FZRDH": "负责人电话",
+"WD": "维度",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> // 暂无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"JD": "经度",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> // 暂无</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林覆盖率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhly/jbxx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/zhly/slfgl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": 
+        {
+            "ND": "年度",
+            "SLFGL": "森林覆盖率",
+        }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公益林信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/zhly/gylxx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": 
+        {
+            "GJJGYLMJ": "国家级公益林面积",
+            "DFLCGJJGYLMJ": "董峰林场国家级公益林面积",
+            "JTGJJGYLMJ": "集体国家级公益林面积",  
+        }
+}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -6929,7 +7073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7017,6 +7161,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7024,12 +7180,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7352,12 +7502,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -7609,7 +7759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -7641,58 +7791,58 @@
     </row>
     <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="32" t="s">
-        <v>416</v>
+      <c r="A5" s="29" t="s">
+        <v>400</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>415</v>
+        <v>402</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="32" t="s">
-        <v>419</v>
+      <c r="A6" s="29" t="s">
+        <v>403</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>420</v>
+        <v>401</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -7743,104 +7893,104 @@
     </row>
     <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="189.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="408.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>189</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -7874,10 +8024,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -8813,10 +8963,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A2:F10"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8845,7 +8995,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="243" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>244</v>
       </c>
@@ -8856,135 +9006,153 @@
         <v>189</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>247</v>
+        <v>405</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="189" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="B5" s="2" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="297" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>254</v>
+      <c r="D5" s="31" t="s">
+        <v>410</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>256</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="297" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>260</v>
+        <v>254</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>264</v>
+        <v>257</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>411</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="162" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>276</v>
+        <v>264</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="243" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>419</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>279</v>
+        <v>408</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>281</v>
+        <v>407</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="189" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -9000,6 +9168,7 @@
     <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -9039,240 +9208,240 @@
     </row>
     <row r="3" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="405" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>189</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="351" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>189</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -9334,175 +9503,175 @@
     </row>
     <row r="3" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A11" s="28" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>415</v>
+        <v>360</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>399</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A12" s="28" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijWorkSpace\idea\git\gpdp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F24DB-8438-4B95-ADEB-D9A26018F3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5200EE-CDE4-42B9-B81B-BCF3C5C70CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-1770" windowWidth="21840" windowHeight="13140" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3459,13 +3459,7 @@
     <t>林业信息资源统计</t>
   </si>
   <si>
-    <t>http://localhost:9090/zhly/count</t>
-  </si>
-  <si>
     <t>全市林场森林火险等级占比</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/zhly/hxdjzb</t>
   </si>
   <si>
     <t>{
@@ -3491,46 +3485,13 @@
     <t>生物多样性</t>
   </si>
   <si>
-    <t>http://localhost:9090/zhly/dyx</t>
-  </si>
-  <si>
     <t>护林防火物资</t>
   </si>
   <si>
-    <t>http://localhost:9090/zhly/fhwz</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "NUM": 1,
-            "NAME": "dwzf"
-        },
-        {
-            "NUM": 0,
-            "NAME": "dwzb"
-        },
-        {
-            "NUM": 0,
-            "NAME": "hly"
-        },
-        {
-            "NUM": 35,
-            "NAME": "qsdd"
-        }
-    ]
-}</t>
-  </si>
-  <si>
     <t>护林员信息表</t>
   </si>
   <si>
     <t>http://localhost:9090/zhly/hly</t>
-  </si>
-  <si>
-    <t>name:护林员姓名</t>
   </si>
   <si>
     <t>"XM" : '姓名'
@@ -3540,9 +3501,6 @@
   </si>
   <si>
     <t>驻防队伍信息</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/zhly/zfdw</t>
   </si>
   <si>
     <t>dwmc:队伍名称</t>
@@ -6640,22 +6598,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "TITLE": "mj",
-            "COUNT": "0"
-        },{
-            "TITLE": "lcsl",
-            "COUNT": "35"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>mj：面积(亩)
 lcsl：林场数量</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -6686,52 +6628,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-num:名树数量(颗)
-type:种类数量(种)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "NUM": 0,
-            "NAME": "type"
-        },
-        {
-            "NUM": 0,
-            "NAME": "num"
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    ]
-}</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "msg": "成功",
     "code": 200,
@@ -6770,27 +6666,6 @@
 "ZSDD"  驻守地点
 "ZBMC"  装备名称
 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"ZBMC":装备名称,
-"ZBSL":装备数量,
-"FZRXM":负责人姓名,
-"FZRDH":负责人电话
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6955,12 +6830,99 @@
 }</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>http://localhost:9090/zhly/count</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": 
+        {
+            "MJ": "mj",
+            "LCSL": "0"
+        }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"ZBMC":装备名称,
+"ZBSL":装备数量,
+"FZRXM":负责人姓名,
+"FZRDH":负责人电话
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhly/hxdjzb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MSSL:名树数量(颗)
+ZLSL:种类数量(种)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": 
+        {
+            "ZLSL": "0",
+            "MSSL": "0"
+        }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhly/fhwz</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": 
+        {
+            "hly": 1,
+            "dwzb": "dwzf"
+            "dwzf": "dwzf"
+        }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhly/dyx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/zhly/zfdw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:护林员姓名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7009,6 +6971,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -7073,7 +7044,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7180,6 +7151,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7791,58 +7774,58 @@
     </row>
     <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -7893,104 +7876,104 @@
     </row>
     <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="189.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="408.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>189</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -8965,8 +8948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8995,172 +8978,172 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>245</v>
+      <c r="B3" s="32" t="s">
+        <v>414</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>405</v>
+      <c r="D3" s="31" t="s">
+        <v>415</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>417</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="B5" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="189" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="297" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>253</v>
+      <c r="B6" s="32" t="s">
+        <v>420</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>254</v>
+      <c r="D6" s="31" t="s">
+        <v>421</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>424</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>423</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>414</v>
+    <row r="9" spans="1:6" s="39" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="243" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>420</v>
+        <v>407</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>409</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>424</v>
+        <v>411</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" tooltip="http://localhost:9090/zhly/hxdjzb" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" tooltip="http://localhost:9090/zhly/dyx" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
     <hyperlink ref="B7" r:id="rId5" tooltip="http://localhost:9090/zhly/hly" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
     <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
@@ -9208,240 +9191,240 @@
     </row>
     <row r="3" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="405" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>189</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="351" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>189</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -9503,175 +9486,175 @@
     </row>
     <row r="3" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A11" s="28" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A12" s="28" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijWorkSpace\idea\git\gpdp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5200EE-CDE4-42B9-B81B-BCF3C5C70CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ECC4FE-8B1D-4DB7-9AD5-032F97BBA5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-1770" windowWidth="21840" windowHeight="13140" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="422">
   <si>
     <t>http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090</t>
   </si>
@@ -5242,24 +5242,6 @@
   </si>
   <si>
     <t>http://localhost:9090/edu/jszb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-     {
-      "XB":"男",
-      "NUM":200
-     }
-    ]
-}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"XB":性别,
-"NUM":数量
-</t>
   </si>
   <si>
     <t>全市学校基本情况表</t>
@@ -6786,48 +6768,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>森林覆盖率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>http://localhost:9090/zhly/jbxx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/zhly/slfgl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": 
-        {
-            "ND": "年度",
-            "SLFGL": "森林覆盖率",
-        }
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>公益林信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/zhly/gylxx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": 
-        {
-            "GJJGYLMJ": "国家级公益林面积",
-            "DFLCGJJGYLMJ": "董峰林场国家级公益林面积",
-            "JTGJJGYLMJ": "集体国家级公益林面积",  
-        }
-}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6915,6 +6856,56 @@
   </si>
   <si>
     <t>name:护林员姓名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+     {
+      "NSRS":"男生数",
+      "NSR":"女生数"
+     }
+    ]
+}
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "DFLCGJJGYLMJ": "6.83万亩",
+        "JTGJJGYLMJ": "15.21万亩",
+        "LCSL": "1",
+        "DWRS": 100,
+        "HLY": 245,
+        "SLFGL": "12.35",
+        "GJJGYLMJ": "22.04万亩",
+        "ZFDWRS": 1
+    }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页统计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhly/sytj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"DFLCGJJGYLMJ": 董峰林场公益林面积
+"JTGJJGYLMJ": 集体国家公益林面积
+"LCSL": 林场数量
+"DWRS": 队伍人数
+"HLY": 护林员数量
+"SLFGL": 森林覆盖率
+"GJJGYLMJ":国家级公益林面积
+"ZFDWRS": 驻防队伍梳理</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -7044,7 +7035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7144,15 +7135,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7163,6 +7145,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7485,12 +7479,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -7774,58 +7768,58 @@
     </row>
     <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>395</v>
-      </c>
       <c r="C5" s="30" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -7876,104 +7870,104 @@
     </row>
     <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="189.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="408.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>189</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -8007,10 +8001,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="34"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -8948,8 +8942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8983,16 +8977,16 @@
         <v>244</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.15">
@@ -9000,7 +8994,7 @@
         <v>245</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>189</v>
@@ -9017,16 +9011,16 @@
         <v>248</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -9035,16 +9029,16 @@
         <v>249</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
@@ -9055,10 +9049,10 @@
         <v>251</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>252</v>
@@ -9069,74 +9063,70 @@
         <v>253</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>254</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" s="39" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="36" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A9" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>402</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>416</v>
+      <c r="D9" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="243" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>408</v>
+      <c r="B10" s="37" t="s">
+        <v>405</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="189" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>412</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>413</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="29"/>
+      <c r="D12" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -9159,8 +9149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9268,163 +9258,161 @@
         <v>189</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>278</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="405" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>189</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="351" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>189</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -9446,6 +9434,7 @@
     <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -9486,175 +9475,175 @@
     </row>
     <row r="3" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>317</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="9" t="s">
         <v>326</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E6" s="9" t="s">
         <v>330</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="9" t="s">
         <v>335</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="9" t="s">
         <v>340</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E9" s="9" t="s">
         <v>344</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A11" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="E11" s="9" t="s">
         <v>353</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A12" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>358</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijWorkSpace\idea\git\gpdp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ECC4FE-8B1D-4DB7-9AD5-032F97BBA5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85207FBE-B052-4C4B-8025-673FD6256AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-1770" windowWidth="21840" windowHeight="13140" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="智慧党建" sheetId="1" r:id="rId1"/>
@@ -6666,36 +6666,6 @@
         }
     ]
 }</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">// qsdd：取水地点(处) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>移除</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-hly:护林员(人)
-dwzb：队伍装备(套)
-dwzf：队伍住房(个)</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6906,6 +6876,36 @@
 "SLFGL": 森林覆盖率
 "GJJGYLMJ":国家级公益林面积
 "ZFDWRS": 驻防队伍梳理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// qsdd：取水地点(处) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>移除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+hly:护林员(人)
+dwzb：队伍人数
+dwzf：队伍住房(个)</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -8942,8 +8942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8977,13 +8977,13 @@
         <v>244</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>396</v>
@@ -8994,7 +8994,7 @@
         <v>245</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>189</v>
@@ -9011,16 +9011,16 @@
         <v>248</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>390</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -9029,16 +9029,16 @@
         <v>249</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
@@ -9049,7 +9049,7 @@
         <v>251</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>399</v>
@@ -9063,7 +9063,7 @@
         <v>253</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>254</v>
@@ -9090,7 +9090,7 @@
         <v>400</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="243" x14ac:dyDescent="0.15">
@@ -9098,7 +9098,7 @@
         <v>258</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>398</v>
@@ -9107,21 +9107,21 @@
         <v>397</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="D11" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>420</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -9258,7 +9258,7 @@
         <v>189</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E7" s="3"/>
     </row>

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijWorkSpace\idea\git\gpdp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85207FBE-B052-4C4B-8025-673FD6256AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589DD95B-77DF-4995-829B-07A26570BD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="智慧党建" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="404">
   <si>
     <t>http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090</t>
   </si>
@@ -3519,2251 +3519,17 @@
     <t>林场基本信息</t>
   </si>
   <si>
-    <t>高平市学校概况</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/edu/count</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": {
-        "SCHOOL": 1,
-        "STUDENT": 3143,
-        "TEACHER": 292
-    }
-}</t>
-  </si>
-  <si>
-    <t>"SCHOOL": 学校数量,
-"STUDENT": 学生数量,
-"TEACHER": 教师数量</t>
-  </si>
-  <si>
-    <t>教师学历分布</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/edu/xlfb</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "NUM": 2848,
-            "WHCD_XL": "本科"
-        },
-        {
-            "NUM": 988,
-            "WHCD_XL": "专科"
-        },
-        {
-            "NUM": 165,
-            "WHCD_XL": "研究生"
-        },
-        {
-            "NUM": 83,
-            "WHCD_XL": "大专"
-        },
-        {
-            "NUM": 46,
-            "WHCD_XL": "中专"
-        },
-        {
-            "NUM": 15,
-            "WHCD_XL": "高中"
-        },
-        {
-            "NUM": 8,
-            "WHCD_XL": "硕士"
-        },
-        {
-            "NUM": 7,
-            "WHCD_XL": "初中"
-        },
-        {
-            "NUM": 3,
-            "WHCD_XL": "硕研"
-        },
-        {
-            "NUM": 1,
-            "WHCD_XL": "中师"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"WHCD_XL": 教师学历,
-"NUM": 数量,
-</t>
-  </si>
-  <si>
-    <t>教师毕业院校统计</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/edu/byyx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "NUM": 872,
-            "WHCD_BYYX": "山西师范大学"
-        },
-        {
-            "NUM": 330,
-            "WHCD_BYYX": "山西大学"
-        },
-        {
-            "NUM": 295,
-            "WHCD_BYYX": "山西师范大学                  "
-        },
-        {
-            "NUM": 179,
-            "WHCD_BYYX": "山西师大"
-        },
-        {
-            "NUM": 161,
-            "WHCD_BYYX": "长治学院"
-        },
-        {
-            "NUM": 134,
-            "WHCD_BYYX": "太原师范学院"
-        },
-        {
-            "NUM": 122,
-            "WHCD_BYYX": "山西大学                      "
-        },
-        {
-            "NUM": 88,
-            "WHCD_BYYX": "中央广播电视大学"
-        },
-        {
-            "NUM": 80,
-            "WHCD_BYYX": "晋城职业技术学院"
-        },
-        {
-            "NUM": 75,
-            "WHCD_BYYX": "晋中学院"
-        },
-        {
-            "NUM": 75,
-            "WHCD_BYYX": "山西省教育学院"
-        },
-        {
-            "NUM": 72,
-            "WHCD_BYYX": "山西省教育学院                "
-        },
-        {
-            "NUM": 69,
-            "WHCD_BYYX": "晋城职业技术学院              "
-        },
-        {
-            "NUM": 67,
-            "WHCD_BYYX": "忻州师范学院"
-        },
-        {
-            "NUM": 66,
-            "WHCD_BYYX": "山西大同大学"
-        },
-        {
-            "NUM": 59,
-            "WHCD_BYYX": "太原师范学院                  "
-        },
-        {
-            "NUM": 52,
-            "WHCD_BYYX": "晋城市教育学院"
-        },
-        {
-            "NUM": 41,
-            "WHCD_BYYX": "中央广播电视大学              "
-        },
-        {
-            "NUM": 40,
-            "WHCD_BYYX": "山西师大                      "
-        },
-        {
-            "NUM": 39,
-            "WHCD_BYYX": "大同大学"
-        },
-        {
-            "NUM": 33,
-            "WHCD_BYYX": "运城幼儿师范高等专科学校"
-        },
-        {
-            "NUM": 26,
-            "WHCD_BYYX": "晋城教育学院"
-        },
-        {
-            "NUM": 24,
-            "WHCD_BYYX": "咸阳师范学院"
-        },
-        {
-            "NUM": 21,
-            "WHCD_BYYX": "运城学院"
-        },
-        {
-            "NUM": 21,
-            "WHCD_BYYX": "吕梁学院"
-        },
-        {
-            "NUM": 21,
-            "WHCD_BYYX": "晋东南师范专科学校            "
-        },
-        {
-            "NUM": 20,
-            "WHCD_BYYX": "山西广播电视大学"
-        },
-        {
-            "NUM": 20,
-            "WHCD_BYYX": "晋东南师专"
-        },
-        {
-            "NUM": 19,
-            "WHCD_BYYX": "雁北师范学院"
-        },
-        {
-            "NUM": 19,
-            "WHCD_BYYX": "晋城市教育学院                "
-        },
-        {
-            "NUM": 17,
-            "WHCD_BYYX": "晋东南师范专科学校"
-        },
-        {
-            "NUM": 14,
-            "WHCD_BYYX": "陕西师范大学"
-        },
-        {
-            "NUM": 14,
-            "WHCD_BYYX": "山西师范大学 "
-        },
-        {
-            "NUM": 14,
-            "WHCD_BYYX": "长治学院                      "
-        },
-        {
-            "NUM": 14,
-            "WHCD_BYYX": "省教育学院"
-        },
-        {
-            "NUM": 14,
-            "WHCD_BYYX": "东北师范大学"
-        },
-        {
-            "NUM": 14,
-            "WHCD_BYYX": "咸阳师范学院                  "
-        },
-        {
-            "NUM": 13,
-            "WHCD_BYYX": "山西师范大学晋东南学院"
-        },
-        {
-            "NUM": 13,
-            "WHCD_BYYX": "哈尔滨师范大学"
-        },
-        {
-            "NUM": 12,
-            "WHCD_BYYX": "晋东南师专                    "
-        },
-        {
-            "NUM": 12,
-            "WHCD_BYYX": "中北大学"
-        },
-        {
-            "NUM": 11,
-            "WHCD_BYYX": "省教育学院                    "
-        },
-        {
-            "NUM": 11,
-            "WHCD_BYYX": "太原师院"
-        },
-        {
-            "NUM": 10,
-            "WHCD_BYYX": "中央电大"
-        },
-        {
-            "NUM": 9,
-            "WHCD_BYYX": "西南大学"
-        },
-        {
-            "NUM": 9,
-            "WHCD_BYYX": "太原理工大学"
-        },
-        {
-            "NUM": 9,
-            "WHCD_BYYX": "山西大同大学                  "
-        },
-        {
-            "NUM": 8,
-            "WHCD_BYYX": "山西广播电视大学              "
-        },
-        {
-            "NUM": 8,
-            "WHCD_BYYX": "太原师范                      "
-        },
-        {
-            "NUM": 8,
-            "WHCD_BYYX": "山西大学师范学院"
-        },
-        {
-            "NUM": 8,
-            "WHCD_BYYX": "山西大学 "
-        },
-        {
-            "NUM": 7,
-            "WHCD_BYYX": "山西师范大学现代文理学院"
-        },
-        {
-            "NUM": 7,
-            "WHCD_BYYX": "太原师范学校                  "
-        },
-        {
-            "NUM": 7,
-            "WHCD_BYYX": "晋中学院                      "
-        },
-        {
-            "NUM": 7,
-            "WHCD_BYYX": "山西农业大学"
-        },
-        {
-            "NUM": 6,
-            "WHCD_BYYX": "太原师范大学"
-        },
-        {
-            "NUM": 6,
-            "WHCD_BYYX": "晋城教育学院                  "
-        },
-        {
-            "NUM": 6,
-            "WHCD_BYYX": "晋城市职业技术学院"
-        },
-        {
-            "NUM": 6,
-            "WHCD_BYYX": "西北师范大学"
-        },
-        {
-            "NUM": 6,
-            "WHCD_BYYX": "长治教育学院"
-        },
-        {
-            "NUM": 6,
-            "WHCD_BYYX": "晋中师范高等专科学校"
-        },
-        {
-            "NUM": 6,
-            "WHCD_BYYX": "东北师大"
-        },
-        {
-            "NUM": 5,
-            "WHCD_BYYX": "兰州理工大学"
-        },
-        {
-            "NUM": 5,
-            "WHCD_BYYX": "山西教育学院"
-        },
-        {
-            "NUM": 5,
-            "WHCD_BYYX": "长春教育学院"
-        },
-        {
-            "NUM": 5,
-            "WHCD_BYYX": "雁北师范学院                  "
-        },
-        {
-            "NUM": 5,
-            "WHCD_BYYX": "山西省教育学院二部            "
-        },
-        {
-            "NUM": 5,
-            "WHCD_BYYX": "晋城师范"
-        },
-        {
-            "NUM": 5,
-            "WHCD_BYYX": "渤海大学"
-        },
-        {
-            "NUM": 5,
-            "WHCD_BYYX": "吕梁高等专科学校"
-        },
-        {
-            "NUM": 5,
-            "WHCD_BYYX": "山西省师范大学"
-        },
-        {
-            "NUM": 5,
-            "WHCD_BYYX": "天津师范大学"
-        },
-        {
-            "NUM": 5,
-            "WHCD_BYYX": "山西大学晋中学院"
-        },
-        {
-            "NUM": 4,
-            "WHCD_BYYX": "王报中学"
-        },
-        {
-            "NUM": 4,
-            "WHCD_BYYX": "忻州师范"
-        },
-        {
-            "NUM": 4,
-            "WHCD_BYYX": "山西省广播函授学校            "
-        },
-        {
-            "NUM": 4,
-            "WHCD_BYYX": "高平一中"
-        },
-        {
-            "NUM": 4,
-            "WHCD_BYYX": "华东师范大学"
-        },
-        {
-            "NUM": 4,
-            "WHCD_BYYX": "北京师范大学"
-        },
-        {
-            "NUM": 4,
-            "WHCD_BYYX": "山西大学商务学院"
-        },
-        {
-            "NUM": 4,
-            "WHCD_BYYX": "郑州大学"
-        },
-        {
-            "NUM": 4,
-            "WHCD_BYYX": "省教院"
-        },
-        {
-            "NUM": 4,
-            "WHCD_BYYX": "北京师范大学                  "
-        },
-        {
-            "NUM": 4,
-            "WHCD_BYYX": "太原师院                      "
-        },
-        {
-            "NUM": 4,
-            "WHCD_BYYX": "山西工商学院"
-        },
-        {
-            "NUM": 4,
-            "WHCD_BYYX": "西南大学育才学院"
-        },
-        {
-            "NUM": 4,
-            "WHCD_BYYX": "山西师范学院"
-        },
-        {
-            "NUM": 4,
-            "WHCD_BYYX": "中央广播电视大学 "
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "咸阳师范"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "省电大                        "
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "太原科技大学"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "晋城市职业技术学院            "
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "三峡大学"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "晋城电大"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "忻州师院"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "吉林大学"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "长治师范"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "西安理工大学"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "燕山大学"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "山西煤炭管理干部学院"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "201203西北师范大学"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "陕西咸阳师范学院"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "晋城职业技术学院 "
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "运城高专"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "雁北师院"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "晋城师范                      "
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "太原理工大学阳泉学院"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "太原师范"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "中央党校"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "东北农业大学"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "长治医学院"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "河北大学"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "广西师范大学"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "太原工业学院"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "山西省大同大学"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "国家开放大学"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "内蒙古师范大学"
-        },
-        {
-            "NUM": 3,
-            "WHCD_BYYX": "山西教育学院                  "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "山西师大自考"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "山师大"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "山西省晋城师范学校            "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "对外经济贸易大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "长治学院师范分院"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "长春师范学院                  "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "太原学院"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "福建师范大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "首都师范大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "首都师范大学                  "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "山西大学    "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "晋东南幼儿师范学校"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "山东大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "郑州轻工业学院"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "天津体育学院"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "阳泉师范高等专科学校"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "咸阳师范学院 "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "辽宁大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "长春大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "许昌学院"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "陕西师大"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "兰州理工"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "长治师范学院"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "晋城师范学校                  "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "大同大学                      "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "广西教育学院"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "河西高中"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "晋中师专                      "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "山西省广播电视大学            "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "山西省煤炭管理干部学院        "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "忻州师范学院                  "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "高平市教师进修学校            "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "湘潭大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "山西师范学院                  "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "河南大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "山西师范大学临汾学院"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "山西大学师院"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "江西师范大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "安阳师范学院"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "运城高等专科学校              "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "吕梁学院                      "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "山西财经大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "西北农林科技大学              "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "西安外国语学院"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "长治师范                      "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "西藏民族大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "武汉大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "山西省广播函授学校"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "运城高专                      "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "山西广播函授学校"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "西安文理学院"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "淮北师大"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "中央广电大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "山西省师范大学                "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "中国农业大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "临汾师范大学                  "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "浙江嘉兴学院"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "山西师大\n现代文理学院"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "中国矿业大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "湖南大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "吕梁高等专科学校              "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "大连大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "浙江师范大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "上海师范大学"
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "太原师院范学院                     "
-        },
-        {
-            "NUM": 2,
-            "WHCD_BYYX": "沈阳音乐学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "中央司法警官学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "师大体院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "太原理工大学\n财经学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "广西师范学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "雁北师范专科学校              "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "吉林艺术学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山东大学威海学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "河南省许昌学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "泰山学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西省原师范学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西师大美术学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "中央广播电大"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "吉林师范大学                  "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "河南省焦作教育学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西师范大学体育学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "廊坊师范学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "浙江台州学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西大学教育"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "天津职业技术师范大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "成都信息工程学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "晋城职院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "天津理工大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "成都体院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "西华大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "黑尔宾师大"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "南京师大"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西煤碳管理干部学校"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "晋东南师范专科学校 "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "北京航空航天大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "省广播函授学校"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "河北师大"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西师范"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "中国音乐学院                  "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "运城学院                      "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "运城高等专科学校"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西电视广播大学              "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "晋中师专"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "华东交通大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "安徽师范大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "中央电视广播大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西省长治学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "晋东南幼师范"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "中国书法函授大学              "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "甘肃农业大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "中央美术学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "高平教师进修校                "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西大学                  "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西经贸职业学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "晋城师范学校            "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西师范大学（自考）          "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西省教育学院           "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "运城幼儿专科"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "晋东南幼师"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "黑龙江教育学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "淮阴师范学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "兰州商务学院陇桥学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "东北大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "潍坊科技学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "高平县河西中学校              "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "河南师范大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山大晋中学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "太原重型机械学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "河北经贸大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "河北师范大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "西华师范大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西省雁北师范学院            "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "苏州科技学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "华南理工大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "晋东南师范"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "吉林外国语大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "黑龙江科技大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西省临汾师范大学            "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "晋城职业技术学校              "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "太原理工大学财经学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西大学成人教育学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "赣南师院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西省中北大学                "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山东工商学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西省晋城教育学院            "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "太原理工阳泉学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "忻州师院                      "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西大学商务学院              "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西机电职业技术学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "高平进修校                    "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "天津师范大学                      "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "忻州师父学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "晋东南师范专科学院            "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "省广播函授学校                "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "淮北师范大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "运师学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "中北大学信息商务学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "陕西渭南师院                  "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "运城师范"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "江苏省盐城师范学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "河南科技学院新科学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "江西农业大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "大连教育学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "咸阳师范大学                  "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "华中师范大学马克思主义学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西体育职业学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西电大"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "广西科技大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "晋中师范高等专科学院          "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "渭南师院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西师范大学     "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "长治师范学校                  "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "忻州师范大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "长春师院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "西南师范大学                  "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "嘉兴学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "天津体院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西省晋城职业技术学院        "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "湖北江汉艺术职业学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西财经大学华商学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "浙江工商大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "淮南工业学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "西北民族大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西师范大学成人教育学院      "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西农大信息学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "湖北师范学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "太原大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西省晋城师范学校"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "长治师范学校"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西财经大学 "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "西安电子科技大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西省教育学院(二部)"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西师大成人教育学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "晋城职业学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "咸阳师范大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "201501忻州师范学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "天津财经学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": " 山西师大                     "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "阳泉职业技术学院              "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西大同大学                      "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西农校"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "2013-01长治学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "200407晋城职业技术学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "199207山西省教育学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "西安工业大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "晋城市教育学院          "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "200307山西师范大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "晋东南煤矿学校"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "200507晋城职业技术学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "200406山西师范大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "200507太原师范学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "1990-07晋城师范"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "临汾师大                      "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "泰山医学院                    "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "太原幼儿师范学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "内江师范学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西省旅游学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "南开大学滨海学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "忻州大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "河北传媒学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "晋中学院师范分院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "中央广播电视大学  "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山东师大"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "中北大学 "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "安阳师院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "青海师范大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "省教育学院 "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "内蒙古工业大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西省运城学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "高平县北诗中学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西省晋东南卫生学校"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "2004-06山西师范大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "牡丹江师院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西师范大学    "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西忻州师范专科学校"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "华中师范大学汉口分校"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西省忻州师范学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "2006-06山西师范大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "太原师范学院 "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "201301忻州师范学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西师范大学   "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "湖北孝感学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西财大"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "200507山西师范大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "200907运城学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "201401长治学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "200306山西师范大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西广播电视大学 "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西省晋东南\n工业学校"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "高平县建宁人民公社建宁小学校"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "黑龙江省教育学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西广播电视大学晋城分校 "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "黔南民族师范学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西师大现代文理学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "中央电视广播学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "晋城师范学校"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "东北林业大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西省广播函授学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "忻州学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "宝鸡文理学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西省长治市教育学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "烟台大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西广播电视大学晋城分校      "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "河北工业大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西矿业学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "中央党\n校函授学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西师大晋东南学院            "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "苏州大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "西安地质学院                  "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "太远师范学院                  "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "河北科技大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "  山西工商职业学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "成都理工大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "郑州铁路机械学校              "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山西省银行学校                "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "长治教学学院                  "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "吉林动画学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "                              "
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "陕西师范大学马克思主义学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "西南大学外国语学院"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "山东财经大学"
-        },
-        {
-            "NUM": 1,
-            "WHCD_BYYX": "南京林业大学"
-        },
-        {
-      </t>
-  </si>
-  <si>
-    <t>"NUM": 数量
-"WHCD_BYYX": 毕业院校</t>
-  </si>
-  <si>
-    <t>全市学生性别占比</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/edu/xbbl</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": {
-        "F": 0,
-        "M": 0
-    }
-}</t>
-  </si>
-  <si>
-    <t>M：男生数量
-F：女生数量</t>
-  </si>
-  <si>
-    <t>全市教师性别占比</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/edu/jszb</t>
-  </si>
-  <si>
     <t>全市学校基本情况表</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/edu/base</t>
   </si>
   <si>
     <t>type:公立高中
 name:高平市第一中学</t>
   </si>
   <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "JZGRS": 292,
-            "SL_NAME": "高平市第一中学",
-            "SL_ADD": "山西省晋城市高平市泫氏西街34号",
-            "SL_TYPE": "公立高中",
-            "XSZS": 3143
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>"JZGRS": 教师职工,
-"SL_NAME": 学校名称,
-"SL_ADD": 学校地址,
-"SL_TYPE": 学校类别,
-"XSZS": 学生总数</t>
-  </si>
-  <si>
-    <t>学校类别查询</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/edu/type</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": {
-        "TYPE": "公立高中"
-    }
-}</t>
-  </si>
-  <si>
-    <t>TYPE：学校类别
-例子：初中,高中,中职</t>
-  </si>
-  <si>
-    <t>在校学生人数统计</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/edu/xsrs</t>
-  </si>
-  <si>
-    <t>date:2020</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "TOTAL": 11987,
-            "NV": 6301,
-            "NAME": "初中"
-        },
-        {
-            "TOTAL": 8839,
-            "NV": 5108,
-            "NAME": "高中"
-        },
-        {
-            "TOTAL": 1904,
-            "NV": 806,
-            "NAME": "中职"
-        },
-        {
-            "TOTAL": 23528,
-            "NV": 11656,
-            "NAME": "小学"
-        },
-        {
-            "TOTAL": 12782,
-            "NV": 6327,
-            "NAME": "幼儿园"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>"TOTAL": 在校人数,
-"NV": 在校人数-女,
-"NAME": 学校类别</t>
-  </si>
-  <si>
-    <t>年龄分布</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/edu/nlfb</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "NUM": 1,
-            "NAME": "5岁及以下"
-        },
-        {
-            "NUM": 0,
-            "NAME": "6-7岁"
-        },
-        {
-            "NUM": 2600,
-            "NAME": "7-8岁"
-        },
-        {
-            "NUM": 7930,
-            "NAME": "8-9岁"
-        },
-        {
-            "NUM": 7914,
-            "NAME": "10-11岁"
-        },
-        {
-            "NUM": 5071,
-            "NAME": "12岁及以上"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>"NUM": 数值
-"NAME": 标题</t>
-  </si>
-  <si>
     <t>外市户籍数量占比</t>
   </si>
   <si>
-    <t>http://localhost:9090/edu/hjsl</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "NUM": 550,
-            "NAME": "其他省"
-        },
-        {
-            "NUM": 197,
-            "NAME": "长治市"
-        },
-        {
-            "NUM": 26,
-            "NAME": "运城市"
-        },
-        {
-            "NUM": 21,
-            "NAME": "太原市"
-        },
-        {
-            "NUM": 19,
-            "NAME": "临汾市"
-        },
-        {
-            "NUM": 19,
-            "NAME": "吕梁市"
-        },
-        {
-            "NUM": 10,
-            "NAME": "忻州市"
-        },
-        {
-            "NUM": 10,
-            "NAME": "大同市"
-        },
-        {
-            "NUM": 8,
-            "NAME": "晋中市"
-        },
-        {
-            "NUM": 5,
-            "NAME": "朔州市"
-        },
-        {
-            "NUM": 4,
-            "NAME": "阳泉市"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>"NUM": 数量
-"NAME": 市</t>
-  </si>
-  <si>
-    <t>中小学户口所在地</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/edu/hkszd</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "NUM": 22967,
-            "NAME": "山西省"
-        },
-        {
-            "NUM": 241,
-            "NAME": "河南省"
-        },
-        {
-            "NUM": 84,
-            "NAME": "河北省"
-        },
-        {
-            "NUM": 42,
-            "NAME": "安徽省"
-        },
-        {
-            "NUM": 24,
-            "NAME": "陕西省"
-        },
-        {
-            "NUM": 24,
-            "NAME": "江苏省"
-        },
-        {
-            "NUM": 24,
-            "NAME": "福建省"
-        },
-        {
-            "NUM": 17,
-            "NAME": "浙江省"
-        },
-        {
-            "NUM": 16,
-            "NAME": "湖北省"
-        },
-        {
-            "NUM": 13,
-            "NAME": "山东省"
-        },
-        {
-            "NUM": 11,
-            "NAME": "湖南省"
-        },
-        {
-            "NUM": 9,
-            "NAME": "江西省"
-        },
-        {
-            "NUM": 8,
-            "NAME": "吉林省"
-        },
-        {
-            "NUM": 8,
-            "NAME": "四川省"
-        },
-        {
-            "NUM": 6,
-            "NAME": "重庆市"
-        },
-        {
-            "NUM": 4,
-            "NAME": "贵州省"
-        },
-        {
-            "NUM": 3,
-            "NAME": "辽宁省"
-        },
-        {
-            "NUM": 2,
-            "NAME": "黑龙江省"
-        },
-        {
-            "NUM": 2,
-            "NAME": "内蒙古自治区"
-        },
-        {
-            "NUM": 2,
-            "NAME": "广东省"
-        },
-        {
-            "NUM": 2,
-            "NAME": "云南省"
-        },
-        {
-            "NUM": 2,
-            "NAME": "青海省"
-        },
-        {
-            "NUM": 1,
-            "NAME": "海南省"
-        },
-        {
-            "NUM": 1,
-            "NAME": "天津市"
-        },
-        {
-            "NUM": 1,
-            "NAME": "甘肃省"
-        },
-        {
-            "NUM": 1,
-            "NAME": "北京市"
-        }
-    ]
-}</t>
-  </si>
-  <si>
     <t>在编教师工作经验</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/edu/gzjy</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "NUM": 104,
-            "TITLE": "1年"
-        },
-        {
-            "NUM": 158,
-            "TITLE": "2-3年"
-        },
-        {
-            "NUM": 186,
-            "TITLE": "4-5年"
-        },
-        {
-            "NUM": 87,
-            "TITLE": "6-7年"
-        },
-        {
-            "NUM": 380,
-            "TITLE": "8-10年"
-        },
-        {
-            "NUM": 335,
-            "TITLE": "11-15年"
-        },
-        {
-            "NUM": 467,
-            "TITLE": "16-20年"
-        },
-        {
-            "NUM": 2446,
-            "TITLE": "20年以上"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>title：标题
-num： 数量</t>
-  </si>
-  <si>
-    <t>年级分布</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/edu/njfb</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "NUM": 7956,
-            "TITLE": "小学1-2年级"
-        },
-        {
-            "NUM": 8020,
-            "TITLE": "小学3-4年级"
-        },
-        {
-            "NUM": 7547,
-            "TITLE": "小学5-6年级"
-        },
-        {
-            "NUM": 0,
-            "TITLE": "初中1-2年级"
-        },
-        {
-            "NUM": 0,
-            "TITLE": "初中3年级"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>中小学籍贯分布</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/edu/hjtj</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "NUM": 22964,
-            "NAME": "山西省"
-        },
-        {
-            "NUM": 241,
-            "NAME": "河南省"
-        },
-        {
-            "NUM": 84,
-            "NAME": "河北省"
-        },
-        {
-            "NUM": 42,
-            "NAME": "安徽省"
-        },
-        {
-            "NUM": 24,
-            "NAME": "陕西省"
-        },
-        {
-            "NUM": 24,
-            "NAME": "江苏省"
-        },
-        {
-            "NUM": 24,
-            "NAME": "福建省"
-        },
-        {
-            "NUM": 17,
-            "NAME": "浙江省"
-        },
-        {
-            "NUM": 16,
-            "NAME": "湖北省"
-        },
-        {
-            "NUM": 13,
-            "NAME": "山东省"
-        },
-        {
-            "NUM": 11,
-            "NAME": "湖南省"
-        },
-        {
-            "NUM": 9,
-            "NAME": "江西省"
-        },
-        {
-            "NUM": 8,
-            "NAME": "吉林省"
-        },
-        {
-            "NUM": 8,
-            "NAME": "四川省"
-        },
-        {
-            "NUM": 6,
-            "NAME": "重庆市"
-        },
-        {
-            "NUM": 4,
-            "NAME": "贵州省"
-        },
-        {
-            "NUM": 3,
-            "NAME": "辽宁省"
-        },
-        {
-            "NUM": 2,
-            "NAME": "黑龙江省"
-        },
-        {
-            "NUM": 2,
-            "NAME": "内蒙古自治区"
-        },
-        {
-            "NUM": 2,
-            "NAME": "广东省"
-        },
-        {
-            "NUM": 2,
-            "NAME": "云南省"
-        },
-        {
-            "NUM": 2,
-            "NAME": "青海省"
-        },
-        {
-            "NUM": 1,
-            "NAME": "海南省"
-        },
-        {
-            "NUM": 1,
-            "NAME": "天津市"
-        },
-        {
-            "NUM": 1,
-            "NAME": "甘肃省"
-        },
-        {
-            "NUM": 1,
-            "NAME": "北京市"
-        }
-    ]
-}</t>
   </si>
   <si>
     <t>num:数量
@@ -6693,6 +4459,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6718,6 +4485,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6791,6 +4559,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6826,20 +4595,6 @@
   </si>
   <si>
     <t>name:护林员姓名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-     {
-      "NSRS":"男生数",
-      "NSR":"女生数"
-     }
-    ]
-}
-</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6898,6 +4653,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6908,12 +4664,281 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>http://localhost:9090/edu/count</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校数量占比</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师学历分布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"NUM": 数量
+"NAME": 市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"WHCD_XL": 教师学历,
+"NUM": 数量,
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SCHOOL": 学校数量,
+"STUDENT": 学生数量,
+"TEACHER": 教师数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>title：标题
+num： 数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 2848,
+            "WHCD_XL": "本科"
+        }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 22964,
+            "NAME": "山西省"
+        },
+        {
+            "NUM": 241,
+            "NAME": "河南省"
+        },
+        {
+            "NUM": 84,
+            "NAME": "河北省"
+        } 
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 104,
+            "TITLE": "1年"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 550,
+            "NAME": "其他省"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "SCHOOL": 1,
+        "STUDENT": 3143,
+        "TEACHER": 292
+    }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/hjtj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>师生情况分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/base</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/xlfb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "LX": "类型",
+            "DZ": "地址",
+            "XSS":"学生数",
+            "ZRJSS":"教职工人数",
+            "XXMC":"学校名称"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            "LX": "类型",
+            "DZ": "地址",
+            "XSS":"学生数",
+            "ZRJSS":"教职工人数",
+            "XXMC":"学校名称"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/hjsl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/edu/gzjy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中小学籍贯分布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线校数统计（顶部统计数据）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>edu/zxxstj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>edu/ssqk</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "XX": "21378",
+            "PXJG": "0",
+            "GZ": "8324",
+            "QTTJX": "96",
+            "SENYGZ": "297",
+            "ZYGZ": "1800",
+            "YEY": "13638",
+            "ZX": "9609",
+            "JNYGZ": "3554"
+        }
+    ]
+}
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            "XX": "小学在校人数",
+            "PXJG": "其他培训机构在校人数",
+            "GZ": "高级中学在校人数",
+            "QTTJX": "其他特教学校在校人数",
+            "SENYGZ": "十二年一贯制学校在校人数",
+            "ZYGZ": "职业高中在校人数",
+            "YEY": "幼儿园在校人数",
+            "ZX": "初级中学在校人数",
+            "JNYGZ": "九年一贯制学校在校人数"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "XXSL": "1",
+            "NSRS": "170",
+            "XXZL": "十二年一贯制学校",
+            "NSR": "127",
+            "JZGSL": "56"
+        },
+        {
+            "XXSL": "2",
+            "NSRS": "1059",
+            "XXZL": "职业高中",
+            "NSR": "741",
+            "JZGSL": "224"
+        }
+    ]
+}
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            "XXSL": "学校数量",
+            "NSRS": "男生人数",
+            "XXZL": "学校种类",
+            "NSR": "女生人数",
+            "JZGSL": "教职工人数"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>初中中职高中人数占比</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "NUM": 22004,
+            "JYJDCZGZZZ": "初中"
+        },
+        {
+            "NUM": 3260,
+            "JYJDCZGZZZ": "中职"
+        },
+        {
+            "NUM": 6436,
+            "JYJDCZGZZZ": "高中"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>JYJDCZGZZZ 教育阶段
+NUM 数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>edu/xszb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6926,6 +4951,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6934,6 +4960,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6941,6 +4968,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6976,8 +5004,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF839496"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6987,12 +5029,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7035,7 +5071,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7066,18 +5102,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7099,7 +5123,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7149,6 +5173,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7472,22 +5514,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="12" customWidth="1"/>
     <col min="2" max="2" width="39.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5" style="25" customWidth="1"/>
+    <col min="3" max="3" width="46.5" style="21" customWidth="1"/>
     <col min="4" max="4" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7501,10 +5543,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -7518,7 +5560,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -7532,7 +5574,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="216" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7546,7 +5588,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -7558,10 +5600,10 @@
       <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -7575,7 +5617,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -7589,7 +5631,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="189" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -7606,7 +5648,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -7623,7 +5665,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -7637,7 +5679,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="351" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -7651,7 +5693,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="324" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -7665,7 +5707,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="405" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -7679,7 +5721,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="405" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -7693,7 +5735,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -7768,58 +5810,58 @@
     </row>
     <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>390</v>
+      <c r="A5" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>395</v>
+      <c r="A6" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -7870,104 +5912,104 @@
     </row>
     <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="189.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="408.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>189</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -7996,27 +6038,27 @@
   <cols>
     <col min="1" max="1" width="25.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" style="21" customWidth="1"/>
     <col min="4" max="4" width="38.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="39"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8140,16 +6182,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8160,7 +6202,7 @@
       <c r="B3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -8171,7 +6213,7 @@
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -8210,19 +6252,19 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -8240,16 +6282,16 @@
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="20" t="s">
         <v>111</v>
       </c>
     </row>
@@ -8260,10 +6302,10 @@
       <c r="B12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>111</v>
       </c>
     </row>
@@ -8274,10 +6316,10 @@
       <c r="B13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>118</v>
       </c>
     </row>
@@ -8288,10 +6330,10 @@
       <c r="B14" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="10" t="s">
         <v>122</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -8334,16 +6376,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8825,7 +6867,7 @@
       <c r="A4" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>220</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -8942,7 +6984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -8976,25 +7018,25 @@
       <c r="A3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>405</v>
+      <c r="B3" s="28" t="s">
+        <v>356</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>396</v>
+      <c r="D3" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>408</v>
+      <c r="B4" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>189</v>
@@ -9010,17 +7052,17 @@
       <c r="A5" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>409</v>
+      <c r="B5" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>360</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -9028,17 +7070,17 @@
       <c r="A6" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>411</v>
+      <c r="B6" s="28" t="s">
+        <v>362</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>421</v>
+      <c r="D6" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
@@ -9048,11 +7090,11 @@
       <c r="B7" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>399</v>
+      <c r="C7" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>350</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>252</v>
@@ -9062,71 +7104,71 @@
       <c r="A8" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>414</v>
+      <c r="B8" s="28" t="s">
+        <v>365</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>401</v>
+      <c r="D8" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>352</v>
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" s="36" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:6" s="32" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>407</v>
+      <c r="D9" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="243" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>404</v>
+      <c r="B10" s="33" t="s">
+        <v>355</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>403</v>
+        <v>348</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>419</v>
+        <v>368</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>369</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="29"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="25"/>
+      <c r="D12" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -9147,10 +7189,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A2:E16"/>
+  <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9158,283 +7200,184 @@
     <col min="1" max="1" width="36.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="4" max="4" width="44.375" customWidth="1"/>
     <col min="5" max="5" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="35" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D5" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A6" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D6" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A7" s="37" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="B7" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="A8" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="108" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="405" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="351" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>312</v>
+    </row>
+    <row r="9" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="A9" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="243" x14ac:dyDescent="0.15">
+      <c r="A11" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" tooltip="http://localhost:9090/edu/xlfb" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" tooltip="http://localhost:9090/edu/byyx" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" tooltip="http://localhost:9090/edu/xbbl" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId5" tooltip="http://localhost:9090/edu/jszb" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="B9" r:id="rId6" tooltip="http://localhost:9090/edu/type" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" tooltip="http://localhost:9090/edu/base" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="B10" r:id="rId8" tooltip="http://localhost:9090/edu/xsrs" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -9475,175 +7418,175 @@
     </row>
     <row r="3" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="28" t="s">
-        <v>350</v>
+      <c r="A11" s="24" t="s">
+        <v>301</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>390</v>
+        <v>302</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>341</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="28" t="s">
-        <v>354</v>
+      <c r="A12" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijWorkSpace\idea\git\gpdp\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijWorkSpace\git\gpdp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589DD95B-77DF-4995-829B-07A26570BD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D54F00-D073-4B8F-8AA4-BD91B1A5E686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="智慧党建" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="410">
   <si>
     <t>http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090</t>
   </si>
@@ -2864,51 +2864,7 @@
 "JQMC": 景区名称</t>
   </si>
   <si>
-    <t>全市景区接待人数趋势图</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/trip/rsqs</t>
-  </si>
-  <si>
     <t>date:2021</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "EIGHT": 0,
-            "SIX": 0,
-            "ONE": 2.2,
-            "FOUR": 0,
-            "TWO": 3,
-            "ELEVEN": 0,
-            "FIVE": 0,
-            "NINE": 0,
-            "TWELVE": 0,
-            "TEN": 0,
-            "JQMC": "炎帝陵",
-            "THREE": 0,
-            "SEVEN": 0
-        },
-        {
-            "EIGHT": 0,
-            "SIX": 0,
-            "ONE": 1,
-            "FOUR": 0,
-            "TWO": 2,
-            "ELEVEN": 0,
-            "FIVE": 0,
-            "NINE": 0,
-            "TWELVE": 0,
-            "TEN": 0,
-            "JQMC": "大凉山",
-            "THREE": 0,
-            "SEVEN": 0
-        }
-    ]
-}</t>
   </si>
   <si>
     <t>"EIGHT":八月
@@ -2926,137 +2882,19 @@
 "SEVEN": 七月</t>
   </si>
   <si>
-    <t>门票收入月报</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/trip/mpMonth</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "EIGHT": 0,
-            "SIX": 0,
-            "ONE": 5,
-            "FOUR": 0,
-            "JQDMC": "大凉山",
-            "TWO": 3.6,
-            "ELEVEN": 0,
-            "FIVE": 0,
-            "NINE": 0,
-            "TWELVE": 0,
-            "TEN": 0,
-            "THREE": 0,
-            "SEVEN": 0
-        },
-        {
-            "EIGHT": 0,
-            "SIX": 0,
-            "ONE": 3,
-            "FOUR": 0,
-            "JQDMC": "炎帝陵",
-            "TWO": 2,
-            "ELEVEN": 0,
-            "FIVE": 0,
-            "NINE": 0,
-            "TWELVE": 0,
-            "TEN": 0,
-            "THREE": 0,
-            "SEVEN": 0
-        }
-    ]
-}</t>
-  </si>
-  <si>
     <t>景区运营报告</t>
   </si>
   <si>
-    <t>http://localhost:9090/trip/report</t>
-  </si>
-  <si>
-    <t>date:2012</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": {
-        "data": [
-            {
-                "COUNT": 0,
-                "NAME": "jdrs"
-            },
-            {
-                "COUNT": 0,
-                "NAME": "zsr"
-            },
-            {
-                "COUNT": 0,
-                "NAME": "mpsr"
-            }
-        ],
-        "day": 104
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day ：运营天数
-mpsr：门票收入
-jdrs：接待人数
-zsr：总收入
-</t>
-  </si>
-  <si>
     <t>旅游景区人气排名</t>
   </si>
   <si>
-    <t>http://localhost:9090/trip/rank</t>
-  </si>
-  <si>
     <t>无</t>
   </si>
   <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "UNIT": "万元",
-            "COUNT": 4,
-            "JQMC": "炎帝陵"
-        },
-        {
-            "UNIT": "万元",
-            "COUNT": 4,
-            "JQMC": "大凉山"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "UNIT": 单位,
-  "COUNT": 数值,
-  "JQMC": 景区名称</t>
-  </si>
-  <si>
     <t>入境旅游者人数占比分析</t>
   </si>
   <si>
     <t>http://localhost:9090/trip/rjrsCount</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": {
-        "WGR": 3,
-        "TW": 1.6,
-        "AM": 8.2,
-        "XG": 3.2
-    }
-}</t>
   </si>
   <si>
     <t xml:space="preserve">        "WGR": 外国人,
@@ -3136,12 +2974,6 @@
 "LYZSSSJ"  '旅游住宿设施(家)';</t>
   </si>
   <si>
-    <t>各停车场车位占用分析</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/trip/cwCount</t>
-  </si>
-  <si>
     <t>{
     "msg": "成功",
     "code": 200,
@@ -3171,9 +3003,6 @@
   </si>
   <si>
     <t>Gis</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/trip/gis</t>
   </si>
   <si>
     <t>{
@@ -3214,12 +3043,6 @@
 "XXDZ" : '详细地址',
 "XZQY" : '行政区域',
 "YB" : '邮编'</t>
-  </si>
-  <si>
-    <t>视频监控</t>
-  </si>
-  <si>
-    <t>优良天数比例</t>
   </si>
   <si>
     <t>门诊/急诊人数</t>
@@ -4931,6 +4754,280 @@
   </si>
   <si>
     <t>edu/xszb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">day ：运营天数
+mpsr：门票收入
+jdrs：接待人数
+zsr：总收入
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "data": 
+            {
+                "zsr": 0,
+                "jdrs": 0
+                "mpsr": 0,
+            }
+        ,
+        "day": 104
+    }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {            
+            "JDRS": 4,
+            "JQMC": "炎帝陵"
+        },
+        {
+            "JDRS": 4,
+            "JQMC": "大凉山"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  
+  "JDRS": 接待人数, 单位(万人)
+  "JQMC": 景区名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>全市景区接待人数趋势图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合收入月报</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "EIGHT": 0,
+            "SIX": 0,
+            "ONE": 5,
+            "FOUR": 0,
+            "JQMC": "大凉山",
+            "TWO": 3.6,
+            "ELEVEN": 0,
+            "FIVE": 0,
+            "NINE": 0,
+            "TWELVE": 0,
+            "TEN": 0,
+            "THREE": 0,
+            "SEVEN": 0
+        },
+        {
+            "EIGHT": 0,
+            "SIX": 0,
+            "ONE": 3,
+            "FOUR": 0,
+            "JQMC": "炎帝陵",
+            "TWO": 2,
+            "ELEVEN": 0,
+            "FIVE": 0,
+            "NINE": 0,
+            "TWELVE": 0,
+            "TEN": 0,
+            "THREE": 0,
+            "SEVEN": 0
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"EIGHT":八月
+"SIX": 六月
+"ONE": 一月
+"FOUR": 四月
+"JQMC": 景区名称
+"TWO": 二月
+"ELEVEN": 十一月
+"FIVE": 五月
+"NINE": 九月
+"TWELVE": 十二月
+"TEN": 十月
+"THREE": 三月
+"SEVEN": 七月</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>全市景区停泊车位数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/cwCount</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>全市文旅配套资源占比</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/gis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/wlptzb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "WGR": 3,
+        "TW": 1.6,
+        "AM": 8.2,
+        "XG": 3.2
+    }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/rsqs</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "EIGHT": 0,
+            "SIX": 0,
+            "ONE": 2.2,
+            "FOUR": 0,
+            "TWO": 3,
+            "ELEVEN": 0,
+            "FIVE": 0,
+            "NINE": 0,
+            "TWELVE": 0,
+            "TEN": 0,
+            "JQMC": "炎帝陵",
+            "THREE": 0,
+            "SEVEN": 0
+        },
+        {
+            "EIGHT": 0,
+            "SIX": 0,
+            "ONE": 1,
+            "FOUR": 0,
+            "TWO": 2,
+            "ELEVEN": 0,
+            "FIVE": 0,
+            "NINE": 0,
+            "TWELVE": 0,
+            "TEN": 0,
+            "JQMC": "大凉山",
+            "THREE": 0,
+            "SEVEN": 0
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/mpMonth</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/report</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>date:2021</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/rank</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        {
+            "SL": 13,
+            "NAME": "注册导游数量"
+        },
+        {
+            "SL": 15,
+            "NAME": "互联网上网服务营业场所"
+        },
+        {
+            "SL": 6,
+            "NAME": "旅行社数量"
+        },
+        {
+            "SL": 13,
+            "NAME": "其他娱乐场数量"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文物保护单位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "data": [
+            {
+                "SD": "清",
+                "JB": "晋城市级",
+                "WWMC": "北诗大庙"
+            }
+        ],
+        "count": [
+            {
+                "JB": "晋城市级",
+                "SL": 112
+            },
+            {
+                "JB": "省级",
+                "SL": 22
+            },
+            {
+                "JB": "高平市级",
+                "SL": 33
+            },
+            {
+                "JB": "国家级",
+                "SL": 22
+            }
+        ]
+    }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/wwbh</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5019,7 +5116,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5035,6 +5132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5071,7 +5174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5195,11 +5298,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5521,12 +5645,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
@@ -5810,58 +5934,58 @@
     </row>
     <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="25" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="25" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -5912,104 +6036,104 @@
     </row>
     <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="189.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="408.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -6043,10 +6167,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
@@ -6581,8 +6705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6629,186 +6753,206 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+      <c r="A6" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="B6" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="B7" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="41" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="283.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="216" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>191</v>
+      <c r="D7" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>194</v>
+        <v>174</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>399</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="270" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="216" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="297" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>207</v>
+      <c r="A11" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="297" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>396</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="297" x14ac:dyDescent="0.15">
+      <c r="A13" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="E14" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" tooltip="http://localhost:9090/trip/rsMonth" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="B7" r:id="rId3" tooltip="http://localhost:9090/trip/rank" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
     <hyperlink ref="B9" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
     <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
     <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="B12" r:id="rId10" tooltip="http://localhost:9090/trip/gis" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{46413B36-F06A-4A7C-8CEA-DF0CE9400F2B}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{6EF26F8C-4D7B-4DC1-BE32-8E6FF0108F70}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -6848,121 +6992,121 @@
     </row>
     <row r="3" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="324" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -7016,154 +7160,154 @@
     </row>
     <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="C5" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>341</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>360</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" s="32" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="243" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -7191,8 +7335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7223,147 +7367,147 @@
     </row>
     <row r="3" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="243" x14ac:dyDescent="0.15">
       <c r="A8" s="37" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="243" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="243" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -7418,175 +7562,175 @@
     </row>
     <row r="3" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A12" s="24" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijWorkSpace\git\gpdp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D54F00-D073-4B8F-8AA4-BD91B1A5E686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8153A883-7532-412C-B334-6CE66D022643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="411">
   <si>
     <t>http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090</t>
   </si>
@@ -5028,6 +5028,14 @@
   </si>
   <si>
     <t>http://localhost:9090/trip/wwbh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SD": "时代",
+"JB": "级别",
+"WWMC": "文物名称"
+"JB": "级别",
+"SL": 数量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5174,7 +5182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5321,9 +5329,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6706,7 +6711,7 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6735,7 +6740,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="216" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="216" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>169</v>
       </c>
@@ -6820,7 +6825,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>179</v>
       </c>
@@ -6837,7 +6842,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="270" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="270" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>182</v>
       </c>
@@ -6854,7 +6859,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="216" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="216" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>186</v>
       </c>
@@ -6888,7 +6893,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="297" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="297" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>192</v>
       </c>
@@ -6933,7 +6938,9 @@
       <c r="D14" s="43" t="s">
         <v>408</v>
       </c>
-      <c r="E14" s="49"/>
+      <c r="E14" s="43" t="s">
+        <v>410</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijWorkSpace\git\gpdp\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijWorkSpace\idea\git\gpdp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8153A883-7532-412C-B334-6CE66D022643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEF3CBA-103B-45A2-A8BA-B49C15D9D358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="智慧党建" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="421">
   <si>
     <t>http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090</t>
   </si>
@@ -3998,9 +3998,6 @@
     <t>总概览</t>
   </si>
   <si>
-    <t>http://localhost:9090/sjzc/count</t>
-  </si>
-  <si>
     <t>{
     "msg": "成功",
     "code": 200,
@@ -4008,141 +4005,10 @@
 }</t>
   </si>
   <si>
-    <t>"exchange" :'今日交换量/GB'
-"into_organization" :'已入库组织/个'
-"resource_num" :'资源数/个'
-"total_count" :'总数据量/万条'
-"total_store" :'总存储量/GB',
-"spCount": 视频总数</t>
-  </si>
-  <si>
-    <t>接入排名</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/sjzc/jrpm</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": {       
-        "rzl": [],
-        "jrzl": []
-    }
-}</t>
-  </si>
-  <si>
-    <t>"rzl"：日增量
-      name：'单位名称'
-      total：'数据量/万条'
-"jrzl":接入总量
-      name：'单位名称'
-      total：'数据量/万条'
-"qb":全部
-      name：'单位名称'
-      jrzl：'介入总量'
-       rzl ：自增量</t>
-  </si>
-  <si>
-    <t>接入排查</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/sjzc/jrpc</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": {
-        "qb": [],
-        "kbsl": [],
-        "spsl": []
-    }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-"kbsl": 库表数量
-    "insert_num": '接入数'
-    "last_report_time": '最近上报时间'
-     "name": '单位名称'
-     "update_num": '更新数'
-"spsl": 视频数量
-      "SBPT": "公安局",
-      "NUM": 668
-"qb":全部
-      "insert_num": '接入数'
-    "last_report_time": '最近上报时间'
-     "name": '单位名称'
-     "NUM": 视频数量</t>
-  </si>
-  <si>
     <t>交换共享</t>
   </si>
   <si>
-    <t>http://localhost:9090/sjzc/jhgx</t>
-  </si>
-  <si>
-    <t>"data_num":'进入入库量'
-"day_exchange_num":'今日交换量/个'
-"dept_resource":'部门库资源数/个'
-"exchange_resource":'交换共享资源数/个'
-"into_city":'接入县'
-"into_organization":'接入组织/家'
-"into_resource":'接入资源数/个'
-"into_resource_api":'接入资源数api数/个'
-"into_resource_data":'接入资源数据库表数/个'
-"into_resource_file":'接入资源数文件数/个'
-"month_exchange_num":'本月交换量/条'
-"offline_num":'今日上报量'
-"real_data":'今日未上报数据（类）'
-"share_api":'共享资源api数/个'
-"share_data":'共享资源数据库表数/个'
-"share_file":'共享资源文件数/个'
-"theme_resource":'主题库资源数/个'
-"total_dept":'部门库总数据量/万条'
-"total_dept_store":'部门库总存储量/GB'
-"total_exchange":'交换共享总数据量/万条'
-"total_exchange_store":'交换共享总存储量/GB'
-"total_theme":'主题库总数/万条'
-"total_theme_store":'主题库总存储量/GB'
-"wash_data":'总清洗量/万条'</t>
-  </si>
-  <si>
     <t>数据质量</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/sjzc/sjzl</t>
-  </si>
-  <si>
-    <t>"problem_data":'疑问量/万条'
-"total_data_data":'上报量/万条'</t>
-  </si>
-  <si>
-    <t>销量排名</t>
-  </si>
-  <si>
-    <t>http://localhost:9090/sjzc/xlpm</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": {        
-        "wts": [],
-        "lx": []
-    }
-}</t>
-  </si>
-  <si>
-    <t>"lx": 离线
-    "correct_data":'上报量/万条'
-    "dept":'部门'
-    "not_data":'入库量/万条'
-    "problem_data":'疑问量/万条'
-"wts": []
-    Query_data_volume：疑问数据量
-Volume_unquestioned ：无疑问数据量</t>
   </si>
   <si>
     <t>无</t>
@@ -5036,6 +4902,331 @@
 "WWMC": "文物名称"
 "JB": "级别",
 "SL": 数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {     
+         "jrzl": []
+    }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据归集排名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+"jrzl":数据归集排名
+      name：'单位名称'
+      total：'归集数据量/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">条'
+</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线目录排名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "kbsl": []
+    }
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"day_exchange_num" : '今日交换量/个';
+"month_exchange_num" : '本月交换量/条';
+"into_city" : '接入乡镇/区';
+"into_organization" : '接入组织/单位/家';
+"into_resource" : '接入资源数/个';
+"into_resource_api" : '接入资源数api数/个';
+"into_resource_data" : '接入资源数据库表数/个';
+"into_resource_file" : '接入资源数文件数/个';
+"share_api" : '共享资源api数/个';
+"share_data" : '共享资源数据库表数/个';
+"share_file" : '共享资源文件数/个';
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Volume_unquestioned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>":'稽核数据量'
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Query_data_volume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>":'问题数据量/条'</t>
+    </r>
+  </si>
+  <si>
+    <t>数据量统计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name 单位名称
+GXL 更新量/条
+RKL 入库量/条
+YWL 疑问量/条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"into_organization" :'已入库组织/个'
+"resource_num" :'资源数/个'
+"total_count" :'数据上报总数/万条'
+"total": 数据归集总数/万条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题资源库数统计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门时效统计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:主题库名称
+total:主题库数据量/条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:单位名称
+ZCL:正常上报周期数
+CSL:超时上报周期数
+LBL:漏报周期数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sjzc/bmsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+       {
+            "ZCL": 2966,
+            "LBL": 1,
+            "name": "高平市大数据中心",
+            "CSL": 817
+        }
+      ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sjzc/ztzy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+            {
+            "total": 135,
+            "name": "电子证照库"
+        }
+     ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sjzc/xlpm</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+           {
+            "RKL": 2935844,
+            "name": "城乡养老保险发放明细（基本险）",
+            "GXL": 164049,
+            "YWL": 62
+        }
+     ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sjzc/sjzl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sjzc/jhgx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          "into_resource": 78,
+        "into_city": 16,
+        "share_api": 0,
+        "day_exchange_num": 3,
+        "into_resource_api": 0,
+        "into_resource_data": 66,
+        "into_organization": "89        ",
+        "into_resource_file": 12,
+        "month_exchange_num": 73708,
+        "share_file": 12,
+        "share_data": 66</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}
+}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sjzc/jrpc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"kbsl": 上线目录排名
+      name：'单位名称'
+      total：'目录数量/条'
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sjzc/jrpm</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sjzc/count</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": {
+        "total": 7790441,
+        "total_count": 874,
+        "into_organization": 90,
+        "resource_num": 0
+     }
+}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5182,7 +5373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5329,6 +5520,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5973,24 +6173,24 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="25" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="25" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -6007,10 +6207,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A2:E8"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6039,119 +6239,156 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="189.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>397</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="408.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E7" s="50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>412</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D9" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="189.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="408.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="108" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>321</v>
+      <c r="D10" s="50" t="s">
+        <v>408</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0A00-000005000000}"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://localhost:9090/sjzc/count" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://localhost:9090/sjzc/jrpm" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://localhost:9090/sjzc/jrpc" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://localhost:9090/sjzc/jhgx" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://localhost:9090/sjzc/sjzl" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" display="http://localhost:9090/sjzc/xlpm" xr:uid="{00000000-0004-0000-0A00-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" display="http://localhost:9090/sjzc/ztzy" xr:uid="{DF45B0E2-F5F7-4354-90CD-BB2EA7EB749E}"/>
+    <hyperlink ref="B10" r:id="rId8" display="http://localhost:9090/sjzc/bmsx" xr:uid="{6C19D3F9-C5F4-445A-9CE5-22559246B4E1}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -6710,7 +6947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -6759,16 +6996,16 @@
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>174</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>175</v>
@@ -6776,19 +7013,19 @@
     </row>
     <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>174</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="189" x14ac:dyDescent="0.15">
@@ -6796,16 +7033,16 @@
         <v>176</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
@@ -6813,16 +7050,16 @@
         <v>177</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>178</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.15">
@@ -6836,7 +7073,7 @@
         <v>174</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>181</v>
@@ -6878,10 +7115,10 @@
     </row>
     <row r="11" spans="1:5" ht="297" x14ac:dyDescent="0.15">
       <c r="A11" s="44" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>178</v>
@@ -6898,7 +7135,7 @@
         <v>192</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>178</v>
@@ -6912,34 +7149,34 @@
     </row>
     <row r="13" spans="1:5" ht="297" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A14" s="41" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -7170,16 +7407,16 @@
         <v>225</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.15">
@@ -7187,7 +7424,7 @@
         <v>226</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>178</v>
@@ -7204,16 +7441,16 @@
         <v>229</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -7222,16 +7459,16 @@
         <v>230</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
@@ -7242,10 +7479,10 @@
         <v>232</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>233</v>
@@ -7256,16 +7493,16 @@
         <v>234</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -7280,10 +7517,10 @@
         <v>238</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="243" x14ac:dyDescent="0.15">
@@ -7291,30 +7528,30 @@
         <v>239</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -7374,36 +7611,36 @@
     </row>
     <row r="3" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>178</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>178</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
@@ -7411,16 +7648,16 @@
         <v>240</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>241</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="G5" s="38"/>
     </row>
@@ -7429,16 +7666,16 @@
         <v>242</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>178</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.15">
@@ -7446,30 +7683,30 @@
         <v>243</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>178</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="243" x14ac:dyDescent="0.15">
       <c r="A8" s="37" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>178</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>244</v>
@@ -7477,44 +7714,44 @@
     </row>
     <row r="9" spans="1:7" ht="243" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="243" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -7714,7 +7951,7 @@
         <v>283</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>284</v>

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijWorkSpace\idea\git\gpdp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEF3CBA-103B-45A2-A8BA-B49C15D9D358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A86ECD-4B89-4288-8E70-A22D85333C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="智慧党建" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="422">
   <si>
     <t>http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090</t>
   </si>
@@ -2883,9 +2883,6 @@
   </si>
   <si>
     <t>景区运营报告</t>
-  </si>
-  <si>
-    <t>旅游景区人气排名</t>
   </si>
   <si>
     <t>无</t>
@@ -5227,6 +5224,15 @@
         "resource_num": 0
      }
 }</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游景区人气排名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jb:级别(文本) 
+必传 默认传空</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5373,7 +5379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5512,6 +5518,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5520,15 +5538,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5850,12 +5859,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
@@ -6139,58 +6148,58 @@
     </row>
     <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>308</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -6209,7 +6218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -6241,138 +6250,138 @@
     </row>
     <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B3" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>419</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>420</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>402</v>
+      <c r="E3" s="47" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>394</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>393</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="189.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="E5" s="47" t="s">
         <v>416</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>397</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="408.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="47" t="s">
         <v>414</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>415</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>398</v>
+      <c r="E6" s="47" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>301</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>399</v>
+        <v>177</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A8" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="E8" s="47" t="s">
         <v>400</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>412</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A9" s="41" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="47" t="s">
         <v>409</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>410</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>405</v>
+      <c r="E9" s="47" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A10" s="41" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B10" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="47" t="s">
         <v>407</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>408</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>406</v>
+      <c r="E10" s="47" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -6409,10 +6418,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="47"/>
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
@@ -6947,8 +6956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6996,16 +7005,16 @@
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>382</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>383</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>175</v>
@@ -7013,19 +7022,19 @@
     </row>
     <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>174</v>
       </c>
       <c r="D5" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>373</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="189" x14ac:dyDescent="0.15">
@@ -7033,150 +7042,150 @@
         <v>176</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>385</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="D6" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" s="42" t="s">
         <v>386</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="C7" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="43" t="s">
         <v>368</v>
       </c>
-      <c r="E6" s="43" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>387</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="43" t="s">
+      <c r="E7" s="43" t="s">
         <v>369</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="270" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="216" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="297" x14ac:dyDescent="0.15">
       <c r="A11" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>376</v>
-      </c>
       <c r="C11" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="45" t="s">
         <v>190</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="297" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="297" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B13" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>379</v>
       </c>
-      <c r="C13" s="44" t="s">
-        <v>380</v>
-      </c>
       <c r="D13" s="43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A14" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="D14" s="43" t="s">
         <v>389</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="E14" s="43" t="s">
         <v>391</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>390</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -7236,121 +7245,121 @@
     </row>
     <row r="3" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="324" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -7404,154 +7413,154 @@
     </row>
     <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>320</v>
-      </c>
       <c r="E3" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>326</v>
-      </c>
       <c r="E6" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="D8" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" s="32" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="C9" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>238</v>
-      </c>
       <c r="D9" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="243" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="D11" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>332</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -7611,147 +7620,147 @@
     </row>
     <row r="3" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>241</v>
-      </c>
       <c r="D5" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="39" t="s">
         <v>351</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>352</v>
       </c>
       <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="243" x14ac:dyDescent="0.15">
       <c r="A8" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="243" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>357</v>
-      </c>
       <c r="D9" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" s="39" t="s">
         <v>359</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D10" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>361</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="243" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="D11" s="39" t="s">
+      <c r="E11" s="36" t="s">
         <v>364</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -7806,175 +7815,175 @@
     </row>
     <row r="3" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>248</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>257</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A12" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/docs/高平大屏数据接口.xlsx
+++ b/docs/高平大屏数据接口.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijWorkSpace\idea\git\gpdp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A86ECD-4B89-4288-8E70-A22D85333C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FD9F11-B312-4E13-A492-2126DE98D87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,22 @@
     <sheet name="视频" sheetId="11" r:id="rId10"/>
     <sheet name="数据资产" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="426">
   <si>
     <t>http://localhost:9090/zhdj/djfc  -&gt;  localhost:9090 换成服务器的ip，测试IP地址+端口  192.168.31.73:9090</t>
   </si>
@@ -2997,49 +3007,6 @@
   <si>
     <t>"SL": 数量,
 "JQMC": 景区名称</t>
-  </si>
-  <si>
-    <t>Gis</t>
-  </si>
-  <si>
-    <t>{
-    "msg": "成功",
-    "code": 200,
-    "data": [
-        {
-            "FZR" : '负责人',
-   "GW" : '官网',
-   "JD" : '经度',
-   "JQDJ" : '景区等级',
-   "JQJS" : '景区介绍',
-   "JQMC" : '景区名称',
-   "LXDH" : '联系电话',
-   "SP" : '视频（多个）',
-   "TB" : '图标',
-   "TP" : '图片（多张）',
-   "WD" : '纬度',
-   "XXDZ" : '详细地址',
-   "XZQY" : '行政区域',
-   "YB" : '邮编'
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>"FZR" : '负责人',
-"GW" : '官网',
-"JD" : '经度',
-"JQDJ" : '景区等级',
-"JQJS" : '景区介绍',
-"JQMC" : '景区名称',
-"LXDH" : '联系电话',
-"SP" : '视频（多个）',
-"TB" : '图标',
-"TP" : '图片（多张）',
-"WD" : '纬度',
-"XXDZ" : '详细地址',
-"XZQY" : '行政区域',
-"YB" : '邮编'</t>
   </si>
   <si>
     <t>门诊/急诊人数</t>
@@ -5233,6 +5200,72 @@
   <si>
     <t>jb:级别(文本) 
 必传 默认传空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>优良天数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090/trip/ylts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+        "YLT":""
+        "CBTS":""
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"YLT":"优良天数"
+"CBTS":"超标天数"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图展示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "msg": "成功",
+    "code": 200,
+    "data": [
+         {
+            "YYDWXZ": "国企",
+            "JQZYLX": "乡村旅游、人文",
+            "MC": "良户景区",
+            "DJ": "AAA",
+            "YYDWMC": "高平市良户文化旅游开发有限公司",
+            "FR": "武卫军"
+            JD
+            WD
+            XZQY
+            JQJS
+            ZXDH
+            IMG_URL
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"YYDWXZ": "运营单位性质",
+"JQZYLX": "景区主要类型",
+"MC": "名称",
+"DJ": "等级",
+"YYDWMC": "运营单位名称",
+ "FR": "法人"
+ JD 经度
+WD 纬度
+XZQY 行政区域
+JQJS 景区简介
+ZXDH 咨询电话
+IMG_URL 图片</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5379,7 +5412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5529,6 +5562,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5859,12 +5895,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
@@ -6148,58 +6184,58 @@
     </row>
     <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>177</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="25" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="25" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>305</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -6250,138 +6286,138 @@
     </row>
     <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="41" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>177</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>177</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="189.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>177</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="408.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="41" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>177</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>177</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A8" s="44" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A9" s="41" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>177</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A10" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>403</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>406</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>177</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -6418,10 +6454,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="51"/>
+      <c r="A1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
@@ -6954,10 +6990,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:E14"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7005,16 +7041,16 @@
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="44" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>175</v>
@@ -7022,19 +7058,19 @@
     </row>
     <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>174</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="189" x14ac:dyDescent="0.15">
@@ -7042,33 +7078,33 @@
         <v>176</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A7" s="44" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.15">
@@ -7082,7 +7118,7 @@
         <v>174</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>180</v>
@@ -7124,10 +7160,10 @@
     </row>
     <row r="11" spans="1:5" ht="297" x14ac:dyDescent="0.15">
       <c r="A11" s="44" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>177</v>
@@ -7139,53 +7175,70 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="297" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>191</v>
+        <v>423</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>193</v>
+        <v>424</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="297" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>376</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>379</v>
-      </c>
       <c r="D13" s="43" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A14" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="43" t="s">
         <v>388</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>390</v>
-      </c>
-      <c r="C14" s="49" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="D14" s="43" t="s">
-        <v>389</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>391</v>
+      <c r="E15" s="9" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -7203,9 +7256,10 @@
     <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
     <hyperlink ref="B13" r:id="rId11" xr:uid="{46413B36-F06A-4A7C-8CEA-DF0CE9400F2B}"/>
     <hyperlink ref="B14" r:id="rId12" xr:uid="{6EF26F8C-4D7B-4DC1-BE32-8E6FF0108F70}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{0AD1F153-FAA9-4661-8B81-231286E6847D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -7245,121 +7299,121 @@
     </row>
     <row r="3" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="324" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -7413,154 +7467,154 @@
     </row>
     <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" s="32" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="243" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>329</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -7620,147 +7674,147 @@
     </row>
     <row r="3" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>177</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>177</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5" s="39" t="s">
         <v>348</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>351</v>
       </c>
       <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>177</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>177</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="243" x14ac:dyDescent="0.15">
       <c r="A8" s="37" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>177</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="243" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="E9" s="39" t="s">
         <v>356</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="D10" s="39" t="s">
-        <v>360</v>
-      </c>
       <c r="E10" s="39" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="243" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>365</v>
-      </c>
       <c r="D11" s="39" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -7815,175 +7869,175 @@
     </row>
     <row r="3" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="9" t="s">
         <v>263</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="E8" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>281</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A12" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="E12" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
